--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12F34CB-AFBD-44B4-B0A2-48B15C8A0517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848FD94E-B5E0-46BC-862D-7F823065F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="5580" windowWidth="24225" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="3285" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="W19_赤山町駅_UIList" sheetId="1" r:id="rId1"/>
+    <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
     <sheet name="入力規則" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -130,11 +130,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Type</t>
   </si>
@@ -428,6 +441,9 @@
   </si>
   <si>
     <t>PointValue</t>
+  </si>
+  <si>
+    <t>KeyName</t>
   </si>
   <si>
     <t>X</t>
@@ -562,14 +578,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Yu Gothic&quot;"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Yu Gothic&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -632,18 +647,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,22 +683,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -688,7 +704,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +925,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE200"/>
+  <dimension ref="A1:AF200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -922,14 +938,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" customWidth="1"/>
-    <col min="22" max="22" width="100.140625" customWidth="1"/>
-    <col min="23" max="23" width="62.5703125" customWidth="1"/>
-    <col min="24" max="31" width="14.7109375" customWidth="1"/>
+    <col min="3" max="21" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" customWidth="1"/>
+    <col min="23" max="23" width="100.140625" customWidth="1"/>
+    <col min="24" max="24" width="62.5703125" customWidth="1"/>
+    <col min="25" max="32" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,13 +1009,15 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1007,25 +1025,26 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="3"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1038,172 +1057,176 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="5" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6">
         <v>1035</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="6">
         <v>78</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="6">
         <v>79</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="6">
         <v>110</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="25.5">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" ht="25.5">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="6">
         <v>37</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="6">
         <v>63</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="W4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
-        <f>G3+11</f>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6">
+        <f>H3+11</f>
         <v>1046</v>
       </c>
-      <c r="H5" s="5">
-        <f>H3-68</f>
+      <c r="I5" s="6">
+        <f>I3-68</f>
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7" t="s">
-        <v>34</v>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1212,31 +1235,32 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="W6" s="12"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1245,31 +1269,32 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="W7" s="12"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1278,31 +1303,32 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="8"/>
+      <c r="R8" s="4"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="W8" s="12"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1311,31 +1337,32 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="8"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="W9" s="12"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1344,31 +1371,32 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="8"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="W10" s="12"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1377,31 +1405,32 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="W11" s="12"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1410,31 +1439,32 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="8"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="W12" s="12"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1443,31 +1473,32 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="8"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="W13" s="12"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1476,31 +1507,32 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="W14" s="12"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1509,31 +1541,32 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="W15" s="12"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1542,31 +1575,32 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="4"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="W16" s="12"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1575,31 +1609,32 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="8"/>
+      <c r="R17" s="4"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="W17" s="12"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1608,31 +1643,32 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="W18" s="12"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1641,31 +1677,32 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="W19" s="12"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1674,31 +1711,32 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="4"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="W20" s="12"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1707,31 +1745,32 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="8"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="W21" s="12"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1740,31 +1779,32 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="4"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="W22" s="12"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1773,31 +1813,32 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="W23" s="12"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1806,31 +1847,32 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="W24" s="12"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1839,31 +1881,32 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="W25" s="12"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1872,31 +1915,32 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="4"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="W26" s="12"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1906,30 +1950,31 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="W27" s="12"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1939,30 +1984,31 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="W28" s="12"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="4"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1971,31 +2017,32 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="W29" s="12"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2005,30 +2052,31 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="W30" s="12"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2038,30 +2086,31 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="W31" s="12"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2070,31 +2119,32 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="4"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="W32" s="12"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2104,30 +2154,31 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="W33" s="12"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2137,30 +2188,31 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="W34" s="12"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2169,31 +2221,32 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="8"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="W35" s="12"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2203,30 +2256,31 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="W36" s="12"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -2236,30 +2290,31 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="W37" s="12"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="4"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2268,31 +2323,32 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="4"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="W38" s="12"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="4"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -2302,30 +2358,31 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="W39" s="12"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="4"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -2335,30 +2392,31 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="W40" s="12"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="4"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2367,31 +2425,32 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="4"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
+      <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="11"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="W41" s="12"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="4"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2401,30 +2460,31 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="W42" s="12"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2434,30 +2494,31 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="W43" s="12"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="4"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2466,31 +2527,32 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="8"/>
+      <c r="R44" s="4"/>
       <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
+      <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="W44" s="12"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="4"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -2500,30 +2562,31 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="W45" s="12"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="4"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2532,31 +2595,32 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="4"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
+      <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="W46" s="12"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2566,30 +2630,31 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="W47" s="12"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="4"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2599,30 +2664,31 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="10"/>
       <c r="U48" s="10"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="W48" s="12"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="4"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -2632,30 +2698,31 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="W49" s="12"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="4"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2665,30 +2732,31 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="10"/>
       <c r="U50" s="10"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="W50" s="12"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="4"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2698,30 +2766,31 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="W51" s="12"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="4"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2731,30 +2800,31 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="W52" s="12"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="4"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2764,30 +2834,31 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="11"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="W53" s="12"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="4"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2797,30 +2868,31 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="10"/>
       <c r="U54" s="10"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="W54" s="12"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="4"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2830,30 +2902,31 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="W55" s="12"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="4"/>
-      <c r="B56" s="12"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2863,30 +2936,31 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="W56" s="12"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="4"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -2896,30 +2970,31 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="10"/>
       <c r="U57" s="10"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="W57" s="12"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="4"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -2929,30 +3004,31 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="W58" s="12"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="4"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -2962,30 +3038,31 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="11"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="W59" s="12"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="4"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -2995,30 +3072,31 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="10"/>
       <c r="U60" s="10"/>
       <c r="V60" s="11"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="W60" s="12"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="4"/>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -3028,30 +3106,31 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="11"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="W61" s="12"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="4"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -3061,30 +3140,31 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="11"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="W62" s="12"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="4"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -3094,30 +3174,31 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="11"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="W63" s="12"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="4"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3127,30 +3208,31 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="11"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="W64" s="12"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="4"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -3160,30 +3242,31 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="10"/>
       <c r="V65" s="11"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="W65" s="12"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="4"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -3193,30 +3276,31 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="10"/>
       <c r="U66" s="10"/>
       <c r="V66" s="11"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="W66" s="12"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="4"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -3226,30 +3310,31 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="10"/>
       <c r="U67" s="10"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="W67" s="12"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="4"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -3259,30 +3344,31 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="11"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="W68" s="12"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="4"/>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -3292,30 +3378,31 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="10"/>
       <c r="U69" s="10"/>
       <c r="V69" s="11"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="W69" s="12"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="4"/>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -3325,30 +3412,31 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="10"/>
       <c r="U70" s="10"/>
       <c r="V70" s="11"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="W70" s="12"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="4"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -3358,30 +3446,31 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="10"/>
       <c r="U71" s="10"/>
       <c r="V71" s="11"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="W71" s="12"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="4"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -3391,30 +3480,31 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="10"/>
       <c r="U72" s="10"/>
       <c r="V72" s="11"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="W72" s="12"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="4"/>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -3424,30 +3514,31 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="10"/>
       <c r="U73" s="10"/>
       <c r="V73" s="11"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="W73" s="12"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="4"/>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -3457,30 +3548,31 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="10"/>
       <c r="U74" s="10"/>
       <c r="V74" s="11"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="W74" s="12"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="4"/>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -3490,30 +3582,31 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="10"/>
       <c r="U75" s="10"/>
       <c r="V75" s="11"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="W75" s="12"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="4"/>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -3523,30 +3616,31 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="11"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="W76" s="12"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="4"/>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -3556,30 +3650,31 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="11"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="W77" s="12"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="4"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -3589,30 +3684,31 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="10"/>
       <c r="U78" s="10"/>
       <c r="V78" s="11"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="W78" s="12"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="4"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -3622,30 +3718,31 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="11"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="W79" s="12"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="4"/>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -3655,30 +3752,31 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="10"/>
       <c r="U80" s="10"/>
       <c r="V80" s="11"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="W80" s="12"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="4"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -3688,30 +3786,31 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="10"/>
       <c r="U81" s="10"/>
       <c r="V81" s="11"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="W81" s="12"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="4"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -3721,30 +3820,31 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="11"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="W82" s="12"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="4"/>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -3754,30 +3854,31 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="10"/>
       <c r="U83" s="10"/>
       <c r="V83" s="11"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="W83" s="12"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="4"/>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -3787,30 +3888,31 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="11"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="W84" s="12"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="4"/>
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -3820,30 +3922,31 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="10"/>
       <c r="U85" s="10"/>
       <c r="V85" s="11"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="W85" s="12"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="4"/>
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -3853,30 +3956,31 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="10"/>
       <c r="U86" s="10"/>
       <c r="V86" s="11"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="W86" s="12"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="4"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -3886,30 +3990,31 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="10"/>
       <c r="U87" s="10"/>
       <c r="V87" s="11"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="W87" s="12"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="4"/>
-      <c r="B88" s="8"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -3919,30 +4024,31 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="11"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="W88" s="12"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="4"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -3952,30 +4058,31 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="10"/>
       <c r="U89" s="10"/>
       <c r="V89" s="11"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="W89" s="12"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="4"/>
-      <c r="B90" s="8"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -3985,30 +4092,31 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="10"/>
       <c r="U90" s="10"/>
       <c r="V90" s="11"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="W90" s="12"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="4"/>
-      <c r="B91" s="8"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -4018,30 +4126,31 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="10"/>
       <c r="U91" s="10"/>
       <c r="V91" s="11"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="W91" s="12"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="4"/>
-      <c r="B92" s="8"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -4051,30 +4160,31 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="10"/>
       <c r="U92" s="10"/>
       <c r="V92" s="11"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="W92" s="12"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="4"/>
-      <c r="B93" s="8"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -4084,30 +4194,31 @@
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="10"/>
       <c r="U93" s="10"/>
       <c r="V93" s="11"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="W93" s="12"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="4"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -4117,30 +4228,31 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="10"/>
       <c r="U94" s="10"/>
       <c r="V94" s="11"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="W94" s="12"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="4"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -4150,30 +4262,31 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="10"/>
       <c r="U95" s="10"/>
       <c r="V95" s="11"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="W95" s="12"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="4"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -4183,30 +4296,31 @@
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="10"/>
       <c r="U96" s="10"/>
       <c r="V96" s="11"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="W96" s="12"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="4"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -4216,30 +4330,31 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="10"/>
       <c r="U97" s="10"/>
       <c r="V97" s="11"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="W97" s="12"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="4"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -4249,30 +4364,31 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="10"/>
       <c r="U98" s="10"/>
       <c r="V98" s="11"/>
-      <c r="W98" s="13"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="W98" s="12"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="4"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -4282,30 +4398,31 @@
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="10"/>
       <c r="U99" s="10"/>
       <c r="V99" s="11"/>
-      <c r="W99" s="13"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="W99" s="12"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="4"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -4315,30 +4432,31 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="10"/>
       <c r="U100" s="10"/>
       <c r="V100" s="11"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="W100" s="12"/>
+      <c r="X100" s="14"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="4"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -4348,30 +4466,31 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="10"/>
       <c r="U101" s="10"/>
       <c r="V101" s="11"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="W101" s="12"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="4"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -4381,30 +4500,31 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="10"/>
       <c r="U102" s="10"/>
       <c r="V102" s="11"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="W102" s="12"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="4"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -4414,30 +4534,31 @@
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="10"/>
       <c r="V103" s="11"/>
-      <c r="W103" s="13"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="W103" s="12"/>
+      <c r="X103" s="14"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="4"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -4447,30 +4568,31 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="10"/>
       <c r="U104" s="10"/>
       <c r="V104" s="11"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="W104" s="12"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="4"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -4480,30 +4602,31 @@
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="10"/>
       <c r="U105" s="10"/>
       <c r="V105" s="11"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="W105" s="12"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="4"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -4513,30 +4636,31 @@
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="10"/>
       <c r="U106" s="10"/>
       <c r="V106" s="11"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="W106" s="12"/>
+      <c r="X106" s="14"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="4"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -4546,96 +4670,99 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="10"/>
       <c r="U107" s="10"/>
       <c r="V107" s="11"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="W107" s="12"/>
+      <c r="X107" s="14"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="4"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="10"/>
       <c r="U108" s="10"/>
       <c r="V108" s="11"/>
-      <c r="W108" s="13"/>
+      <c r="W108" s="12"/>
       <c r="X108" s="14"/>
-      <c r="Y108" s="14"/>
-      <c r="Z108" s="14"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="14"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="4"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="10"/>
       <c r="U109" s="10"/>
       <c r="V109" s="11"/>
-      <c r="W109" s="13"/>
+      <c r="W109" s="12"/>
       <c r="X109" s="14"/>
-      <c r="Y109" s="14"/>
-      <c r="Z109" s="14"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="14"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="4"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -4645,30 +4772,31 @@
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="10"/>
       <c r="U110" s="10"/>
       <c r="V110" s="11"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="W110" s="12"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="4"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -4678,30 +4806,31 @@
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="10"/>
       <c r="U111" s="10"/>
       <c r="V111" s="11"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="3"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="W111" s="12"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="4"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -4711,30 +4840,31 @@
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="10"/>
       <c r="U112" s="10"/>
       <c r="V112" s="11"/>
-      <c r="W112" s="13"/>
-      <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="W112" s="12"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="4"/>
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -4744,30 +4874,31 @@
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="10"/>
       <c r="U113" s="10"/>
       <c r="V113" s="11"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="W113" s="12"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="4"/>
-      <c r="B114" s="8"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -4777,30 +4908,31 @@
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="10"/>
       <c r="U114" s="10"/>
       <c r="V114" s="11"/>
-      <c r="W114" s="13"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="W114" s="12"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="4"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -4810,30 +4942,31 @@
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="10"/>
       <c r="U115" s="10"/>
       <c r="V115" s="11"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="W115" s="12"/>
+      <c r="X115" s="14"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="4"/>
-      <c r="B116" s="12"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -4843,30 +4976,31 @@
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="10"/>
       <c r="U116" s="10"/>
       <c r="V116" s="11"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="3"/>
-      <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="W116" s="12"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="4"/>
-      <c r="B117" s="8"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -4876,30 +5010,31 @@
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="10"/>
       <c r="U117" s="10"/>
       <c r="V117" s="11"/>
-      <c r="W117" s="13"/>
-      <c r="X117" s="3"/>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="W117" s="12"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="4"/>
-      <c r="B118" s="8"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -4909,30 +5044,31 @@
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="10"/>
       <c r="U118" s="10"/>
       <c r="V118" s="11"/>
-      <c r="W118" s="15"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="W118" s="12"/>
+      <c r="X118" s="16"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="4"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -4942,30 +5078,31 @@
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="10"/>
       <c r="U119" s="10"/>
       <c r="V119" s="11"/>
-      <c r="W119" s="15"/>
-      <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-      <c r="AA119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="W119" s="12"/>
+      <c r="X119" s="16"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="4"/>
-      <c r="B120" s="8"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -4975,30 +5112,31 @@
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="10"/>
       <c r="U120" s="10"/>
       <c r="V120" s="11"/>
-      <c r="W120" s="15"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="W120" s="12"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" s="4"/>
-      <c r="B121" s="8"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -5008,30 +5146,31 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="10"/>
       <c r="U121" s="10"/>
       <c r="V121" s="11"/>
-      <c r="W121" s="15"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-      <c r="AA121" s="3"/>
-      <c r="AB121" s="3"/>
-      <c r="AC121" s="3"/>
-      <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="W121" s="12"/>
+      <c r="X121" s="16"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" s="4"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -5041,30 +5180,31 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="10"/>
       <c r="U122" s="10"/>
       <c r="V122" s="11"/>
-      <c r="W122" s="13"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-      <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="W122" s="12"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" s="4"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -5074,30 +5214,31 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="10"/>
       <c r="U123" s="10"/>
       <c r="V123" s="11"/>
-      <c r="W123" s="13"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="W123" s="12"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" s="4"/>
-      <c r="B124" s="8"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -5107,30 +5248,31 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="10"/>
       <c r="U124" s="10"/>
       <c r="V124" s="11"/>
-      <c r="W124" s="13"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="W124" s="12"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="5"/>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" s="4"/>
-      <c r="B125" s="8"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -5140,30 +5282,31 @@
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="10"/>
       <c r="U125" s="10"/>
       <c r="V125" s="11"/>
-      <c r="W125" s="13"/>
-      <c r="X125" s="3"/>
-      <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
-      <c r="AA125" s="3"/>
-      <c r="AB125" s="3"/>
-      <c r="AC125" s="3"/>
-      <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="W125" s="12"/>
+      <c r="X125" s="14"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -5173,30 +5316,31 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="10"/>
       <c r="U126" s="10"/>
       <c r="V126" s="11"/>
-      <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="W126" s="12"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="5"/>
+      <c r="AF126" s="5"/>
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -5206,30 +5350,31 @@
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="10"/>
       <c r="U127" s="10"/>
       <c r="V127" s="11"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-      <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="W127" s="12"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" s="4"/>
-      <c r="B128" s="8"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -5242,27 +5387,28 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-      <c r="AA128" s="3"/>
-      <c r="AB128" s="3"/>
-      <c r="AC128" s="3"/>
-      <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="V128" s="4"/>
+      <c r="W128" s="17"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="5"/>
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" s="4"/>
-      <c r="B129" s="8"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -5275,27 +5421,28 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
-      <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-      <c r="AA129" s="3"/>
-      <c r="AB129" s="3"/>
-      <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="V129" s="4"/>
+      <c r="W129" s="17"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" s="4"/>
-      <c r="B130" s="8"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -5308,27 +5455,28 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-      <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
-      <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="V130" s="4"/>
+      <c r="W130" s="17"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" s="4"/>
-      <c r="B131" s="8"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="13"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -5341,27 +5489,28 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
-      <c r="V131" s="16"/>
-      <c r="W131" s="3"/>
-      <c r="X131" s="3"/>
-      <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
-      <c r="AA131" s="3"/>
-      <c r="AB131" s="3"/>
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="V131" s="4"/>
+      <c r="W131" s="17"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" s="4"/>
-      <c r="B132" s="8"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -5374,27 +5523,28 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-      <c r="AA132" s="3"/>
-      <c r="AB132" s="3"/>
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-    </row>
-    <row r="133" spans="1:31">
+      <c r="V132" s="4"/>
+      <c r="W132" s="17"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" s="4"/>
-      <c r="B133" s="8"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -5407,27 +5557,28 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-    </row>
-    <row r="134" spans="1:31">
+      <c r="V133" s="4"/>
+      <c r="W133" s="17"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" s="4"/>
-      <c r="B134" s="8"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -5440,27 +5591,28 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
-      <c r="AA134" s="3"/>
-      <c r="AB134" s="3"/>
-      <c r="AC134" s="3"/>
-      <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
-    </row>
-    <row r="135" spans="1:31">
+      <c r="V134" s="4"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" s="4"/>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -5473,27 +5625,28 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
-      <c r="V135" s="16"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
-      <c r="AA135" s="3"/>
-      <c r="AB135" s="3"/>
-      <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-    </row>
-    <row r="136" spans="1:31">
+      <c r="V135" s="4"/>
+      <c r="W135" s="17"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" s="4"/>
-      <c r="B136" s="8"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -5506,27 +5659,28 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="3"/>
-      <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-      <c r="AA136" s="3"/>
-      <c r="AB136" s="3"/>
-      <c r="AC136" s="3"/>
-      <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="V136" s="4"/>
+      <c r="W136" s="17"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" s="4"/>
-      <c r="B137" s="8"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -5539,27 +5693,28 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
-      <c r="V137" s="16"/>
-      <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-      <c r="AA137" s="3"/>
-      <c r="AB137" s="3"/>
-      <c r="AC137" s="3"/>
-      <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
-    </row>
-    <row r="138" spans="1:31">
+      <c r="V137" s="4"/>
+      <c r="W137" s="17"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" s="4"/>
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -5569,30 +5724,31 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="10"/>
       <c r="U138" s="10"/>
       <c r="V138" s="11"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-      <c r="AA138" s="3"/>
-      <c r="AB138" s="3"/>
-      <c r="AC138" s="3"/>
-      <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
-    </row>
-    <row r="139" spans="1:31">
+      <c r="W138" s="12"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" s="4"/>
-      <c r="B139" s="8"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -5602,30 +5758,31 @@
       <c r="P139" s="4"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="10"/>
       <c r="U139" s="10"/>
       <c r="V139" s="11"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-      <c r="AA139" s="3"/>
-      <c r="AB139" s="3"/>
-      <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-    </row>
-    <row r="140" spans="1:31">
+      <c r="W139" s="12"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" s="4"/>
-      <c r="B140" s="8"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -5635,30 +5792,31 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="10"/>
       <c r="U140" s="10"/>
       <c r="V140" s="11"/>
-      <c r="W140" s="3"/>
-      <c r="X140" s="3"/>
-      <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
-      <c r="AA140" s="3"/>
-      <c r="AB140" s="3"/>
-      <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="W140" s="12"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="5"/>
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" s="4"/>
-      <c r="B141" s="12"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -5668,846 +5826,872 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="10"/>
       <c r="U141" s="10"/>
       <c r="V141" s="11"/>
-      <c r="W141" s="3"/>
-      <c r="X141" s="3"/>
-      <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
-      <c r="AA141" s="3"/>
-      <c r="AB141" s="3"/>
-      <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-    </row>
-    <row r="142" spans="1:31" ht="16.5">
+      <c r="W141" s="12"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+    </row>
+    <row r="142" spans="1:32" ht="16.5">
       <c r="A142" s="4"/>
-      <c r="B142" s="17"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="18"/>
+      <c r="D142" s="19"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
-      <c r="V142" s="3"/>
-      <c r="W142" s="3"/>
-      <c r="X142" s="3"/>
-      <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
-      <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
-      <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-    </row>
-    <row r="143" spans="1:31" ht="16.5">
+      <c r="V142" s="4"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+    </row>
+    <row r="143" spans="1:32" ht="16.5">
       <c r="A143" s="4"/>
-      <c r="B143" s="17"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="18"/>
+      <c r="D143" s="19"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="18"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
-      <c r="V143" s="3"/>
-      <c r="W143" s="3"/>
-      <c r="X143" s="3"/>
-      <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
-      <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-    </row>
-    <row r="144" spans="1:31" ht="16.5">
+      <c r="V143" s="4"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+    </row>
+    <row r="144" spans="1:32" ht="16.5">
       <c r="A144" s="4"/>
-      <c r="B144" s="17"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="18"/>
+      <c r="D144" s="19"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="18"/>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-      <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-    </row>
-    <row r="145" spans="1:31" ht="16.5">
+      <c r="V144" s="4"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+    </row>
+    <row r="145" spans="1:32" ht="16.5">
       <c r="A145" s="4"/>
-      <c r="B145" s="17"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="18"/>
+      <c r="D145" s="19"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="18"/>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
-      <c r="V145" s="3"/>
-      <c r="W145" s="3"/>
-      <c r="X145" s="3"/>
-      <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
-      <c r="AA145" s="3"/>
-      <c r="AB145" s="3"/>
-      <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-    </row>
-    <row r="146" spans="1:31" ht="16.5">
+      <c r="V145" s="4"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+    </row>
+    <row r="146" spans="1:32" ht="16.5">
       <c r="A146" s="4"/>
-      <c r="B146" s="17"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="18"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="18"/>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
-      <c r="V146" s="3"/>
-      <c r="W146" s="3"/>
-      <c r="X146" s="3"/>
-      <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
-      <c r="AA146" s="3"/>
-      <c r="AB146" s="3"/>
-      <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-    </row>
-    <row r="147" spans="1:31" ht="16.5">
+      <c r="V146" s="4"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+    </row>
+    <row r="147" spans="1:32" ht="16.5">
       <c r="A147" s="4"/>
-      <c r="B147" s="17"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="18"/>
+      <c r="D147" s="19"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="17"/>
-      <c r="S147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="18"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
-      <c r="V147" s="3"/>
-      <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-      <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-    </row>
-    <row r="148" spans="1:31" ht="16.5">
+      <c r="V147" s="4"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+    </row>
+    <row r="148" spans="1:32" ht="16.5">
       <c r="A148" s="4"/>
-      <c r="B148" s="17"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="18"/>
+      <c r="D148" s="19"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="18"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
-      <c r="V148" s="3"/>
-      <c r="W148" s="3"/>
-      <c r="X148" s="3"/>
-      <c r="Y148" s="3"/>
-      <c r="Z148" s="3"/>
-      <c r="AA148" s="3"/>
-      <c r="AB148" s="3"/>
-      <c r="AC148" s="3"/>
-      <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
-    </row>
-    <row r="149" spans="1:31" ht="16.5">
+      <c r="V148" s="4"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+    </row>
+    <row r="149" spans="1:32" ht="16.5">
       <c r="A149" s="4"/>
-      <c r="B149" s="17"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="18"/>
+      <c r="D149" s="19"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="17"/>
-      <c r="S149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="18"/>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
-      <c r="V149" s="3"/>
-      <c r="W149" s="3"/>
-      <c r="X149" s="3"/>
-      <c r="Y149" s="3"/>
-      <c r="Z149" s="3"/>
-      <c r="AA149" s="3"/>
-      <c r="AB149" s="3"/>
-      <c r="AC149" s="3"/>
-      <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="V149" s="4"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="9"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
-      <c r="AA150" s="3"/>
-      <c r="AB150" s="3"/>
-      <c r="AC150" s="3"/>
-      <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="V150" s="4"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="9"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
-      <c r="V151" s="3"/>
-      <c r="W151" s="3"/>
-      <c r="X151" s="3"/>
-      <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
-      <c r="AA151" s="3"/>
-      <c r="AB151" s="3"/>
-      <c r="AC151" s="3"/>
-      <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
-    </row>
-    <row r="152" spans="1:31" ht="16.5">
+      <c r="V151" s="4"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+    </row>
+    <row r="152" spans="1:32" ht="16.5">
       <c r="A152" s="4"/>
-      <c r="B152" s="17"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="17"/>
-      <c r="S152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="18"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
-      <c r="V152" s="3"/>
-      <c r="W152" s="3"/>
-      <c r="X152" s="3"/>
-      <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
-      <c r="AA152" s="3"/>
-      <c r="AB152" s="3"/>
-      <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-    </row>
-    <row r="153" spans="1:31" ht="16.5">
+      <c r="V152" s="4"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+    </row>
+    <row r="153" spans="1:32" ht="16.5">
       <c r="A153" s="4"/>
-      <c r="B153" s="17"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="18"/>
+      <c r="D153" s="19"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="18"/>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
-      <c r="V153" s="3"/>
-      <c r="W153" s="3"/>
-      <c r="X153" s="3"/>
-      <c r="Y153" s="3"/>
-      <c r="Z153" s="3"/>
-      <c r="AA153" s="3"/>
-      <c r="AB153" s="3"/>
-      <c r="AC153" s="3"/>
-      <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
-    </row>
-    <row r="154" spans="1:31" ht="16.5">
+      <c r="V153" s="4"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+    </row>
+    <row r="154" spans="1:32" ht="16.5">
       <c r="A154" s="4"/>
-      <c r="B154" s="17"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="18"/>
+      <c r="D154" s="19"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="18"/>
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
-      <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-      <c r="X154" s="3"/>
-      <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
-      <c r="AA154" s="3"/>
-      <c r="AB154" s="3"/>
-      <c r="AC154" s="3"/>
-      <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
-    </row>
-    <row r="155" spans="1:31" ht="16.5">
+      <c r="V154" s="4"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+    </row>
+    <row r="155" spans="1:32" ht="16.5">
       <c r="A155" s="4"/>
-      <c r="B155" s="17"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="18"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="18"/>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
-      <c r="V155" s="3"/>
-      <c r="W155" s="3"/>
-      <c r="X155" s="3"/>
-      <c r="Y155" s="3"/>
-      <c r="Z155" s="3"/>
-      <c r="AA155" s="3"/>
-      <c r="AB155" s="3"/>
-      <c r="AC155" s="3"/>
-      <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
-    </row>
-    <row r="156" spans="1:31" ht="16.5">
+      <c r="V155" s="4"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+    </row>
+    <row r="156" spans="1:32" ht="16.5">
       <c r="A156" s="4"/>
-      <c r="B156" s="17"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="18"/>
+      <c r="D156" s="19"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="18"/>
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
-      <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-      <c r="X156" s="3"/>
-      <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
-      <c r="AA156" s="3"/>
-      <c r="AB156" s="3"/>
-      <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-    </row>
-    <row r="157" spans="1:31" ht="16.5">
+      <c r="V156" s="4"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+      <c r="AE156" s="5"/>
+      <c r="AF156" s="5"/>
+    </row>
+    <row r="157" spans="1:32" ht="16.5">
       <c r="A157" s="4"/>
-      <c r="B157" s="17"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="18"/>
+      <c r="D157" s="19"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="17"/>
-      <c r="S157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="18"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="18"/>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3"/>
-      <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
-      <c r="AA157" s="3"/>
-      <c r="AB157" s="3"/>
-      <c r="AC157" s="3"/>
-      <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
-    </row>
-    <row r="158" spans="1:31" ht="16.5">
+      <c r="V157" s="4"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
+      <c r="AE157" s="5"/>
+      <c r="AF157" s="5"/>
+    </row>
+    <row r="158" spans="1:32" ht="16.5">
       <c r="A158" s="4"/>
-      <c r="B158" s="17"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="18"/>
+      <c r="D158" s="19"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="17"/>
-      <c r="S158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="18"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="18"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
-      <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-      <c r="X158" s="3"/>
-      <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
-      <c r="AA158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="V158" s="4"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
+      <c r="AE158" s="5"/>
+      <c r="AF158" s="5"/>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="9"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
-      <c r="V159" s="3"/>
-      <c r="W159" s="3"/>
-      <c r="X159" s="3"/>
-      <c r="Y159" s="3"/>
-      <c r="Z159" s="3"/>
-      <c r="AA159" s="3"/>
-      <c r="AB159" s="3"/>
-      <c r="AC159" s="3"/>
-      <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="V159" s="4"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
+      <c r="Z159" s="5"/>
+      <c r="AA159" s="5"/>
+      <c r="AB159" s="5"/>
+      <c r="AC159" s="5"/>
+      <c r="AD159" s="5"/>
+      <c r="AE159" s="5"/>
+      <c r="AF159" s="5"/>
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="9"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
-      <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-      <c r="X160" s="3"/>
-      <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
-      <c r="AA160" s="3"/>
-      <c r="AB160" s="3"/>
-      <c r="AC160" s="3"/>
-      <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
-    </row>
-    <row r="161" spans="1:31" ht="16.5">
+      <c r="V160" s="4"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+    </row>
+    <row r="161" spans="1:32" ht="16.5">
       <c r="A161" s="4"/>
-      <c r="B161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="18"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="18"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="18"/>
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
-      <c r="V161" s="3"/>
-      <c r="W161" s="3"/>
-      <c r="X161" s="3"/>
-      <c r="Y161" s="3"/>
-      <c r="Z161" s="3"/>
-      <c r="AA161" s="3"/>
-      <c r="AB161" s="3"/>
-      <c r="AC161" s="3"/>
-      <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
-    </row>
-    <row r="162" spans="1:31" ht="16.5">
+      <c r="V161" s="4"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
+      <c r="Y161" s="5"/>
+      <c r="Z161" s="5"/>
+      <c r="AA161" s="5"/>
+      <c r="AB161" s="5"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="5"/>
+      <c r="AE161" s="5"/>
+      <c r="AF161" s="5"/>
+    </row>
+    <row r="162" spans="1:32" ht="16.5">
       <c r="A162" s="4"/>
-      <c r="B162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="18"/>
+      <c r="D162" s="19"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="17"/>
-      <c r="S162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="18"/>
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
-      <c r="V162" s="3"/>
-      <c r="W162" s="3"/>
-      <c r="X162" s="3"/>
-      <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
-      <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-    </row>
-    <row r="163" spans="1:31" ht="16.5">
+      <c r="V162" s="4"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+      <c r="AE162" s="5"/>
+      <c r="AF162" s="5"/>
+    </row>
+    <row r="163" spans="1:32" ht="16.5">
       <c r="A163" s="4"/>
-      <c r="B163" s="17"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="18"/>
+      <c r="D163" s="19"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="17"/>
-      <c r="S163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="18"/>
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
-      <c r="V163" s="3"/>
-      <c r="W163" s="3"/>
-      <c r="X163" s="3"/>
-      <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-      <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-    </row>
-    <row r="164" spans="1:31" ht="16.5">
+      <c r="V163" s="4"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
+      <c r="Y163" s="5"/>
+      <c r="Z163" s="5"/>
+      <c r="AA163" s="5"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="5"/>
+      <c r="AD163" s="5"/>
+      <c r="AE163" s="5"/>
+      <c r="AF163" s="5"/>
+    </row>
+    <row r="164" spans="1:32" ht="16.5">
       <c r="A164" s="4"/>
-      <c r="B164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="18"/>
+      <c r="D164" s="19"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="17"/>
-      <c r="S164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="18"/>
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-    </row>
-    <row r="165" spans="1:31" ht="16.5">
+      <c r="V164" s="4"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+      <c r="Y164" s="5"/>
+      <c r="Z164" s="5"/>
+      <c r="AA164" s="5"/>
+      <c r="AB164" s="5"/>
+      <c r="AC164" s="5"/>
+      <c r="AD164" s="5"/>
+      <c r="AE164" s="5"/>
+      <c r="AF164" s="5"/>
+    </row>
+    <row r="165" spans="1:32" ht="16.5">
       <c r="A165" s="4"/>
-      <c r="B165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="18"/>
+      <c r="D165" s="19"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="17"/>
-      <c r="S165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="18"/>
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="3"/>
-      <c r="X165" s="3"/>
-      <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-    </row>
-    <row r="166" spans="1:31" ht="16.5">
+      <c r="V165" s="4"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="5"/>
+      <c r="AE165" s="5"/>
+      <c r="AF165" s="5"/>
+    </row>
+    <row r="166" spans="1:32" ht="16.5">
       <c r="A166" s="4"/>
-      <c r="B166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="18"/>
+      <c r="D166" s="19"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="17"/>
-      <c r="S166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="18"/>
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
-      <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-      <c r="X166" s="3"/>
-      <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-      <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-    </row>
-    <row r="167" spans="1:31">
+      <c r="V166" s="4"/>
+      <c r="W166" s="5"/>
+      <c r="X166" s="5"/>
+      <c r="Y166" s="5"/>
+      <c r="Z166" s="5"/>
+      <c r="AA166" s="5"/>
+      <c r="AB166" s="5"/>
+      <c r="AC166" s="5"/>
+      <c r="AD166" s="5"/>
+      <c r="AE166" s="5"/>
+      <c r="AF166" s="5"/>
+    </row>
+    <row r="167" spans="1:32">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6529,18 +6713,19 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
-      <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
-      <c r="AA167" s="3"/>
-      <c r="AB167" s="3"/>
-      <c r="AC167" s="3"/>
-      <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
-    </row>
-    <row r="168" spans="1:31">
+      <c r="V167" s="4"/>
+      <c r="W167" s="5"/>
+      <c r="X167" s="5"/>
+      <c r="Y167" s="5"/>
+      <c r="Z167" s="5"/>
+      <c r="AA167" s="5"/>
+      <c r="AB167" s="5"/>
+      <c r="AC167" s="5"/>
+      <c r="AD167" s="5"/>
+      <c r="AE167" s="5"/>
+      <c r="AF167" s="5"/>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6562,18 +6747,19 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
-      <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
-      <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
-      <c r="AA168" s="3"/>
-      <c r="AB168" s="3"/>
-      <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-    </row>
-    <row r="169" spans="1:31">
+      <c r="V168" s="4"/>
+      <c r="W168" s="5"/>
+      <c r="X168" s="5"/>
+      <c r="Y168" s="5"/>
+      <c r="Z168" s="5"/>
+      <c r="AA168" s="5"/>
+      <c r="AB168" s="5"/>
+      <c r="AC168" s="5"/>
+      <c r="AD168" s="5"/>
+      <c r="AE168" s="5"/>
+      <c r="AF168" s="5"/>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6595,18 +6781,19 @@
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
-      <c r="V169" s="3"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="3"/>
-      <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
-      <c r="AA169" s="3"/>
-      <c r="AB169" s="3"/>
-      <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-    </row>
-    <row r="170" spans="1:31">
+      <c r="V169" s="4"/>
+      <c r="W169" s="5"/>
+      <c r="X169" s="5"/>
+      <c r="Y169" s="5"/>
+      <c r="Z169" s="5"/>
+      <c r="AA169" s="5"/>
+      <c r="AB169" s="5"/>
+      <c r="AC169" s="5"/>
+      <c r="AD169" s="5"/>
+      <c r="AE169" s="5"/>
+      <c r="AF169" s="5"/>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6628,18 +6815,19 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
-      <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
-      <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-    </row>
-    <row r="171" spans="1:31">
+      <c r="V170" s="4"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
+      <c r="Y170" s="5"/>
+      <c r="Z170" s="5"/>
+      <c r="AA170" s="5"/>
+      <c r="AB170" s="5"/>
+      <c r="AC170" s="5"/>
+      <c r="AD170" s="5"/>
+      <c r="AE170" s="5"/>
+      <c r="AF170" s="5"/>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6661,18 +6849,19 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-      <c r="AA171" s="3"/>
-      <c r="AB171" s="3"/>
-      <c r="AC171" s="3"/>
-      <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
-    </row>
-    <row r="172" spans="1:31">
+      <c r="V171" s="4"/>
+      <c r="W171" s="5"/>
+      <c r="X171" s="5"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="5"/>
+      <c r="AE171" s="5"/>
+      <c r="AF171" s="5"/>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6694,18 +6883,19 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3"/>
-      <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
-      <c r="AA172" s="3"/>
-      <c r="AB172" s="3"/>
-      <c r="AC172" s="3"/>
-      <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
-    </row>
-    <row r="173" spans="1:31">
+      <c r="V172" s="4"/>
+      <c r="W172" s="5"/>
+      <c r="X172" s="5"/>
+      <c r="Y172" s="5"/>
+      <c r="Z172" s="5"/>
+      <c r="AA172" s="5"/>
+      <c r="AB172" s="5"/>
+      <c r="AC172" s="5"/>
+      <c r="AD172" s="5"/>
+      <c r="AE172" s="5"/>
+      <c r="AF172" s="5"/>
+    </row>
+    <row r="173" spans="1:32">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6727,18 +6917,19 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
-      <c r="V173" s="3"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-      <c r="AA173" s="3"/>
-      <c r="AB173" s="3"/>
-      <c r="AC173" s="3"/>
-      <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
-    </row>
-    <row r="174" spans="1:31">
+      <c r="V173" s="4"/>
+      <c r="W173" s="5"/>
+      <c r="X173" s="5"/>
+      <c r="Y173" s="5"/>
+      <c r="Z173" s="5"/>
+      <c r="AA173" s="5"/>
+      <c r="AB173" s="5"/>
+      <c r="AC173" s="5"/>
+      <c r="AD173" s="5"/>
+      <c r="AE173" s="5"/>
+      <c r="AF173" s="5"/>
+    </row>
+    <row r="174" spans="1:32">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6760,18 +6951,19 @@
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
-      <c r="V174" s="3"/>
-      <c r="W174" s="3"/>
-      <c r="X174" s="3"/>
-      <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
-      <c r="AA174" s="3"/>
-      <c r="AB174" s="3"/>
-      <c r="AC174" s="3"/>
-      <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
-    </row>
-    <row r="175" spans="1:31">
+      <c r="V174" s="4"/>
+      <c r="W174" s="5"/>
+      <c r="X174" s="5"/>
+      <c r="Y174" s="5"/>
+      <c r="Z174" s="5"/>
+      <c r="AA174" s="5"/>
+      <c r="AB174" s="5"/>
+      <c r="AC174" s="5"/>
+      <c r="AD174" s="5"/>
+      <c r="AE174" s="5"/>
+      <c r="AF174" s="5"/>
+    </row>
+    <row r="175" spans="1:32">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6793,18 +6985,19 @@
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
-      <c r="V175" s="3"/>
-      <c r="W175" s="3"/>
-      <c r="X175" s="3"/>
-      <c r="Y175" s="3"/>
-      <c r="Z175" s="3"/>
-      <c r="AA175" s="3"/>
-      <c r="AB175" s="3"/>
-      <c r="AC175" s="3"/>
-      <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
-    </row>
-    <row r="176" spans="1:31">
+      <c r="V175" s="4"/>
+      <c r="W175" s="5"/>
+      <c r="X175" s="5"/>
+      <c r="Y175" s="5"/>
+      <c r="Z175" s="5"/>
+      <c r="AA175" s="5"/>
+      <c r="AB175" s="5"/>
+      <c r="AC175" s="5"/>
+      <c r="AD175" s="5"/>
+      <c r="AE175" s="5"/>
+      <c r="AF175" s="5"/>
+    </row>
+    <row r="176" spans="1:32">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6826,18 +7019,19 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
-      <c r="V176" s="3"/>
-      <c r="W176" s="3"/>
-      <c r="X176" s="3"/>
-      <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
-      <c r="AA176" s="3"/>
-      <c r="AB176" s="3"/>
-      <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-    </row>
-    <row r="177" spans="1:31">
+      <c r="V176" s="4"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+      <c r="Y176" s="5"/>
+      <c r="Z176" s="5"/>
+      <c r="AA176" s="5"/>
+      <c r="AB176" s="5"/>
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="5"/>
+      <c r="AE176" s="5"/>
+      <c r="AF176" s="5"/>
+    </row>
+    <row r="177" spans="1:32">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6859,18 +7053,19 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
-      <c r="V177" s="3"/>
-      <c r="W177" s="3"/>
-      <c r="X177" s="3"/>
-      <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
-      <c r="AA177" s="3"/>
-      <c r="AB177" s="3"/>
-      <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-    </row>
-    <row r="178" spans="1:31">
+      <c r="V177" s="4"/>
+      <c r="W177" s="5"/>
+      <c r="X177" s="5"/>
+      <c r="Y177" s="5"/>
+      <c r="Z177" s="5"/>
+      <c r="AA177" s="5"/>
+      <c r="AB177" s="5"/>
+      <c r="AC177" s="5"/>
+      <c r="AD177" s="5"/>
+      <c r="AE177" s="5"/>
+      <c r="AF177" s="5"/>
+    </row>
+    <row r="178" spans="1:32">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6892,18 +7087,19 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
-      <c r="V178" s="3"/>
-      <c r="W178" s="3"/>
-      <c r="X178" s="3"/>
-      <c r="Y178" s="3"/>
-      <c r="Z178" s="3"/>
-      <c r="AA178" s="3"/>
-      <c r="AB178" s="3"/>
-      <c r="AC178" s="3"/>
-      <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
-    </row>
-    <row r="179" spans="1:31">
+      <c r="V178" s="4"/>
+      <c r="W178" s="5"/>
+      <c r="X178" s="5"/>
+      <c r="Y178" s="5"/>
+      <c r="Z178" s="5"/>
+      <c r="AA178" s="5"/>
+      <c r="AB178" s="5"/>
+      <c r="AC178" s="5"/>
+      <c r="AD178" s="5"/>
+      <c r="AE178" s="5"/>
+      <c r="AF178" s="5"/>
+    </row>
+    <row r="179" spans="1:32">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6925,18 +7121,19 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
-      <c r="V179" s="3"/>
-      <c r="W179" s="3"/>
-      <c r="X179" s="3"/>
-      <c r="Y179" s="3"/>
-      <c r="Z179" s="3"/>
-      <c r="AA179" s="3"/>
-      <c r="AB179" s="3"/>
-      <c r="AC179" s="3"/>
-      <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
-    </row>
-    <row r="180" spans="1:31">
+      <c r="V179" s="4"/>
+      <c r="W179" s="5"/>
+      <c r="X179" s="5"/>
+      <c r="Y179" s="5"/>
+      <c r="Z179" s="5"/>
+      <c r="AA179" s="5"/>
+      <c r="AB179" s="5"/>
+      <c r="AC179" s="5"/>
+      <c r="AD179" s="5"/>
+      <c r="AE179" s="5"/>
+      <c r="AF179" s="5"/>
+    </row>
+    <row r="180" spans="1:32">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6958,18 +7155,19 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-      <c r="X180" s="3"/>
-      <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
-      <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="3"/>
-      <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
-    </row>
-    <row r="181" spans="1:31">
+      <c r="V180" s="4"/>
+      <c r="W180" s="5"/>
+      <c r="X180" s="5"/>
+      <c r="Y180" s="5"/>
+      <c r="Z180" s="5"/>
+      <c r="AA180" s="5"/>
+      <c r="AB180" s="5"/>
+      <c r="AC180" s="5"/>
+      <c r="AD180" s="5"/>
+      <c r="AE180" s="5"/>
+      <c r="AF180" s="5"/>
+    </row>
+    <row r="181" spans="1:32">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6991,18 +7189,19 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
-      <c r="V181" s="3"/>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
-      <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="3"/>
-      <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
-    </row>
-    <row r="182" spans="1:31">
+      <c r="V181" s="4"/>
+      <c r="W181" s="5"/>
+      <c r="X181" s="5"/>
+      <c r="Y181" s="5"/>
+      <c r="Z181" s="5"/>
+      <c r="AA181" s="5"/>
+      <c r="AB181" s="5"/>
+      <c r="AC181" s="5"/>
+      <c r="AD181" s="5"/>
+      <c r="AE181" s="5"/>
+      <c r="AF181" s="5"/>
+    </row>
+    <row r="182" spans="1:32">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7024,18 +7223,19 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
-      <c r="V182" s="3"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-      <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
-      <c r="AC182" s="3"/>
-      <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
-    </row>
-    <row r="183" spans="1:31">
+      <c r="V182" s="4"/>
+      <c r="W182" s="5"/>
+      <c r="X182" s="5"/>
+      <c r="Y182" s="5"/>
+      <c r="Z182" s="5"/>
+      <c r="AA182" s="5"/>
+      <c r="AB182" s="5"/>
+      <c r="AC182" s="5"/>
+      <c r="AD182" s="5"/>
+      <c r="AE182" s="5"/>
+      <c r="AF182" s="5"/>
+    </row>
+    <row r="183" spans="1:32">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7057,18 +7257,19 @@
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-      <c r="AA183" s="3"/>
-      <c r="AB183" s="3"/>
-      <c r="AC183" s="3"/>
-      <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
-    </row>
-    <row r="184" spans="1:31">
+      <c r="V183" s="4"/>
+      <c r="W183" s="5"/>
+      <c r="X183" s="5"/>
+      <c r="Y183" s="5"/>
+      <c r="Z183" s="5"/>
+      <c r="AA183" s="5"/>
+      <c r="AB183" s="5"/>
+      <c r="AC183" s="5"/>
+      <c r="AD183" s="5"/>
+      <c r="AE183" s="5"/>
+      <c r="AF183" s="5"/>
+    </row>
+    <row r="184" spans="1:32">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7090,18 +7291,19 @@
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
-      <c r="V184" s="3"/>
-      <c r="W184" s="3"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-      <c r="AA184" s="3"/>
-      <c r="AB184" s="3"/>
-      <c r="AC184" s="3"/>
-      <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
-    </row>
-    <row r="185" spans="1:31">
+      <c r="V184" s="4"/>
+      <c r="W184" s="5"/>
+      <c r="X184" s="5"/>
+      <c r="Y184" s="5"/>
+      <c r="Z184" s="5"/>
+      <c r="AA184" s="5"/>
+      <c r="AB184" s="5"/>
+      <c r="AC184" s="5"/>
+      <c r="AD184" s="5"/>
+      <c r="AE184" s="5"/>
+      <c r="AF184" s="5"/>
+    </row>
+    <row r="185" spans="1:32">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7123,18 +7325,19 @@
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
-      <c r="V185" s="3"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-      <c r="AA185" s="3"/>
-      <c r="AB185" s="3"/>
-      <c r="AC185" s="3"/>
-      <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
-    </row>
-    <row r="186" spans="1:31">
+      <c r="V185" s="4"/>
+      <c r="W185" s="5"/>
+      <c r="X185" s="5"/>
+      <c r="Y185" s="5"/>
+      <c r="Z185" s="5"/>
+      <c r="AA185" s="5"/>
+      <c r="AB185" s="5"/>
+      <c r="AC185" s="5"/>
+      <c r="AD185" s="5"/>
+      <c r="AE185" s="5"/>
+      <c r="AF185" s="5"/>
+    </row>
+    <row r="186" spans="1:32">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7156,18 +7359,19 @@
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
-      <c r="V186" s="3"/>
-      <c r="W186" s="3"/>
-      <c r="X186" s="3"/>
-      <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
-      <c r="AA186" s="3"/>
-      <c r="AB186" s="3"/>
-      <c r="AC186" s="3"/>
-      <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
-    </row>
-    <row r="187" spans="1:31">
+      <c r="V186" s="4"/>
+      <c r="W186" s="5"/>
+      <c r="X186" s="5"/>
+      <c r="Y186" s="5"/>
+      <c r="Z186" s="5"/>
+      <c r="AA186" s="5"/>
+      <c r="AB186" s="5"/>
+      <c r="AC186" s="5"/>
+      <c r="AD186" s="5"/>
+      <c r="AE186" s="5"/>
+      <c r="AF186" s="5"/>
+    </row>
+    <row r="187" spans="1:32">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7189,18 +7393,19 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
-      <c r="V187" s="3"/>
-      <c r="W187" s="3"/>
-      <c r="X187" s="3"/>
-      <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
-      <c r="AA187" s="3"/>
-      <c r="AB187" s="3"/>
-      <c r="AC187" s="3"/>
-      <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
-    </row>
-    <row r="188" spans="1:31">
+      <c r="V187" s="4"/>
+      <c r="W187" s="5"/>
+      <c r="X187" s="5"/>
+      <c r="Y187" s="5"/>
+      <c r="Z187" s="5"/>
+      <c r="AA187" s="5"/>
+      <c r="AB187" s="5"/>
+      <c r="AC187" s="5"/>
+      <c r="AD187" s="5"/>
+      <c r="AE187" s="5"/>
+      <c r="AF187" s="5"/>
+    </row>
+    <row r="188" spans="1:32">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7222,18 +7427,19 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
-    </row>
-    <row r="189" spans="1:31">
+      <c r="V188" s="4"/>
+      <c r="W188" s="5"/>
+      <c r="X188" s="5"/>
+      <c r="Y188" s="5"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="5"/>
+      <c r="AB188" s="5"/>
+      <c r="AC188" s="5"/>
+      <c r="AD188" s="5"/>
+      <c r="AE188" s="5"/>
+      <c r="AF188" s="5"/>
+    </row>
+    <row r="189" spans="1:32">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7255,18 +7461,19 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-      <c r="AA189" s="3"/>
-      <c r="AB189" s="3"/>
-      <c r="AC189" s="3"/>
-      <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
-    </row>
-    <row r="190" spans="1:31">
+      <c r="V189" s="4"/>
+      <c r="W189" s="5"/>
+      <c r="X189" s="5"/>
+      <c r="Y189" s="5"/>
+      <c r="Z189" s="5"/>
+      <c r="AA189" s="5"/>
+      <c r="AB189" s="5"/>
+      <c r="AC189" s="5"/>
+      <c r="AD189" s="5"/>
+      <c r="AE189" s="5"/>
+      <c r="AF189" s="5"/>
+    </row>
+    <row r="190" spans="1:32">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7288,18 +7495,19 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-      <c r="AA190" s="3"/>
-      <c r="AB190" s="3"/>
-      <c r="AC190" s="3"/>
-      <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
-    </row>
-    <row r="191" spans="1:31">
+      <c r="V190" s="4"/>
+      <c r="W190" s="5"/>
+      <c r="X190" s="5"/>
+      <c r="Y190" s="5"/>
+      <c r="Z190" s="5"/>
+      <c r="AA190" s="5"/>
+      <c r="AB190" s="5"/>
+      <c r="AC190" s="5"/>
+      <c r="AD190" s="5"/>
+      <c r="AE190" s="5"/>
+      <c r="AF190" s="5"/>
+    </row>
+    <row r="191" spans="1:32">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7321,18 +7529,19 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-      <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-      <c r="AC191" s="3"/>
-      <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
-    </row>
-    <row r="192" spans="1:31">
+      <c r="V191" s="4"/>
+      <c r="W191" s="5"/>
+      <c r="X191" s="5"/>
+      <c r="Y191" s="5"/>
+      <c r="Z191" s="5"/>
+      <c r="AA191" s="5"/>
+      <c r="AB191" s="5"/>
+      <c r="AC191" s="5"/>
+      <c r="AD191" s="5"/>
+      <c r="AE191" s="5"/>
+      <c r="AF191" s="5"/>
+    </row>
+    <row r="192" spans="1:32">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7354,18 +7563,19 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-      <c r="AA192" s="3"/>
-      <c r="AB192" s="3"/>
-      <c r="AC192" s="3"/>
-      <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
-    </row>
-    <row r="193" spans="1:31">
+      <c r="V192" s="4"/>
+      <c r="W192" s="5"/>
+      <c r="X192" s="5"/>
+      <c r="Y192" s="5"/>
+      <c r="Z192" s="5"/>
+      <c r="AA192" s="5"/>
+      <c r="AB192" s="5"/>
+      <c r="AC192" s="5"/>
+      <c r="AD192" s="5"/>
+      <c r="AE192" s="5"/>
+      <c r="AF192" s="5"/>
+    </row>
+    <row r="193" spans="1:32">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7387,18 +7597,19 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="3"/>
-      <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
-    </row>
-    <row r="194" spans="1:31">
+      <c r="V193" s="4"/>
+      <c r="W193" s="5"/>
+      <c r="X193" s="5"/>
+      <c r="Y193" s="5"/>
+      <c r="Z193" s="5"/>
+      <c r="AA193" s="5"/>
+      <c r="AB193" s="5"/>
+      <c r="AC193" s="5"/>
+      <c r="AD193" s="5"/>
+      <c r="AE193" s="5"/>
+      <c r="AF193" s="5"/>
+    </row>
+    <row r="194" spans="1:32">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7420,18 +7631,19 @@
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-      <c r="AA194" s="3"/>
-      <c r="AB194" s="3"/>
-      <c r="AC194" s="3"/>
-      <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
-    </row>
-    <row r="195" spans="1:31">
+      <c r="V194" s="4"/>
+      <c r="W194" s="5"/>
+      <c r="X194" s="5"/>
+      <c r="Y194" s="5"/>
+      <c r="Z194" s="5"/>
+      <c r="AA194" s="5"/>
+      <c r="AB194" s="5"/>
+      <c r="AC194" s="5"/>
+      <c r="AD194" s="5"/>
+      <c r="AE194" s="5"/>
+      <c r="AF194" s="5"/>
+    </row>
+    <row r="195" spans="1:32">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7453,18 +7665,19 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-      <c r="AA195" s="3"/>
-      <c r="AB195" s="3"/>
-      <c r="AC195" s="3"/>
-      <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
-    </row>
-    <row r="196" spans="1:31">
+      <c r="V195" s="4"/>
+      <c r="W195" s="5"/>
+      <c r="X195" s="5"/>
+      <c r="Y195" s="5"/>
+      <c r="Z195" s="5"/>
+      <c r="AA195" s="5"/>
+      <c r="AB195" s="5"/>
+      <c r="AC195" s="5"/>
+      <c r="AD195" s="5"/>
+      <c r="AE195" s="5"/>
+      <c r="AF195" s="5"/>
+    </row>
+    <row r="196" spans="1:32">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7486,18 +7699,19 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-      <c r="AA196" s="3"/>
-      <c r="AB196" s="3"/>
-      <c r="AC196" s="3"/>
-      <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
-    </row>
-    <row r="197" spans="1:31">
+      <c r="V196" s="4"/>
+      <c r="W196" s="5"/>
+      <c r="X196" s="5"/>
+      <c r="Y196" s="5"/>
+      <c r="Z196" s="5"/>
+      <c r="AA196" s="5"/>
+      <c r="AB196" s="5"/>
+      <c r="AC196" s="5"/>
+      <c r="AD196" s="5"/>
+      <c r="AE196" s="5"/>
+      <c r="AF196" s="5"/>
+    </row>
+    <row r="197" spans="1:32">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7519,18 +7733,19 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-      <c r="AA197" s="3"/>
-      <c r="AB197" s="3"/>
-      <c r="AC197" s="3"/>
-      <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
-    </row>
-    <row r="198" spans="1:31">
+      <c r="V197" s="4"/>
+      <c r="W197" s="5"/>
+      <c r="X197" s="5"/>
+      <c r="Y197" s="5"/>
+      <c r="Z197" s="5"/>
+      <c r="AA197" s="5"/>
+      <c r="AB197" s="5"/>
+      <c r="AC197" s="5"/>
+      <c r="AD197" s="5"/>
+      <c r="AE197" s="5"/>
+      <c r="AF197" s="5"/>
+    </row>
+    <row r="198" spans="1:32">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7552,18 +7767,19 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-      <c r="AA198" s="3"/>
-      <c r="AB198" s="3"/>
-      <c r="AC198" s="3"/>
-      <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
-    </row>
-    <row r="199" spans="1:31">
+      <c r="V198" s="4"/>
+      <c r="W198" s="5"/>
+      <c r="X198" s="5"/>
+      <c r="Y198" s="5"/>
+      <c r="Z198" s="5"/>
+      <c r="AA198" s="5"/>
+      <c r="AB198" s="5"/>
+      <c r="AC198" s="5"/>
+      <c r="AD198" s="5"/>
+      <c r="AE198" s="5"/>
+      <c r="AF198" s="5"/>
+    </row>
+    <row r="199" spans="1:32">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7585,18 +7801,19 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-      <c r="AA199" s="3"/>
-      <c r="AB199" s="3"/>
-      <c r="AC199" s="3"/>
-      <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
-    </row>
-    <row r="200" spans="1:31">
+      <c r="V199" s="4"/>
+      <c r="W199" s="5"/>
+      <c r="X199" s="5"/>
+      <c r="Y199" s="5"/>
+      <c r="Z199" s="5"/>
+      <c r="AA199" s="5"/>
+      <c r="AB199" s="5"/>
+      <c r="AC199" s="5"/>
+      <c r="AD199" s="5"/>
+      <c r="AE199" s="5"/>
+      <c r="AF199" s="5"/>
+    </row>
+    <row r="200" spans="1:32">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7618,16 +7835,17 @@
       <c r="S200" s="4"/>
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-      <c r="AA200" s="3"/>
-      <c r="AB200" s="3"/>
-      <c r="AC200" s="3"/>
-      <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="5"/>
+      <c r="X200" s="5"/>
+      <c r="Y200" s="5"/>
+      <c r="Z200" s="5"/>
+      <c r="AA200" s="5"/>
+      <c r="AB200" s="5"/>
+      <c r="AC200" s="5"/>
+      <c r="AD200" s="5"/>
+      <c r="AE200" s="5"/>
+      <c r="AF200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7660,53 +7878,53 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="19" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="19" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="19" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
-        <v>41</v>
+      <c r="A10" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848FD94E-B5E0-46BC-862D-7F823065F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595EA923-9F47-44EE-BD5E-286F463A4F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="3285" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="4305" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>操作可能判定に用いる鍵名称</t>
+          <t>てこの種類</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -143,11 +143,50 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>この盤以外で連動する場合に指定する駅名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>この盤以外で連動する場合に指定するユニーク名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -404,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -443,7 +482,16 @@
     <t>PointValue</t>
   </si>
   <si>
+    <t>LeverType</t>
+  </si>
+  <si>
     <t>KeyName</t>
+  </si>
+  <si>
+    <t>LinkedStationName</t>
+  </si>
+  <si>
+    <t>LinkedUniqueName</t>
   </si>
   <si>
     <t>X</t>
@@ -925,7 +973,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF200"/>
+  <dimension ref="A1:AI200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -938,14 +986,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" customWidth="1"/>
-    <col min="23" max="23" width="100.140625" customWidth="1"/>
-    <col min="24" max="24" width="62.5703125" customWidth="1"/>
-    <col min="25" max="32" width="14.7109375" customWidth="1"/>
+    <col min="3" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="37.5703125" customWidth="1"/>
+    <col min="26" max="26" width="100.140625" customWidth="1"/>
+    <col min="27" max="27" width="62.5703125" customWidth="1"/>
+    <col min="28" max="35" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,42 +1060,51 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1058,46 +1115,49 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="5" t="s">
-        <v>26</v>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="5" t="s">
+        <v>29</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="6">
-        <v>1035</v>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6">
+        <v>1100</v>
       </c>
-      <c r="I3" s="6">
+      <c r="L3" s="6">
         <v>78</v>
       </c>
-      <c r="J3" s="6">
+      <c r="M3" s="6">
         <v>79</v>
       </c>
-      <c r="K3" s="6">
+      <c r="N3" s="6">
         <v>110</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1106,48 +1166,51 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="8" t="s">
-        <v>29</v>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-    </row>
-    <row r="4" spans="1:32" ht="25.5">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:35" ht="25.5">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="L4" s="6">
         <v>37</v>
       </c>
-      <c r="J4" s="6">
+      <c r="M4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6">
+      <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1155,45 +1218,48 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>32</v>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>33</v>
+      <c r="Z4" s="8" t="s">
+        <v>36</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="6">
-        <f>H3+11</f>
-        <v>1046</v>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
+        <f>K3+11</f>
+        <v>1111</v>
       </c>
-      <c r="I5" s="6">
-        <f>I3-68</f>
+      <c r="L5" s="6">
+        <f>L3-68</f>
         <v>10</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1204,20 +1270,23 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="8" t="s">
-        <v>35</v>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
@@ -1225,33 +1294,36 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
@@ -1259,33 +1331,36 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
@@ -1293,33 +1368,36 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4"/>
@@ -1327,33 +1405,36 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="4"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -1361,33 +1442,36 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
@@ -1395,33 +1479,36 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
@@ -1429,33 +1516,36 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
@@ -1463,33 +1553,36 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
@@ -1497,33 +1590,36 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="4"/>
       <c r="B15" s="13"/>
       <c r="C15" s="4"/>
@@ -1531,33 +1627,36 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="12"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
@@ -1565,33 +1664,36 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
@@ -1599,33 +1701,36 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="4"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
@@ -1633,33 +1738,36 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="4"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4"/>
@@ -1667,33 +1775,36 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
@@ -1701,33 +1812,36 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="12"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
@@ -1735,33 +1849,36 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
@@ -1769,33 +1886,36 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="4"/>
@@ -1803,33 +1923,36 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="4"/>
       <c r="B24" s="13"/>
       <c r="C24" s="4"/>
@@ -1837,33 +1960,36 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="4"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4"/>
@@ -1871,33 +1997,36 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
@@ -1905,33 +2034,36 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4"/>
@@ -1939,11 +2071,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1951,21 +2083,24 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="4"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4"/>
@@ -1973,11 +2108,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1985,21 +2120,24 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" s="4"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4"/>
@@ -2007,33 +2145,36 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="4"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4"/>
@@ -2041,11 +2182,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2053,21 +2194,24 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="4"/>
       <c r="B31" s="9"/>
       <c r="C31" s="4"/>
@@ -2075,11 +2219,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2087,21 +2231,24 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="12"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" s="4"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
@@ -2109,33 +2256,36 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="12"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="4"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
@@ -2143,11 +2293,11 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2155,21 +2305,24 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="12"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="4"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
@@ -2177,11 +2330,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2189,21 +2342,24 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="12"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="4"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4"/>
@@ -2211,33 +2367,36 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="12"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="4"/>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
@@ -2245,11 +2404,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2257,21 +2416,24 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="4"/>
       <c r="B37" s="9"/>
       <c r="C37" s="4"/>
@@ -2279,11 +2441,11 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2291,21 +2453,24 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="4"/>
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
@@ -2313,33 +2478,36 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="4"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
@@ -2347,11 +2515,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2359,21 +2527,24 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="12"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="4"/>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
@@ -2381,11 +2552,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2393,21 +2564,24 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="4"/>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
@@ -2415,33 +2589,36 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
       <c r="C42" s="4"/>
@@ -2449,11 +2626,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2461,21 +2638,24 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="12"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
@@ -2483,11 +2663,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2495,21 +2675,24 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="12"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
@@ -2517,33 +2700,36 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="12"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
@@ -2551,11 +2737,11 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2563,21 +2749,24 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="4"/>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
@@ -2585,33 +2774,36 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="12"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" s="4"/>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
@@ -2619,11 +2811,11 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2631,21 +2823,24 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="12"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="4"/>
       <c r="B48" s="9"/>
       <c r="C48" s="4"/>
@@ -2653,11 +2848,11 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2665,21 +2860,24 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
       <c r="C49" s="4"/>
@@ -2687,11 +2885,11 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="13"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="13"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2699,21 +2897,24 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="4"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4"/>
@@ -2721,11 +2922,11 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2733,21 +2934,24 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="12"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" s="4"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
@@ -2755,11 +2959,11 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2767,21 +2971,24 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="12"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" s="4"/>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
@@ -2789,11 +2996,11 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2801,21 +3008,24 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="12"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="4"/>
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
@@ -2823,11 +3033,11 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="13"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2835,21 +3045,24 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="12"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" s="4"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
@@ -2857,11 +3070,11 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2869,21 +3082,24 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" s="4"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
@@ -2891,11 +3107,11 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2903,21 +3119,24 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="12"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="4"/>
@@ -2925,11 +3144,11 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2937,21 +3156,24 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="12"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="4"/>
@@ -2959,11 +3181,11 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2971,21 +3193,24 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="12"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="4"/>
@@ -2993,11 +3218,11 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -3005,21 +3230,24 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="12"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" s="4"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4"/>
@@ -3027,11 +3255,11 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -3039,21 +3267,24 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="14"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" s="4"/>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
@@ -3061,11 +3292,11 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3073,21 +3304,24 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="14"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" s="4"/>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
@@ -3095,11 +3329,11 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3107,21 +3341,24 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="14"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" s="4"/>
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
@@ -3129,11 +3366,11 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3141,21 +3378,24 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="14"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" s="4"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4"/>
@@ -3163,11 +3403,11 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3175,21 +3415,24 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="14"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" s="4"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
@@ -3197,11 +3440,11 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3209,21 +3452,24 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="14"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" s="4"/>
       <c r="B65" s="9"/>
       <c r="C65" s="4"/>
@@ -3231,11 +3477,11 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -3243,21 +3489,24 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="14"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" s="4"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4"/>
@@ -3265,11 +3514,11 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3277,21 +3526,24 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="14"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="14"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" s="4"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
@@ -3299,11 +3551,11 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3311,21 +3563,24 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="14"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" s="4"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
@@ -3333,11 +3588,11 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3345,21 +3600,24 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="14"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" s="4"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
@@ -3367,11 +3625,11 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3379,21 +3637,24 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="14"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" s="4"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
@@ -3401,11 +3662,11 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -3413,21 +3674,24 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="14"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" s="4"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -3435,11 +3699,11 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3447,21 +3711,24 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="14"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" s="4"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
@@ -3469,11 +3736,11 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3481,21 +3748,24 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="14"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="14"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" s="4"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
@@ -3503,11 +3773,11 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3515,21 +3785,24 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="14"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+    </row>
+    <row r="74" spans="1:35">
       <c r="A74" s="4"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -3537,11 +3810,11 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -3549,21 +3822,24 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="14"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="14"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" s="4"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -3571,11 +3847,11 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -3583,21 +3859,24 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="14"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+    </row>
+    <row r="76" spans="1:35">
       <c r="A76" s="4"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4"/>
@@ -3605,11 +3884,11 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3617,21 +3896,24 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="14"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="14"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" s="4"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -3639,11 +3921,11 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3651,21 +3933,24 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="14"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+    </row>
+    <row r="78" spans="1:35">
       <c r="A78" s="4"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4"/>
@@ -3673,11 +3958,11 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -3685,21 +3970,24 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="14"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="14"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" s="4"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4"/>
@@ -3707,11 +3995,11 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3719,21 +4007,24 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="14"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="14"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" s="4"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -3741,11 +4032,11 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3753,21 +4044,24 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="14"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="14"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" s="4"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4"/>
@@ -3775,11 +4069,11 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3787,21 +4081,24 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="14"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" s="4"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4"/>
@@ -3809,11 +4106,11 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3821,21 +4118,24 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="14"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="14"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+    </row>
+    <row r="83" spans="1:35">
       <c r="A83" s="4"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4"/>
@@ -3843,11 +4143,11 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3855,21 +4155,24 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="14"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+    </row>
+    <row r="84" spans="1:35">
       <c r="A84" s="4"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4"/>
@@ -3877,11 +4180,11 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3889,21 +4192,24 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="14"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="14"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" s="4"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4"/>
@@ -3911,11 +4217,11 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3923,21 +4229,24 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="14"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="14"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+    </row>
+    <row r="86" spans="1:35">
       <c r="A86" s="4"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -3945,11 +4254,11 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3957,21 +4266,24 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="14"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="14"/>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+    </row>
+    <row r="87" spans="1:35">
       <c r="A87" s="4"/>
       <c r="B87" s="9"/>
       <c r="C87" s="4"/>
@@ -3979,11 +4291,11 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3991,21 +4303,24 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="14"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="14"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+    </row>
+    <row r="88" spans="1:35">
       <c r="A88" s="4"/>
       <c r="B88" s="9"/>
       <c r="C88" s="4"/>
@@ -4013,11 +4328,11 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -4025,21 +4340,24 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="14"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="14"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+    </row>
+    <row r="89" spans="1:35">
       <c r="A89" s="4"/>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -4047,11 +4365,11 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4059,21 +4377,24 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="14"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="14"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+    </row>
+    <row r="90" spans="1:35">
       <c r="A90" s="4"/>
       <c r="B90" s="9"/>
       <c r="C90" s="4"/>
@@ -4081,11 +4402,11 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -4093,21 +4414,24 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="14"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+    </row>
+    <row r="91" spans="1:35">
       <c r="A91" s="4"/>
       <c r="B91" s="9"/>
       <c r="C91" s="4"/>
@@ -4115,11 +4439,11 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4127,21 +4451,24 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="14"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+    </row>
+    <row r="92" spans="1:35">
       <c r="A92" s="4"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -4149,11 +4476,11 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -4161,21 +4488,24 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="14"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+    </row>
+    <row r="93" spans="1:35">
       <c r="A93" s="4"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -4183,11 +4513,11 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4195,21 +4525,24 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="14"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+    </row>
+    <row r="94" spans="1:35">
       <c r="A94" s="4"/>
       <c r="B94" s="9"/>
       <c r="C94" s="4"/>
@@ -4217,11 +4550,11 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4229,21 +4562,24 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="14"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+    </row>
+    <row r="95" spans="1:35">
       <c r="A95" s="4"/>
       <c r="B95" s="9"/>
       <c r="C95" s="4"/>
@@ -4251,11 +4587,11 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4263,21 +4599,24 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="14"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+    </row>
+    <row r="96" spans="1:35">
       <c r="A96" s="4"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -4285,11 +4624,11 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4297,21 +4636,24 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-      <c r="T96" s="10"/>
-      <c r="U96" s="10"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="14"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+    </row>
+    <row r="97" spans="1:35">
       <c r="A97" s="4"/>
       <c r="B97" s="9"/>
       <c r="C97" s="4"/>
@@ -4319,11 +4661,11 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4331,21 +4673,24 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="14"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="14"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+    </row>
+    <row r="98" spans="1:35">
       <c r="A98" s="4"/>
       <c r="B98" s="9"/>
       <c r="C98" s="4"/>
@@ -4353,11 +4698,11 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4365,21 +4710,24 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="11"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="14"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="14"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+    </row>
+    <row r="99" spans="1:35">
       <c r="A99" s="4"/>
       <c r="B99" s="9"/>
       <c r="C99" s="4"/>
@@ -4387,11 +4735,11 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4399,21 +4747,24 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="14"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="14"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+    </row>
+    <row r="100" spans="1:35">
       <c r="A100" s="4"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -4421,11 +4772,11 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4433,21 +4784,24 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="14"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="11"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="14"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+    </row>
+    <row r="101" spans="1:35">
       <c r="A101" s="4"/>
       <c r="B101" s="9"/>
       <c r="C101" s="4"/>
@@ -4455,11 +4809,11 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -4467,21 +4821,24 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="14"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+    </row>
+    <row r="102" spans="1:35">
       <c r="A102" s="4"/>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -4489,11 +4846,11 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4501,21 +4858,24 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="14"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="14"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+    </row>
+    <row r="103" spans="1:35">
       <c r="A103" s="4"/>
       <c r="B103" s="9"/>
       <c r="C103" s="4"/>
@@ -4523,11 +4883,11 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4535,21 +4895,24 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="14"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="11"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="14"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+    </row>
+    <row r="104" spans="1:35">
       <c r="A104" s="4"/>
       <c r="B104" s="9"/>
       <c r="C104" s="4"/>
@@ -4557,11 +4920,11 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4569,21 +4932,24 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-      <c r="T104" s="10"/>
-      <c r="U104" s="10"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="14"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+    </row>
+    <row r="105" spans="1:35">
       <c r="A105" s="4"/>
       <c r="B105" s="9"/>
       <c r="C105" s="4"/>
@@ -4591,11 +4957,11 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4603,21 +4969,24 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="14"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="14"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+    </row>
+    <row r="106" spans="1:35">
       <c r="A106" s="4"/>
       <c r="B106" s="9"/>
       <c r="C106" s="4"/>
@@ -4625,11 +4994,11 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4637,21 +5006,24 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="14"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="11"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="14"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+    </row>
+    <row r="107" spans="1:35">
       <c r="A107" s="4"/>
       <c r="B107" s="9"/>
       <c r="C107" s="4"/>
@@ -4659,11 +5031,11 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4671,21 +5043,24 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="14"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="14"/>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+    </row>
+    <row r="108" spans="1:35">
       <c r="A108" s="4"/>
       <c r="B108" s="9"/>
       <c r="C108" s="15"/>
@@ -4693,11 +5068,11 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
@@ -4705,21 +5080,24 @@
       <c r="Q108" s="15"/>
       <c r="R108" s="15"/>
       <c r="S108" s="15"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="14"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="15"/>
+      <c r="T108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="V108" s="15"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="14"/>
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
       <c r="AD108" s="15"/>
       <c r="AE108" s="15"/>
       <c r="AF108" s="15"/>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+    </row>
+    <row r="109" spans="1:35">
       <c r="A109" s="4"/>
       <c r="B109" s="9"/>
       <c r="C109" s="15"/>
@@ -4727,11 +5105,11 @@
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -4739,21 +5117,24 @@
       <c r="Q109" s="15"/>
       <c r="R109" s="15"/>
       <c r="S109" s="15"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="14"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="14"/>
       <c r="AB109" s="15"/>
       <c r="AC109" s="15"/>
       <c r="AD109" s="15"/>
       <c r="AE109" s="15"/>
       <c r="AF109" s="15"/>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+    </row>
+    <row r="110" spans="1:35">
       <c r="A110" s="4"/>
       <c r="B110" s="9"/>
       <c r="C110" s="4"/>
@@ -4761,11 +5142,11 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4773,21 +5154,24 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="11"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="14"/>
-      <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-      <c r="AA110" s="5"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="14"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+    </row>
+    <row r="111" spans="1:35">
       <c r="A111" s="4"/>
       <c r="B111" s="9"/>
       <c r="C111" s="4"/>
@@ -4795,11 +5179,11 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4807,21 +5191,24 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="11"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="14"/>
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+    </row>
+    <row r="112" spans="1:35">
       <c r="A112" s="4"/>
       <c r="B112" s="9"/>
       <c r="C112" s="4"/>
@@ -4829,11 +5216,11 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -4841,21 +5228,24 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="11"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="14"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="11"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="14"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112" s="5"/>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="5"/>
+    </row>
+    <row r="113" spans="1:35">
       <c r="A113" s="4"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4"/>
@@ -4863,11 +5253,11 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -4875,21 +5265,24 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="14"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="14"/>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+    </row>
+    <row r="114" spans="1:35">
       <c r="A114" s="4"/>
       <c r="B114" s="9"/>
       <c r="C114" s="4"/>
@@ -4897,11 +5290,11 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -4909,21 +5302,24 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="11"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="14"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="14"/>
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+    </row>
+    <row r="115" spans="1:35">
       <c r="A115" s="4"/>
       <c r="B115" s="9"/>
       <c r="C115" s="4"/>
@@ -4931,11 +5327,11 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -4943,21 +5339,24 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="14"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="14"/>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="5"/>
+      <c r="AI115" s="5"/>
+    </row>
+    <row r="116" spans="1:35">
       <c r="A116" s="4"/>
       <c r="B116" s="13"/>
       <c r="C116" s="4"/>
@@ -4965,11 +5364,11 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -4977,21 +5376,24 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="11"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
+      <c r="Y116" s="11"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="14"/>
       <c r="AB116" s="5"/>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+    </row>
+    <row r="117" spans="1:35">
       <c r="A117" s="4"/>
       <c r="B117" s="9"/>
       <c r="C117" s="4"/>
@@ -4999,11 +5401,11 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5011,21 +5413,24 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-      <c r="T117" s="10"/>
-      <c r="U117" s="10"/>
-      <c r="V117" s="11"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
+      <c r="Y117" s="11"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="14"/>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117" s="5"/>
+      <c r="AH117" s="5"/>
+      <c r="AI117" s="5"/>
+    </row>
+    <row r="118" spans="1:35">
       <c r="A118" s="4"/>
       <c r="B118" s="9"/>
       <c r="C118" s="4"/>
@@ -5033,11 +5438,11 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -5045,21 +5450,24 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="11"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="16"/>
       <c r="AB118" s="5"/>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+    </row>
+    <row r="119" spans="1:35">
       <c r="A119" s="4"/>
       <c r="B119" s="9"/>
       <c r="C119" s="4"/>
@@ -5067,11 +5475,11 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -5079,21 +5487,24 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="11"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
+      <c r="Y119" s="11"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="16"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119" s="5"/>
+      <c r="AH119" s="5"/>
+      <c r="AI119" s="5"/>
+    </row>
+    <row r="120" spans="1:35">
       <c r="A120" s="4"/>
       <c r="B120" s="9"/>
       <c r="C120" s="4"/>
@@ -5101,11 +5512,11 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -5113,21 +5524,24 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="11"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="11"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="16"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120" s="5"/>
+      <c r="AH120" s="5"/>
+      <c r="AI120" s="5"/>
+    </row>
+    <row r="121" spans="1:35">
       <c r="A121" s="4"/>
       <c r="B121" s="9"/>
       <c r="C121" s="4"/>
@@ -5135,11 +5549,11 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5147,21 +5561,24 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
-      <c r="T121" s="10"/>
-      <c r="U121" s="10"/>
-      <c r="V121" s="11"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="10"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="11"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="16"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+    </row>
+    <row r="122" spans="1:35">
       <c r="A122" s="4"/>
       <c r="B122" s="9"/>
       <c r="C122" s="4"/>
@@ -5169,11 +5586,11 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5181,21 +5598,24 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
-      <c r="T122" s="10"/>
-      <c r="U122" s="10"/>
-      <c r="V122" s="11"/>
-      <c r="W122" s="12"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="11"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="14"/>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122" s="5"/>
+      <c r="AH122" s="5"/>
+      <c r="AI122" s="5"/>
+    </row>
+    <row r="123" spans="1:35">
       <c r="A123" s="4"/>
       <c r="B123" s="9"/>
       <c r="C123" s="4"/>
@@ -5203,11 +5623,11 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -5215,21 +5635,24 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
-      <c r="T123" s="10"/>
-      <c r="U123" s="10"/>
-      <c r="V123" s="11"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
-      <c r="AA123" s="5"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="10"/>
+      <c r="X123" s="10"/>
+      <c r="Y123" s="11"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="14"/>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+    </row>
+    <row r="124" spans="1:35">
       <c r="A124" s="4"/>
       <c r="B124" s="9"/>
       <c r="C124" s="4"/>
@@ -5237,11 +5660,11 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -5249,21 +5672,24 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
-      <c r="T124" s="10"/>
-      <c r="U124" s="10"/>
-      <c r="V124" s="11"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="14"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="10"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="11"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="14"/>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124" s="5"/>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+    </row>
+    <row r="125" spans="1:35">
       <c r="A125" s="4"/>
       <c r="B125" s="9"/>
       <c r="C125" s="4"/>
@@ -5271,11 +5697,11 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -5283,21 +5709,24 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="10"/>
-      <c r="V125" s="11"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="14"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="11"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="14"/>
       <c r="AB125" s="5"/>
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+    </row>
+    <row r="126" spans="1:35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5305,11 +5734,11 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -5317,21 +5746,24 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
-      <c r="T126" s="10"/>
-      <c r="U126" s="10"/>
-      <c r="V126" s="11"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="11"/>
+      <c r="Z126" s="12"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126" s="5"/>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+    </row>
+    <row r="127" spans="1:35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5339,11 +5771,11 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -5351,21 +5783,24 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
-      <c r="T127" s="10"/>
-      <c r="U127" s="10"/>
-      <c r="V127" s="11"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="10"/>
+      <c r="X127" s="10"/>
+      <c r="Y127" s="11"/>
+      <c r="Z127" s="12"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+    </row>
+    <row r="128" spans="1:35">
       <c r="A128" s="4"/>
       <c r="B128" s="9"/>
       <c r="C128" s="4"/>
@@ -5373,11 +5808,11 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -5388,18 +5823,21 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
-      <c r="W128" s="17"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="17"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128" s="5"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+    </row>
+    <row r="129" spans="1:35">
       <c r="A129" s="4"/>
       <c r="B129" s="9"/>
       <c r="C129" s="4"/>
@@ -5407,11 +5845,11 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -5422,18 +5860,21 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
-      <c r="W129" s="17"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="17"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+    </row>
+    <row r="130" spans="1:35">
       <c r="A130" s="4"/>
       <c r="B130" s="9"/>
       <c r="C130" s="4"/>
@@ -5441,11 +5882,11 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -5456,18 +5897,21 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="17"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+    </row>
+    <row r="131" spans="1:35">
       <c r="A131" s="4"/>
       <c r="B131" s="9"/>
       <c r="C131" s="4"/>
@@ -5475,11 +5919,11 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="13"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="13"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -5490,18 +5934,21 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="17"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
       <c r="AC131" s="5"/>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+    </row>
+    <row r="132" spans="1:35">
       <c r="A132" s="4"/>
       <c r="B132" s="9"/>
       <c r="C132" s="4"/>
@@ -5509,11 +5956,11 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -5524,18 +5971,21 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
-      <c r="W132" s="17"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="17"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+    </row>
+    <row r="133" spans="1:35">
       <c r="A133" s="4"/>
       <c r="B133" s="9"/>
       <c r="C133" s="4"/>
@@ -5543,11 +5993,11 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -5558,18 +6008,21 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="17"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="17"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5"/>
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+    </row>
+    <row r="134" spans="1:35">
       <c r="A134" s="4"/>
       <c r="B134" s="9"/>
       <c r="C134" s="4"/>
@@ -5577,11 +6030,11 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -5592,18 +6045,21 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="17"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="17"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5"/>
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+    </row>
+    <row r="135" spans="1:35">
       <c r="A135" s="4"/>
       <c r="B135" s="9"/>
       <c r="C135" s="4"/>
@@ -5611,11 +6067,11 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="13"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="13"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -5626,18 +6082,21 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="17"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
-    </row>
-    <row r="136" spans="1:32">
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+    </row>
+    <row r="136" spans="1:35">
       <c r="A136" s="4"/>
       <c r="B136" s="9"/>
       <c r="C136" s="4"/>
@@ -5645,11 +6104,11 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="13"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="13"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -5660,18 +6119,21 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="17"/>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
-    </row>
-    <row r="137" spans="1:32">
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+    </row>
+    <row r="137" spans="1:35">
       <c r="A137" s="4"/>
       <c r="B137" s="9"/>
       <c r="C137" s="4"/>
@@ -5679,11 +6141,11 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="13"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -5694,18 +6156,21 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="5"/>
-      <c r="Y137" s="5"/>
-      <c r="Z137" s="5"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="17"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
-    </row>
-    <row r="138" spans="1:32">
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+    </row>
+    <row r="138" spans="1:35">
       <c r="A138" s="4"/>
       <c r="B138" s="9"/>
       <c r="C138" s="4"/>
@@ -5713,11 +6178,11 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -5725,21 +6190,24 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="10"/>
-      <c r="V138" s="11"/>
-      <c r="W138" s="12"/>
-      <c r="X138" s="5"/>
-      <c r="Y138" s="5"/>
-      <c r="Z138" s="5"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="11"/>
+      <c r="Z138" s="12"/>
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5"/>
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
-    </row>
-    <row r="139" spans="1:32">
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+    </row>
+    <row r="139" spans="1:35">
       <c r="A139" s="4"/>
       <c r="B139" s="9"/>
       <c r="C139" s="4"/>
@@ -5747,11 +6215,11 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -5759,21 +6227,24 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
-      <c r="T139" s="10"/>
-      <c r="U139" s="10"/>
-      <c r="V139" s="11"/>
-      <c r="W139" s="12"/>
-      <c r="X139" s="5"/>
-      <c r="Y139" s="5"/>
-      <c r="Z139" s="5"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="11"/>
+      <c r="Z139" s="12"/>
       <c r="AA139" s="5"/>
       <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
-    </row>
-    <row r="140" spans="1:32">
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+    </row>
+    <row r="140" spans="1:35">
       <c r="A140" s="4"/>
       <c r="B140" s="9"/>
       <c r="C140" s="4"/>
@@ -5781,11 +6252,11 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -5793,21 +6264,24 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
-      <c r="T140" s="10"/>
-      <c r="U140" s="10"/>
-      <c r="V140" s="11"/>
-      <c r="W140" s="12"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="11"/>
+      <c r="Z140" s="12"/>
       <c r="AA140" s="5"/>
       <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
-    </row>
-    <row r="141" spans="1:32">
+      <c r="AG140" s="5"/>
+      <c r="AH140" s="5"/>
+      <c r="AI140" s="5"/>
+    </row>
+    <row r="141" spans="1:35">
       <c r="A141" s="4"/>
       <c r="B141" s="13"/>
       <c r="C141" s="4"/>
@@ -5815,11 +6289,11 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -5827,21 +6301,24 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="11"/>
-      <c r="W141" s="12"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="11"/>
+      <c r="Z141" s="12"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5"/>
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
-    </row>
-    <row r="142" spans="1:32" ht="16.5">
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+    </row>
+    <row r="142" spans="1:35" ht="16.5">
       <c r="A142" s="4"/>
       <c r="B142" s="18"/>
       <c r="C142" s="4"/>
@@ -5849,24 +6326,24 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
+      <c r="T142" s="6"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
@@ -5874,8 +6351,11 @@
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
-    </row>
-    <row r="143" spans="1:32" ht="16.5">
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+    </row>
+    <row r="143" spans="1:35" ht="16.5">
       <c r="A143" s="4"/>
       <c r="B143" s="18"/>
       <c r="C143" s="4"/>
@@ -5883,24 +6363,24 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
       <c r="R143" s="6"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6"/>
+      <c r="V143" s="18"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
       <c r="AB143" s="5"/>
@@ -5908,8 +6388,11 @@
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
-    </row>
-    <row r="144" spans="1:32" ht="16.5">
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+    </row>
+    <row r="144" spans="1:35" ht="16.5">
       <c r="A144" s="4"/>
       <c r="B144" s="18"/>
       <c r="C144" s="4"/>
@@ -5917,24 +6400,24 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
       <c r="R144" s="6"/>
-      <c r="S144" s="18"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="6"/>
+      <c r="V144" s="18"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
@@ -5942,8 +6425,11 @@
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
-    </row>
-    <row r="145" spans="1:32" ht="16.5">
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+    </row>
+    <row r="145" spans="1:35" ht="16.5">
       <c r="A145" s="4"/>
       <c r="B145" s="18"/>
       <c r="C145" s="4"/>
@@ -5951,24 +6437,24 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="18"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
@@ -5976,8 +6462,11 @@
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
-    </row>
-    <row r="146" spans="1:32" ht="16.5">
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+    </row>
+    <row r="146" spans="1:35" ht="16.5">
       <c r="A146" s="4"/>
       <c r="B146" s="18"/>
       <c r="C146" s="4"/>
@@ -5985,24 +6474,24 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
       <c r="R146" s="6"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="18"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
@@ -6010,8 +6499,11 @@
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
-    </row>
-    <row r="147" spans="1:32" ht="16.5">
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+    </row>
+    <row r="147" spans="1:35" ht="16.5">
       <c r="A147" s="4"/>
       <c r="B147" s="18"/>
       <c r="C147" s="4"/>
@@ -6019,24 +6511,24 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
       <c r="R147" s="6"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="18"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
@@ -6044,8 +6536,11 @@
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
-    </row>
-    <row r="148" spans="1:32" ht="16.5">
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+    </row>
+    <row r="148" spans="1:35" ht="16.5">
       <c r="A148" s="4"/>
       <c r="B148" s="18"/>
       <c r="C148" s="4"/>
@@ -6053,24 +6548,24 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
       <c r="R148" s="6"/>
-      <c r="S148" s="18"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="18"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
@@ -6078,8 +6573,11 @@
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
-    </row>
-    <row r="149" spans="1:32" ht="16.5">
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+    </row>
+    <row r="149" spans="1:35" ht="16.5">
       <c r="A149" s="4"/>
       <c r="B149" s="18"/>
       <c r="C149" s="4"/>
@@ -6087,24 +6585,24 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
       <c r="R149" s="6"/>
-      <c r="S149" s="18"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
@@ -6112,8 +6610,11 @@
       <c r="AD149" s="5"/>
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
-    </row>
-    <row r="150" spans="1:32">
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+    </row>
+    <row r="150" spans="1:35">
       <c r="A150" s="4"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
@@ -6121,24 +6622,24 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
       <c r="K150" s="6"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="5"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
+      <c r="T150" s="6"/>
+      <c r="U150" s="6"/>
+      <c r="V150" s="6"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
@@ -6146,8 +6647,11 @@
       <c r="AD150" s="5"/>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
-    </row>
-    <row r="151" spans="1:32">
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+    </row>
+    <row r="151" spans="1:35">
       <c r="A151" s="4"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -6155,24 +6659,24 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
       <c r="K151" s="6"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="5"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
+      <c r="T151" s="6"/>
+      <c r="U151" s="6"/>
+      <c r="V151" s="6"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
@@ -6180,8 +6684,11 @@
       <c r="AD151" s="5"/>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
-    </row>
-    <row r="152" spans="1:32" ht="16.5">
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+    </row>
+    <row r="152" spans="1:35" ht="16.5">
       <c r="A152" s="4"/>
       <c r="B152" s="18"/>
       <c r="C152" s="4"/>
@@ -6189,24 +6696,24 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
       <c r="R152" s="6"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="18"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
@@ -6214,8 +6721,11 @@
       <c r="AD152" s="5"/>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
-    </row>
-    <row r="153" spans="1:32" ht="16.5">
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+    </row>
+    <row r="153" spans="1:35" ht="16.5">
       <c r="A153" s="4"/>
       <c r="B153" s="18"/>
       <c r="C153" s="4"/>
@@ -6223,24 +6733,24 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
       <c r="K153" s="6"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
       <c r="R153" s="6"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="18"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
@@ -6248,8 +6758,11 @@
       <c r="AD153" s="5"/>
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
-    </row>
-    <row r="154" spans="1:32" ht="16.5">
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+    </row>
+    <row r="154" spans="1:35" ht="16.5">
       <c r="A154" s="4"/>
       <c r="B154" s="18"/>
       <c r="C154" s="4"/>
@@ -6257,24 +6770,24 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
       <c r="K154" s="6"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
       <c r="R154" s="6"/>
-      <c r="S154" s="18"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="18"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
@@ -6282,8 +6795,11 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
-    </row>
-    <row r="155" spans="1:32" ht="16.5">
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+    </row>
+    <row r="155" spans="1:35" ht="16.5">
       <c r="A155" s="4"/>
       <c r="B155" s="18"/>
       <c r="C155" s="4"/>
@@ -6291,24 +6807,24 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
       <c r="K155" s="6"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="5"/>
-      <c r="Y155" s="5"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="18"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
@@ -6316,8 +6832,11 @@
       <c r="AD155" s="5"/>
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
-    </row>
-    <row r="156" spans="1:32" ht="16.5">
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+    </row>
+    <row r="156" spans="1:35" ht="16.5">
       <c r="A156" s="4"/>
       <c r="B156" s="18"/>
       <c r="C156" s="4"/>
@@ -6325,24 +6844,24 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
       <c r="K156" s="6"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="18"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
-      <c r="Y156" s="5"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="18"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="18"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
@@ -6350,8 +6869,11 @@
       <c r="AD156" s="5"/>
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
-    </row>
-    <row r="157" spans="1:32" ht="16.5">
+      <c r="AG156" s="5"/>
+      <c r="AH156" s="5"/>
+      <c r="AI156" s="5"/>
+    </row>
+    <row r="157" spans="1:35" ht="16.5">
       <c r="A157" s="4"/>
       <c r="B157" s="18"/>
       <c r="C157" s="4"/>
@@ -6359,24 +6881,24 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="6"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="18"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="5"/>
-      <c r="X157" s="5"/>
-      <c r="Y157" s="5"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="18"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5"/>
       <c r="AB157" s="5"/>
@@ -6384,8 +6906,11 @@
       <c r="AD157" s="5"/>
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
-    </row>
-    <row r="158" spans="1:32" ht="16.5">
+      <c r="AG157" s="5"/>
+      <c r="AH157" s="5"/>
+      <c r="AI157" s="5"/>
+    </row>
+    <row r="158" spans="1:35" ht="16.5">
       <c r="A158" s="4"/>
       <c r="B158" s="18"/>
       <c r="C158" s="4"/>
@@ -6393,24 +6918,24 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
       <c r="K158" s="6"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="5"/>
-      <c r="X158" s="5"/>
-      <c r="Y158" s="5"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="18"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
@@ -6418,8 +6943,11 @@
       <c r="AD158" s="5"/>
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
-    </row>
-    <row r="159" spans="1:32">
+      <c r="AG158" s="5"/>
+      <c r="AH158" s="5"/>
+      <c r="AI158" s="5"/>
+    </row>
+    <row r="159" spans="1:35">
       <c r="A159" s="4"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -6427,24 +6955,24 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
       <c r="K159" s="6"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="5"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
@@ -6452,8 +6980,11 @@
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
-    </row>
-    <row r="160" spans="1:32">
+      <c r="AG159" s="5"/>
+      <c r="AH159" s="5"/>
+      <c r="AI159" s="5"/>
+    </row>
+    <row r="160" spans="1:35">
       <c r="A160" s="4"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -6461,24 +6992,24 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
       <c r="K160" s="6"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
@@ -6486,8 +7017,11 @@
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
-    </row>
-    <row r="161" spans="1:32" ht="16.5">
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+    </row>
+    <row r="161" spans="1:35" ht="16.5">
       <c r="A161" s="4"/>
       <c r="B161" s="18"/>
       <c r="C161" s="4"/>
@@ -6495,24 +7029,24 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="18"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="18"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
@@ -6520,8 +7054,11 @@
       <c r="AD161" s="5"/>
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
-    </row>
-    <row r="162" spans="1:32" ht="16.5">
+      <c r="AG161" s="5"/>
+      <c r="AH161" s="5"/>
+      <c r="AI161" s="5"/>
+    </row>
+    <row r="162" spans="1:35" ht="16.5">
       <c r="A162" s="4"/>
       <c r="B162" s="18"/>
       <c r="C162" s="4"/>
@@ -6529,24 +7066,24 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
       <c r="K162" s="6"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
       <c r="R162" s="6"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="5"/>
-      <c r="X162" s="5"/>
-      <c r="Y162" s="5"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="18"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5"/>
       <c r="AB162" s="5"/>
@@ -6554,8 +7091,11 @@
       <c r="AD162" s="5"/>
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
-    </row>
-    <row r="163" spans="1:32" ht="16.5">
+      <c r="AG162" s="5"/>
+      <c r="AH162" s="5"/>
+      <c r="AI162" s="5"/>
+    </row>
+    <row r="163" spans="1:35" ht="16.5">
       <c r="A163" s="4"/>
       <c r="B163" s="18"/>
       <c r="C163" s="4"/>
@@ -6563,24 +7103,24 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
       <c r="K163" s="6"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
       <c r="R163" s="6"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="5"/>
-      <c r="X163" s="5"/>
-      <c r="Y163" s="5"/>
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="18"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
       <c r="Z163" s="5"/>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
@@ -6588,8 +7128,11 @@
       <c r="AD163" s="5"/>
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
-    </row>
-    <row r="164" spans="1:32" ht="16.5">
+      <c r="AG163" s="5"/>
+      <c r="AH163" s="5"/>
+      <c r="AI163" s="5"/>
+    </row>
+    <row r="164" spans="1:35" ht="16.5">
       <c r="A164" s="4"/>
       <c r="B164" s="18"/>
       <c r="C164" s="4"/>
@@ -6597,24 +7140,24 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
       <c r="R164" s="6"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="5"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="18"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
@@ -6622,8 +7165,11 @@
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
-    </row>
-    <row r="165" spans="1:32" ht="16.5">
+      <c r="AG164" s="5"/>
+      <c r="AH164" s="5"/>
+      <c r="AI164" s="5"/>
+    </row>
+    <row r="165" spans="1:35" ht="16.5">
       <c r="A165" s="4"/>
       <c r="B165" s="18"/>
       <c r="C165" s="4"/>
@@ -6631,24 +7177,24 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="6"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
       <c r="R165" s="6"/>
-      <c r="S165" s="18"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="5"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="18"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5"/>
       <c r="AB165" s="5"/>
@@ -6656,8 +7202,11 @@
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
-    </row>
-    <row r="166" spans="1:32" ht="16.5">
+      <c r="AG165" s="5"/>
+      <c r="AH165" s="5"/>
+      <c r="AI165" s="5"/>
+    </row>
+    <row r="166" spans="1:35" ht="16.5">
       <c r="A166" s="4"/>
       <c r="B166" s="18"/>
       <c r="C166" s="4"/>
@@ -6665,24 +7214,24 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="6"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
       <c r="R166" s="6"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="W166" s="5"/>
-      <c r="X166" s="5"/>
-      <c r="Y166" s="5"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="18"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
@@ -6690,8 +7239,11 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
       <c r="AF166" s="5"/>
-    </row>
-    <row r="167" spans="1:32">
+      <c r="AG166" s="5"/>
+      <c r="AH166" s="5"/>
+      <c r="AI166" s="5"/>
+    </row>
+    <row r="167" spans="1:35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6714,9 +7266,9 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
       <c r="AB167" s="5"/>
@@ -6724,8 +7276,11 @@
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
-    </row>
-    <row r="168" spans="1:32">
+      <c r="AG167" s="5"/>
+      <c r="AH167" s="5"/>
+      <c r="AI167" s="5"/>
+    </row>
+    <row r="168" spans="1:35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6748,9 +7303,9 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
-      <c r="W168" s="5"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
       <c r="AB168" s="5"/>
@@ -6758,8 +7313,11 @@
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
-    </row>
-    <row r="169" spans="1:32">
+      <c r="AG168" s="5"/>
+      <c r="AH168" s="5"/>
+      <c r="AI168" s="5"/>
+    </row>
+    <row r="169" spans="1:35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6782,9 +7340,9 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
-      <c r="W169" s="5"/>
-      <c r="X169" s="5"/>
-      <c r="Y169" s="5"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
@@ -6792,8 +7350,11 @@
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
-    </row>
-    <row r="170" spans="1:32">
+      <c r="AG169" s="5"/>
+      <c r="AH169" s="5"/>
+      <c r="AI169" s="5"/>
+    </row>
+    <row r="170" spans="1:35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6816,9 +7377,9 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
-      <c r="W170" s="5"/>
-      <c r="X170" s="5"/>
-      <c r="Y170" s="5"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
       <c r="AB170" s="5"/>
@@ -6826,8 +7387,11 @@
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
-    </row>
-    <row r="171" spans="1:32">
+      <c r="AG170" s="5"/>
+      <c r="AH170" s="5"/>
+      <c r="AI170" s="5"/>
+    </row>
+    <row r="171" spans="1:35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6850,9 +7414,9 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
-      <c r="W171" s="5"/>
-      <c r="X171" s="5"/>
-      <c r="Y171" s="5"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
       <c r="AB171" s="5"/>
@@ -6860,8 +7424,11 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
-    </row>
-    <row r="172" spans="1:32">
+      <c r="AG171" s="5"/>
+      <c r="AH171" s="5"/>
+      <c r="AI171" s="5"/>
+    </row>
+    <row r="172" spans="1:35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6884,9 +7451,9 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
-      <c r="W172" s="5"/>
-      <c r="X172" s="5"/>
-      <c r="Y172" s="5"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
       <c r="AB172" s="5"/>
@@ -6894,8 +7461,11 @@
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
-    </row>
-    <row r="173" spans="1:32">
+      <c r="AG172" s="5"/>
+      <c r="AH172" s="5"/>
+      <c r="AI172" s="5"/>
+    </row>
+    <row r="173" spans="1:35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6918,9 +7488,9 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
-      <c r="W173" s="5"/>
-      <c r="X173" s="5"/>
-      <c r="Y173" s="5"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
       <c r="Z173" s="5"/>
       <c r="AA173" s="5"/>
       <c r="AB173" s="5"/>
@@ -6928,8 +7498,11 @@
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
-    </row>
-    <row r="174" spans="1:32">
+      <c r="AG173" s="5"/>
+      <c r="AH173" s="5"/>
+      <c r="AI173" s="5"/>
+    </row>
+    <row r="174" spans="1:35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6952,9 +7525,9 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
-      <c r="W174" s="5"/>
-      <c r="X174" s="5"/>
-      <c r="Y174" s="5"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
       <c r="Z174" s="5"/>
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
@@ -6962,8 +7535,11 @@
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
-    </row>
-    <row r="175" spans="1:32">
+      <c r="AG174" s="5"/>
+      <c r="AH174" s="5"/>
+      <c r="AI174" s="5"/>
+    </row>
+    <row r="175" spans="1:35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6986,9 +7562,9 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
-      <c r="W175" s="5"/>
-      <c r="X175" s="5"/>
-      <c r="Y175" s="5"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
       <c r="Z175" s="5"/>
       <c r="AA175" s="5"/>
       <c r="AB175" s="5"/>
@@ -6996,8 +7572,11 @@
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
-    </row>
-    <row r="176" spans="1:32">
+      <c r="AG175" s="5"/>
+      <c r="AH175" s="5"/>
+      <c r="AI175" s="5"/>
+    </row>
+    <row r="176" spans="1:35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7020,9 +7599,9 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
-      <c r="W176" s="5"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
       <c r="Z176" s="5"/>
       <c r="AA176" s="5"/>
       <c r="AB176" s="5"/>
@@ -7030,8 +7609,11 @@
       <c r="AD176" s="5"/>
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
-    </row>
-    <row r="177" spans="1:32">
+      <c r="AG176" s="5"/>
+      <c r="AH176" s="5"/>
+      <c r="AI176" s="5"/>
+    </row>
+    <row r="177" spans="1:35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7054,9 +7636,9 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-      <c r="Y177" s="5"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
       <c r="Z177" s="5"/>
       <c r="AA177" s="5"/>
       <c r="AB177" s="5"/>
@@ -7064,8 +7646,11 @@
       <c r="AD177" s="5"/>
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
-    </row>
-    <row r="178" spans="1:32">
+      <c r="AG177" s="5"/>
+      <c r="AH177" s="5"/>
+      <c r="AI177" s="5"/>
+    </row>
+    <row r="178" spans="1:35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7088,9 +7673,9 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
-      <c r="W178" s="5"/>
-      <c r="X178" s="5"/>
-      <c r="Y178" s="5"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5"/>
@@ -7098,8 +7683,11 @@
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
-    </row>
-    <row r="179" spans="1:32">
+      <c r="AG178" s="5"/>
+      <c r="AH178" s="5"/>
+      <c r="AI178" s="5"/>
+    </row>
+    <row r="179" spans="1:35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7122,9 +7710,9 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
-      <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
-      <c r="Y179" s="5"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5"/>
@@ -7132,8 +7720,11 @@
       <c r="AD179" s="5"/>
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
-    </row>
-    <row r="180" spans="1:32">
+      <c r="AG179" s="5"/>
+      <c r="AH179" s="5"/>
+      <c r="AI179" s="5"/>
+    </row>
+    <row r="180" spans="1:35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7156,9 +7747,9 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-      <c r="Y180" s="5"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5"/>
@@ -7166,8 +7757,11 @@
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
-    </row>
-    <row r="181" spans="1:32">
+      <c r="AG180" s="5"/>
+      <c r="AH180" s="5"/>
+      <c r="AI180" s="5"/>
+    </row>
+    <row r="181" spans="1:35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7190,9 +7784,9 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
-      <c r="W181" s="5"/>
-      <c r="X181" s="5"/>
-      <c r="Y181" s="5"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
       <c r="AB181" s="5"/>
@@ -7200,8 +7794,11 @@
       <c r="AD181" s="5"/>
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
-    </row>
-    <row r="182" spans="1:32">
+      <c r="AG181" s="5"/>
+      <c r="AH181" s="5"/>
+      <c r="AI181" s="5"/>
+    </row>
+    <row r="182" spans="1:35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7224,9 +7821,9 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-      <c r="W182" s="5"/>
-      <c r="X182" s="5"/>
-      <c r="Y182" s="5"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
       <c r="AB182" s="5"/>
@@ -7234,8 +7831,11 @@
       <c r="AD182" s="5"/>
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
-    </row>
-    <row r="183" spans="1:32">
+      <c r="AG182" s="5"/>
+      <c r="AH182" s="5"/>
+      <c r="AI182" s="5"/>
+    </row>
+    <row r="183" spans="1:35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7258,9 +7858,9 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
-      <c r="W183" s="5"/>
-      <c r="X183" s="5"/>
-      <c r="Y183" s="5"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
       <c r="AB183" s="5"/>
@@ -7268,8 +7868,11 @@
       <c r="AD183" s="5"/>
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
-    </row>
-    <row r="184" spans="1:32">
+      <c r="AG183" s="5"/>
+      <c r="AH183" s="5"/>
+      <c r="AI183" s="5"/>
+    </row>
+    <row r="184" spans="1:35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7292,9 +7895,9 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
-      <c r="W184" s="5"/>
-      <c r="X184" s="5"/>
-      <c r="Y184" s="5"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
       <c r="AB184" s="5"/>
@@ -7302,8 +7905,11 @@
       <c r="AD184" s="5"/>
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
-    </row>
-    <row r="185" spans="1:32">
+      <c r="AG184" s="5"/>
+      <c r="AH184" s="5"/>
+      <c r="AI184" s="5"/>
+    </row>
+    <row r="185" spans="1:35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7326,9 +7932,9 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
-      <c r="W185" s="5"/>
-      <c r="X185" s="5"/>
-      <c r="Y185" s="5"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
       <c r="AB185" s="5"/>
@@ -7336,8 +7942,11 @@
       <c r="AD185" s="5"/>
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
-    </row>
-    <row r="186" spans="1:32">
+      <c r="AG185" s="5"/>
+      <c r="AH185" s="5"/>
+      <c r="AI185" s="5"/>
+    </row>
+    <row r="186" spans="1:35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7360,9 +7969,9 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
-      <c r="W186" s="5"/>
-      <c r="X186" s="5"/>
-      <c r="Y186" s="5"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
       <c r="Z186" s="5"/>
       <c r="AA186" s="5"/>
       <c r="AB186" s="5"/>
@@ -7370,8 +7979,11 @@
       <c r="AD186" s="5"/>
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
-    </row>
-    <row r="187" spans="1:32">
+      <c r="AG186" s="5"/>
+      <c r="AH186" s="5"/>
+      <c r="AI186" s="5"/>
+    </row>
+    <row r="187" spans="1:35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7394,9 +8006,9 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
-      <c r="W187" s="5"/>
-      <c r="X187" s="5"/>
-      <c r="Y187" s="5"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
       <c r="Z187" s="5"/>
       <c r="AA187" s="5"/>
       <c r="AB187" s="5"/>
@@ -7404,8 +8016,11 @@
       <c r="AD187" s="5"/>
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
-    </row>
-    <row r="188" spans="1:32">
+      <c r="AG187" s="5"/>
+      <c r="AH187" s="5"/>
+      <c r="AI187" s="5"/>
+    </row>
+    <row r="188" spans="1:35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7428,9 +8043,9 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
-      <c r="W188" s="5"/>
-      <c r="X188" s="5"/>
-      <c r="Y188" s="5"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
       <c r="Z188" s="5"/>
       <c r="AA188" s="5"/>
       <c r="AB188" s="5"/>
@@ -7438,8 +8053,11 @@
       <c r="AD188" s="5"/>
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
-    </row>
-    <row r="189" spans="1:32">
+      <c r="AG188" s="5"/>
+      <c r="AH188" s="5"/>
+      <c r="AI188" s="5"/>
+    </row>
+    <row r="189" spans="1:35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7462,9 +8080,9 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
       <c r="Z189" s="5"/>
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
@@ -7472,8 +8090,11 @@
       <c r="AD189" s="5"/>
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
-    </row>
-    <row r="190" spans="1:32">
+      <c r="AG189" s="5"/>
+      <c r="AH189" s="5"/>
+      <c r="AI189" s="5"/>
+    </row>
+    <row r="190" spans="1:35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7496,9 +8117,9 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
-      <c r="W190" s="5"/>
-      <c r="X190" s="5"/>
-      <c r="Y190" s="5"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
       <c r="Z190" s="5"/>
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
@@ -7506,8 +8127,11 @@
       <c r="AD190" s="5"/>
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
-    </row>
-    <row r="191" spans="1:32">
+      <c r="AG190" s="5"/>
+      <c r="AH190" s="5"/>
+      <c r="AI190" s="5"/>
+    </row>
+    <row r="191" spans="1:35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7530,9 +8154,9 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
-      <c r="W191" s="5"/>
-      <c r="X191" s="5"/>
-      <c r="Y191" s="5"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
       <c r="Z191" s="5"/>
       <c r="AA191" s="5"/>
       <c r="AB191" s="5"/>
@@ -7540,8 +8164,11 @@
       <c r="AD191" s="5"/>
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
-    </row>
-    <row r="192" spans="1:32">
+      <c r="AG191" s="5"/>
+      <c r="AH191" s="5"/>
+      <c r="AI191" s="5"/>
+    </row>
+    <row r="192" spans="1:35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7564,9 +8191,9 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
-      <c r="W192" s="5"/>
-      <c r="X192" s="5"/>
-      <c r="Y192" s="5"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
       <c r="Z192" s="5"/>
       <c r="AA192" s="5"/>
       <c r="AB192" s="5"/>
@@ -7574,8 +8201,11 @@
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
-    </row>
-    <row r="193" spans="1:32">
+      <c r="AG192" s="5"/>
+      <c r="AH192" s="5"/>
+      <c r="AI192" s="5"/>
+    </row>
+    <row r="193" spans="1:35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7598,9 +8228,9 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
-      <c r="W193" s="5"/>
-      <c r="X193" s="5"/>
-      <c r="Y193" s="5"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
       <c r="Z193" s="5"/>
       <c r="AA193" s="5"/>
       <c r="AB193" s="5"/>
@@ -7608,8 +8238,11 @@
       <c r="AD193" s="5"/>
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
-    </row>
-    <row r="194" spans="1:32">
+      <c r="AG193" s="5"/>
+      <c r="AH193" s="5"/>
+      <c r="AI193" s="5"/>
+    </row>
+    <row r="194" spans="1:35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7632,9 +8265,9 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
-      <c r="W194" s="5"/>
-      <c r="X194" s="5"/>
-      <c r="Y194" s="5"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
       <c r="Z194" s="5"/>
       <c r="AA194" s="5"/>
       <c r="AB194" s="5"/>
@@ -7642,8 +8275,11 @@
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
-    </row>
-    <row r="195" spans="1:32">
+      <c r="AG194" s="5"/>
+      <c r="AH194" s="5"/>
+      <c r="AI194" s="5"/>
+    </row>
+    <row r="195" spans="1:35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7666,9 +8302,9 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
-      <c r="W195" s="5"/>
-      <c r="X195" s="5"/>
-      <c r="Y195" s="5"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
       <c r="Z195" s="5"/>
       <c r="AA195" s="5"/>
       <c r="AB195" s="5"/>
@@ -7676,8 +8312,11 @@
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
-    </row>
-    <row r="196" spans="1:32">
+      <c r="AG195" s="5"/>
+      <c r="AH195" s="5"/>
+      <c r="AI195" s="5"/>
+    </row>
+    <row r="196" spans="1:35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7700,9 +8339,9 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
-      <c r="W196" s="5"/>
-      <c r="X196" s="5"/>
-      <c r="Y196" s="5"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
       <c r="Z196" s="5"/>
       <c r="AA196" s="5"/>
       <c r="AB196" s="5"/>
@@ -7710,8 +8349,11 @@
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
-    </row>
-    <row r="197" spans="1:32">
+      <c r="AG196" s="5"/>
+      <c r="AH196" s="5"/>
+      <c r="AI196" s="5"/>
+    </row>
+    <row r="197" spans="1:35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7734,9 +8376,9 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
-      <c r="W197" s="5"/>
-      <c r="X197" s="5"/>
-      <c r="Y197" s="5"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
       <c r="Z197" s="5"/>
       <c r="AA197" s="5"/>
       <c r="AB197" s="5"/>
@@ -7744,8 +8386,11 @@
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
       <c r="AF197" s="5"/>
-    </row>
-    <row r="198" spans="1:32">
+      <c r="AG197" s="5"/>
+      <c r="AH197" s="5"/>
+      <c r="AI197" s="5"/>
+    </row>
+    <row r="198" spans="1:35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7768,9 +8413,9 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
-      <c r="W198" s="5"/>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
+      <c r="W198" s="4"/>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
       <c r="Z198" s="5"/>
       <c r="AA198" s="5"/>
       <c r="AB198" s="5"/>
@@ -7778,8 +8423,11 @@
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
-    </row>
-    <row r="199" spans="1:32">
+      <c r="AG198" s="5"/>
+      <c r="AH198" s="5"/>
+      <c r="AI198" s="5"/>
+    </row>
+    <row r="199" spans="1:35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7802,9 +8450,9 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
-      <c r="W199" s="5"/>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
       <c r="Z199" s="5"/>
       <c r="AA199" s="5"/>
       <c r="AB199" s="5"/>
@@ -7812,8 +8460,11 @@
       <c r="AD199" s="5"/>
       <c r="AE199" s="5"/>
       <c r="AF199" s="5"/>
-    </row>
-    <row r="200" spans="1:32">
+      <c r="AG199" s="5"/>
+      <c r="AH199" s="5"/>
+      <c r="AI199" s="5"/>
+    </row>
+    <row r="200" spans="1:35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7836,9 +8487,9 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
-      <c r="W200" s="5"/>
-      <c r="X200" s="5"/>
-      <c r="Y200" s="5"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
       <c r="Z200" s="5"/>
       <c r="AA200" s="5"/>
       <c r="AB200" s="5"/>
@@ -7846,6 +8497,9 @@
       <c r="AD200" s="5"/>
       <c r="AE200" s="5"/>
       <c r="AF200" s="5"/>
+      <c r="AG200" s="5"/>
+      <c r="AH200" s="5"/>
+      <c r="AI200" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7879,52 +8533,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="229">
   <si>
     <t>Type</t>
   </si>
@@ -356,6 +356,9 @@
     <t>11L</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -563,7 +566,7 @@
     <t>解放98_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>解放てこ</t>
   </si>
   <si>
     <t>駅扱切換</t>
@@ -579,6 +582,9 @@
   </si>
   <si>
     <t>駅扱切換_PY</t>
+  </si>
+  <si>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1059,6 +1065,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,9 +1094,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1632,7 +1638,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1657,19 +1665,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="19">
         <v>-1.0</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
@@ -1682,10 +1690,10 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>39</v>
@@ -1718,10 +1726,10 @@
         <v>10.0</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" s="19" t="s">
         <v>39</v>
@@ -1745,10 +1753,12 @@
         <v>38</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1770,22 +1780,22 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8" s="19">
         <v>0.0</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
@@ -1801,14 +1811,14 @@
         <v>29</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1831,17 +1841,17 @@
       <c r="T9" s="5"/>
       <c r="U9" s="24"/>
       <c r="V9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W9" s="19">
         <v>0.0</v>
       </c>
       <c r="X9" s="20"/>
       <c r="Y9" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -1857,14 +1867,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1887,14 +1897,14 @@
       <c r="T10" s="5"/>
       <c r="U10" s="24"/>
       <c r="V10" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10" s="19">
         <v>0.0</v>
       </c>
       <c r="X10" s="20"/>
       <c r="Y10" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="9"/>
@@ -1908,13 +1918,13 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1944,13 +1954,13 @@
         <v>10.0</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
@@ -1971,10 +1981,12 @@
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1996,19 +2008,19 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W12" s="19">
         <v>0.0</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y12" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
@@ -2025,14 +2037,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2055,14 +2067,14 @@
       <c r="T13" s="5"/>
       <c r="U13" s="24"/>
       <c r="V13" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" s="19">
         <v>0.0</v>
       </c>
       <c r="X13" s="20"/>
       <c r="Y13" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
@@ -2079,14 +2091,14 @@
         <v>29</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2109,14 +2121,14 @@
       <c r="T14" s="5"/>
       <c r="U14" s="24"/>
       <c r="V14" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W14" s="19">
         <v>0.0</v>
       </c>
       <c r="X14" s="20"/>
       <c r="Y14" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
@@ -2130,13 +2142,13 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2166,13 +2178,13 @@
         <v>10.0</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
@@ -2193,10 +2205,12 @@
         <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2218,19 +2232,19 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W16" s="19">
         <v>0.0</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y16" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
@@ -2247,14 +2261,14 @@
         <v>29</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2277,14 +2291,14 @@
       <c r="T17" s="5"/>
       <c r="U17" s="18"/>
       <c r="V17" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W17" s="19">
         <v>0.0</v>
       </c>
       <c r="X17" s="20"/>
       <c r="Y17" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
@@ -2301,14 +2315,14 @@
         <v>29</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2331,14 +2345,14 @@
       <c r="T18" s="5"/>
       <c r="U18" s="18"/>
       <c r="V18" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W18" s="19">
         <v>0.0</v>
       </c>
       <c r="X18" s="20"/>
       <c r="Y18" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="9"/>
@@ -2352,13 +2366,13 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2388,13 +2402,13 @@
         <v>10.0</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
@@ -2415,10 +2429,12 @@
         <v>38</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2440,19 +2456,19 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W20" s="19">
         <v>0.0</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y20" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="9"/>
@@ -2469,14 +2485,14 @@
         <v>29</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2499,14 +2515,14 @@
       <c r="T21" s="5"/>
       <c r="U21" s="24"/>
       <c r="V21" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W21" s="19">
         <v>0.0</v>
       </c>
       <c r="X21" s="20"/>
       <c r="Y21" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="9"/>
@@ -2523,14 +2539,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2553,14 +2569,14 @@
       <c r="T22" s="5"/>
       <c r="U22" s="24"/>
       <c r="V22" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" s="19">
         <v>0.0</v>
       </c>
       <c r="X22" s="20"/>
       <c r="Y22" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="9"/>
@@ -2574,13 +2590,13 @@
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -2610,13 +2626,13 @@
         <v>10.0</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
@@ -2637,10 +2653,12 @@
         <v>38</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2662,22 +2680,22 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W24" s="19">
         <v>-1.0</v>
       </c>
       <c r="X24" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -2690,13 +2708,13 @@
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -2726,13 +2744,13 @@
         <v>10.0</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
@@ -2750,10 +2768,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2778,19 +2796,19 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W26" s="19">
         <v>0.0</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y26" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="9"/>
@@ -2804,10 +2822,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2832,19 +2850,19 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="V27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y27" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="9"/>
@@ -2861,10 +2879,12 @@
         <v>38</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2886,22 +2906,22 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W28" s="19">
         <v>0.0</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y28" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -2917,11 +2937,11 @@
         <v>29</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="5"/>
@@ -2945,14 +2965,14 @@
       <c r="T29" s="5"/>
       <c r="U29" s="18"/>
       <c r="V29" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W29" s="19">
         <v>0.0</v>
       </c>
       <c r="X29" s="20"/>
       <c r="Y29" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="9"/>
@@ -2969,11 +2989,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="5"/>
@@ -2997,14 +3017,14 @@
       <c r="T30" s="5"/>
       <c r="U30" s="18"/>
       <c r="V30" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W30" s="19">
         <v>0.0</v>
       </c>
       <c r="X30" s="20"/>
       <c r="Y30" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="9"/>
@@ -3018,13 +3038,13 @@
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3054,13 +3074,13 @@
         <v>10.0</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
@@ -3081,10 +3101,12 @@
         <v>38</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -3106,19 +3128,19 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W32" s="19">
         <v>0.0</v>
       </c>
       <c r="X32" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y32" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="9"/>
@@ -3135,11 +3157,11 @@
         <v>29</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="5"/>
@@ -3163,14 +3185,14 @@
       <c r="T33" s="5"/>
       <c r="U33" s="24"/>
       <c r="V33" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W33" s="19">
         <v>0.0</v>
       </c>
       <c r="X33" s="20"/>
       <c r="Y33" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="9"/>
@@ -3187,11 +3209,11 @@
         <v>29</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="5"/>
@@ -3215,14 +3237,14 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W34" s="19">
         <v>0.0</v>
       </c>
       <c r="X34" s="20"/>
       <c r="Y34" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="9"/>
@@ -3236,13 +3258,13 @@
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3272,13 +3294,13 @@
         <v>10.0</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U35" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
@@ -3296,13 +3318,15 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3324,22 +3348,22 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W36" s="19">
         <v>0.0</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y36" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -3355,11 +3379,11 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3383,14 +3407,14 @@
       <c r="T37" s="5"/>
       <c r="U37" s="24"/>
       <c r="V37" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W37" s="19">
         <v>0.0</v>
       </c>
       <c r="X37" s="20"/>
       <c r="Y37" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="9"/>
@@ -3404,13 +3428,15 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3432,22 +3458,22 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W38" s="19">
         <v>1.0</v>
       </c>
       <c r="X38" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y38" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z38" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -3463,11 +3489,11 @@
         <v>29</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
-        <v>109</v>
+      <c r="D39" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3491,14 +3517,14 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W39" s="19">
         <v>0.0</v>
       </c>
       <c r="X39" s="20"/>
       <c r="Y39" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="9"/>
@@ -3515,11 +3541,11 @@
         <v>29</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="4" t="s">
-        <v>109</v>
+      <c r="D40" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3543,14 +3569,14 @@
       <c r="T40" s="5"/>
       <c r="U40" s="24"/>
       <c r="V40" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W40" s="19">
         <v>0.0</v>
       </c>
       <c r="X40" s="20"/>
       <c r="Y40" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="9"/>
@@ -3564,13 +3590,15 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -3592,22 +3620,22 @@
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V41" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W41" s="19">
         <v>0.0</v>
       </c>
       <c r="X41" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y41" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z41" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -3623,11 +3651,11 @@
         <v>29</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3651,14 +3679,14 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W42" s="19">
         <v>0.0</v>
       </c>
       <c r="X42" s="20"/>
       <c r="Y42" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="9"/>
@@ -3675,11 +3703,11 @@
         <v>29</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3702,18 +3730,18 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="24"/>
-      <c r="V43" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W43" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="29" t="s">
-        <v>121</v>
+      <c r="V43" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W43" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z43" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -3729,11 +3757,11 @@
         <v>29</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3756,18 +3784,18 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W44" s="27">
+      <c r="V44" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W44" s="28">
         <v>0.0</v>
       </c>
       <c r="X44" s="3"/>
-      <c r="Y44" s="30" t="s">
-        <v>124</v>
+      <c r="Y44" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -3783,11 +3811,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3810,15 +3838,15 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W45" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="29" t="s">
-        <v>121</v>
+      <c r="V45" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W45" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="9"/>
@@ -3835,11 +3863,11 @@
         <v>29</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3862,15 +3890,15 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W46" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="29" t="s">
-        <v>121</v>
+      <c r="V46" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W46" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="9"/>
@@ -3887,11 +3915,11 @@
         <v>29</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3914,15 +3942,15 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="24"/>
-      <c r="V47" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W47" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="29" t="s">
-        <v>121</v>
+      <c r="V47" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W47" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="9"/>
@@ -3939,11 +3967,11 @@
         <v>29</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3966,15 +3994,15 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W48" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="29" t="s">
-        <v>121</v>
+      <c r="V48" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W48" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="9"/>
@@ -3991,11 +4019,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4018,15 +4046,15 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W49" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="29" t="s">
-        <v>121</v>
+      <c r="V49" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W49" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="9"/>
@@ -4043,11 +4071,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4070,15 +4098,15 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="24"/>
-      <c r="V50" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W50" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="29" t="s">
-        <v>121</v>
+      <c r="V50" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W50" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="9"/>
@@ -4095,11 +4123,11 @@
         <v>29</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -4122,15 +4150,15 @@
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
-      <c r="V51" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W51" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="29" t="s">
-        <v>121</v>
+      <c r="V51" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W51" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="9"/>
@@ -4147,11 +4175,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4174,15 +4202,15 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
-      <c r="V52" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W52" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="29" t="s">
-        <v>121</v>
+      <c r="V52" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W52" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="9"/>
@@ -4199,11 +4227,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4226,15 +4254,15 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="24"/>
-      <c r="V53" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W53" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="29" t="s">
-        <v>121</v>
+      <c r="V53" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W53" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z53" s="7"/>
       <c r="AA53" s="9"/>
@@ -4251,11 +4279,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -4278,15 +4306,15 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
-      <c r="V54" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W54" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="29" t="s">
-        <v>121</v>
+      <c r="V54" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W54" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="9"/>
@@ -4303,11 +4331,11 @@
         <v>29</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -4330,15 +4358,15 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="24"/>
-      <c r="V55" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W55" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="29" t="s">
-        <v>121</v>
+      <c r="V55" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W55" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="9"/>
@@ -4355,11 +4383,11 @@
         <v>29</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4382,15 +4410,15 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
-      <c r="V56" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W56" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="29" t="s">
-        <v>121</v>
+      <c r="V56" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W56" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="9"/>
@@ -4407,11 +4435,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -4434,18 +4462,18 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
-      <c r="V57" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W57" s="27">
+      <c r="V57" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W57" s="28">
         <v>0.0</v>
       </c>
       <c r="X57" s="3"/>
-      <c r="Y57" s="30" t="s">
-        <v>139</v>
+      <c r="Y57" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -4461,11 +4489,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -4488,15 +4516,15 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
-      <c r="V58" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W58" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="29" t="s">
-        <v>121</v>
+      <c r="V58" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W58" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="9"/>
@@ -4513,11 +4541,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -4540,15 +4568,15 @@
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
-      <c r="V59" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W59" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="29" t="s">
-        <v>121</v>
+      <c r="V59" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W59" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="9"/>
@@ -4565,11 +4593,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4592,18 +4620,18 @@
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W60" s="27">
+      <c r="V60" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W60" s="28">
         <v>0.0</v>
       </c>
       <c r="X60" s="3"/>
-      <c r="Y60" s="30" t="s">
-        <v>139</v>
+      <c r="Y60" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="Z60" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -4619,11 +4647,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -4646,15 +4674,15 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
-      <c r="V61" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W61" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="29" t="s">
-        <v>121</v>
+      <c r="V61" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W61" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="9"/>
@@ -4671,11 +4699,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -4698,15 +4726,15 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
-      <c r="V62" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W62" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="29" t="s">
-        <v>121</v>
+      <c r="V62" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W62" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="9"/>
@@ -4723,11 +4751,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -4750,15 +4778,15 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
-      <c r="V63" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W63" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="29" t="s">
-        <v>121</v>
+      <c r="V63" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W63" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="9"/>
@@ -4775,11 +4803,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -4802,15 +4830,15 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
-      <c r="V64" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W64" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="29" t="s">
-        <v>121</v>
+      <c r="V64" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W64" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z64" s="8"/>
       <c r="AA64" s="9"/>
@@ -4827,11 +4855,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -4854,15 +4882,15 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
-      <c r="V65" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W65" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="29" t="s">
-        <v>121</v>
+      <c r="V65" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W65" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="Z65" s="8"/>
       <c r="AA65" s="9"/>
@@ -4879,11 +4907,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -4906,18 +4934,18 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
-      <c r="V66" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W66" s="27">
+      <c r="V66" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W66" s="28">
         <v>0.0</v>
       </c>
       <c r="X66" s="3"/>
-      <c r="Y66" s="31" t="s">
-        <v>150</v>
+      <c r="Y66" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="Z66" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -4933,11 +4961,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4960,18 +4988,18 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W67" s="27">
+      <c r="V67" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W67" s="28">
         <v>0.0</v>
       </c>
       <c r="X67" s="3"/>
-      <c r="Y67" s="31" t="s">
-        <v>153</v>
+      <c r="Y67" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="Z67" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -4987,11 +5015,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -5014,17 +5042,17 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
-      <c r="V68" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W68" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z68" s="32"/>
+      <c r="V68" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W68" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z68" s="33"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
@@ -5039,11 +5067,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -5066,17 +5094,17 @@
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
-      <c r="V69" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W69" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z69" s="33"/>
+      <c r="V69" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W69" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z69" s="34"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -5091,11 +5119,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -5118,17 +5146,17 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
-      <c r="V70" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W70" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z70" s="33"/>
+      <c r="V70" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W70" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z70" s="34"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -5143,11 +5171,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -5170,18 +5198,18 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
-      <c r="V71" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W71" s="27">
+      <c r="V71" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W71" s="28">
         <v>0.0</v>
       </c>
       <c r="X71" s="3"/>
-      <c r="Y71" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z71" s="34" t="s">
-        <v>160</v>
+      <c r="Y71" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z71" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -5197,11 +5225,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -5224,17 +5252,17 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
-      <c r="V72" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W72" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z72" s="32"/>
+      <c r="V72" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W72" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z72" s="33"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -5249,11 +5277,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -5276,17 +5304,17 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
-      <c r="V73" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W73" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z73" s="32"/>
+      <c r="V73" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W73" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z73" s="33"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
@@ -5301,11 +5329,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -5328,17 +5356,17 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
-      <c r="V74" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W74" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z74" s="33"/>
+      <c r="V74" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W74" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z74" s="34"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
@@ -5353,11 +5381,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -5380,17 +5408,17 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
-      <c r="V75" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W75" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z75" s="33"/>
+      <c r="V75" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W75" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z75" s="34"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
@@ -5405,11 +5433,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -5432,17 +5460,17 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
-      <c r="V76" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W76" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z76" s="33"/>
+      <c r="V76" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W76" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z76" s="34"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -5457,11 +5485,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -5484,17 +5512,17 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
-      <c r="V77" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W77" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z77" s="33"/>
+      <c r="V77" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W77" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z77" s="34"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
@@ -5509,11 +5537,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -5536,17 +5564,17 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W78" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z78" s="33"/>
+      <c r="V78" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W78" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z78" s="34"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
@@ -5561,11 +5589,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -5588,17 +5616,17 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
-      <c r="V79" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W79" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z79" s="33"/>
+      <c r="V79" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W79" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z79" s="34"/>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
@@ -5613,11 +5641,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -5640,17 +5668,17 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
-      <c r="V80" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W80" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z80" s="32"/>
+      <c r="V80" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W80" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z80" s="33"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
@@ -5665,11 +5693,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -5692,17 +5720,17 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
-      <c r="V81" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W81" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z81" s="32"/>
+      <c r="V81" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W81" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z81" s="33"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
@@ -5717,11 +5745,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -5744,17 +5772,17 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
-      <c r="V82" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W82" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z82" s="32"/>
+      <c r="V82" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W82" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z82" s="33"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
@@ -5769,11 +5797,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -5796,17 +5824,17 @@
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
-      <c r="V83" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W83" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z83" s="32"/>
+      <c r="V83" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W83" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z83" s="33"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
@@ -5821,11 +5849,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -5848,17 +5876,17 @@
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
-      <c r="V84" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W84" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z84" s="33"/>
+      <c r="V84" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W84" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z84" s="34"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
@@ -5873,11 +5901,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -5900,17 +5928,17 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
-      <c r="V85" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W85" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z85" s="33"/>
+      <c r="V85" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W85" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z85" s="34"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
@@ -5925,11 +5953,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -5952,18 +5980,18 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
-      <c r="V86" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W86" s="27">
+      <c r="V86" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W86" s="28">
         <v>0.0</v>
       </c>
       <c r="X86" s="3"/>
-      <c r="Y86" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z86" s="34" t="s">
-        <v>177</v>
+      <c r="Y86" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z86" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
@@ -5979,11 +6007,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -6006,17 +6034,17 @@
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
-      <c r="V87" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W87" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z87" s="33"/>
+      <c r="V87" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W87" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z87" s="34"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -6031,11 +6059,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -6058,17 +6086,17 @@
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
-      <c r="V88" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W88" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z88" s="33"/>
+      <c r="V88" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W88" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z88" s="34"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -6083,11 +6111,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -6110,17 +6138,17 @@
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
-      <c r="V89" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W89" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z89" s="32"/>
+      <c r="V89" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W89" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z89" s="33"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
@@ -6135,11 +6163,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -6162,18 +6190,18 @@
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
-      <c r="V90" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W90" s="27">
+      <c r="V90" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W90" s="28">
         <v>0.0</v>
       </c>
       <c r="X90" s="3"/>
-      <c r="Y90" s="30" t="s">
-        <v>150</v>
+      <c r="Y90" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="Z90" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -6189,11 +6217,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -6216,18 +6244,18 @@
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
-      <c r="V91" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W91" s="27">
+      <c r="V91" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W91" s="28">
         <v>0.0</v>
       </c>
       <c r="X91" s="3"/>
-      <c r="Y91" s="30" t="s">
-        <v>153</v>
+      <c r="Y91" s="31" t="s">
+        <v>155</v>
       </c>
       <c r="Z91" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -6243,11 +6271,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -6270,17 +6298,17 @@
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
-      <c r="V92" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W92" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z92" s="33"/>
+      <c r="V92" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W92" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z92" s="34"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
@@ -6295,11 +6323,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -6322,17 +6350,17 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
-      <c r="V93" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W93" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z93" s="33"/>
+      <c r="V93" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W93" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z93" s="34"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
@@ -6347,11 +6375,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -6374,17 +6402,17 @@
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
-      <c r="V94" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W94" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z94" s="33"/>
+      <c r="V94" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W94" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z94" s="34"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
@@ -6399,11 +6427,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -6426,17 +6454,17 @@
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
-      <c r="V95" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W95" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z95" s="32"/>
+      <c r="V95" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W95" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z95" s="33"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
@@ -6451,11 +6479,11 @@
         <v>29</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -6478,17 +6506,17 @@
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
-      <c r="V96" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W96" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z96" s="32"/>
+      <c r="V96" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W96" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X96" s="29"/>
+      <c r="Y96" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z96" s="33"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
@@ -6503,11 +6531,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -6530,17 +6558,17 @@
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
-      <c r="V97" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W97" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z97" s="33"/>
+      <c r="V97" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W97" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X97" s="29"/>
+      <c r="Y97" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z97" s="34"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
@@ -6555,11 +6583,11 @@
         <v>29</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -6582,18 +6610,18 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
-      <c r="V98" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W98" s="27">
+      <c r="V98" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W98" s="28">
         <v>0.0</v>
       </c>
       <c r="X98" s="3"/>
-      <c r="Y98" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z98" s="34" t="s">
-        <v>140</v>
+      <c r="Y98" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z98" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
@@ -6609,11 +6637,11 @@
         <v>29</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -6636,17 +6664,17 @@
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
-      <c r="V99" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W99" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z99" s="33"/>
+      <c r="V99" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W99" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z99" s="34"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
@@ -6661,11 +6689,11 @@
         <v>29</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -6688,17 +6716,17 @@
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
-      <c r="V100" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W100" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z100" s="33"/>
+      <c r="V100" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W100" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X100" s="29"/>
+      <c r="Y100" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z100" s="34"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
@@ -6713,11 +6741,11 @@
         <v>29</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -6740,18 +6768,18 @@
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
-      <c r="V101" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W101" s="27">
+      <c r="V101" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W101" s="28">
         <v>0.0</v>
       </c>
       <c r="X101" s="3"/>
-      <c r="Y101" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z101" s="34" t="s">
-        <v>140</v>
+      <c r="Y101" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z101" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
@@ -6767,11 +6795,11 @@
         <v>29</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -6794,17 +6822,17 @@
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
-      <c r="V102" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W102" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z102" s="33"/>
+      <c r="V102" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W102" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X102" s="29"/>
+      <c r="Y102" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z102" s="34"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
@@ -6819,11 +6847,11 @@
         <v>29</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -6846,17 +6874,17 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W103" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z103" s="33"/>
+      <c r="V103" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W103" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z103" s="34"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
@@ -6871,11 +6899,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -6898,17 +6926,17 @@
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
-      <c r="V104" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W104" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z104" s="33"/>
+      <c r="V104" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W104" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z104" s="34"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
@@ -6923,11 +6951,11 @@
         <v>29</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -6950,17 +6978,17 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W105" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z105" s="33"/>
+      <c r="V105" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W105" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z105" s="34"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
@@ -6975,11 +7003,11 @@
         <v>29</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -7002,17 +7030,17 @@
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
-      <c r="V106" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W106" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z106" s="33"/>
+      <c r="V106" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W106" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z106" s="34"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
@@ -7027,11 +7055,11 @@
         <v>29</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -7054,18 +7082,18 @@
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
-      <c r="V107" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W107" s="27">
+      <c r="V107" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W107" s="28">
         <v>0.0</v>
       </c>
       <c r="X107" s="3"/>
-      <c r="Y107" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z107" s="34" t="s">
-        <v>125</v>
+      <c r="Y107" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z107" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -7081,11 +7109,11 @@
         <v>29</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -7108,17 +7136,17 @@
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
-      <c r="V108" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W108" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z108" s="32"/>
+      <c r="V108" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W108" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z108" s="33"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
@@ -7133,11 +7161,11 @@
         <v>29</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -7160,17 +7188,17 @@
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
-      <c r="V109" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W109" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z109" s="32"/>
+      <c r="V109" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W109" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z109" s="33"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
@@ -7185,11 +7213,11 @@
         <v>29</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -7212,17 +7240,17 @@
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
-      <c r="V110" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W110" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z110" s="33"/>
+      <c r="V110" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W110" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z110" s="34"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
@@ -7237,11 +7265,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -7264,17 +7292,17 @@
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
-      <c r="V111" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W111" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z111" s="33"/>
+      <c r="V111" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W111" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z111" s="34"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -7289,11 +7317,11 @@
         <v>29</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -7316,17 +7344,17 @@
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
-      <c r="V112" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="W112" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z112" s="33"/>
+      <c r="V112" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W112" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z112" s="34"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
@@ -7341,11 +7369,11 @@
         <v>29</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -7368,17 +7396,17 @@
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
-      <c r="V113" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="W113" s="27">
+      <c r="V113" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W113" s="28">
         <v>0.0</v>
       </c>
       <c r="X113" s="3"/>
-      <c r="Y113" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z113" s="33"/>
+      <c r="Y113" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z113" s="34"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -7393,11 +7421,11 @@
         <v>29</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -7420,17 +7448,17 @@
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
-      <c r="V114" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="W114" s="27">
+      <c r="V114" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W114" s="28">
         <v>0.0</v>
       </c>
       <c r="X114" s="3"/>
-      <c r="Y114" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z114" s="33"/>
+      <c r="Y114" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z114" s="34"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -7445,11 +7473,11 @@
         <v>29</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -7472,17 +7500,17 @@
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
-      <c r="V115" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="W115" s="27">
+      <c r="V115" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W115" s="28">
         <v>0.0</v>
       </c>
       <c r="X115" s="3"/>
-      <c r="Y115" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z115" s="33"/>
+      <c r="Y115" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z115" s="34"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -7497,11 +7525,11 @@
         <v>29</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -7524,17 +7552,17 @@
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
-      <c r="V116" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="W116" s="27">
+      <c r="V116" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W116" s="28">
         <v>0.0</v>
       </c>
       <c r="X116" s="3"/>
-      <c r="Y116" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z116" s="33"/>
+      <c r="Y116" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z116" s="34"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -7546,110 +7574,110 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
+        <v>213</v>
+      </c>
+      <c r="C117" s="36"/>
+      <c r="D117" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
       <c r="J117" s="18">
         <v>155.0</v>
       </c>
       <c r="K117" s="18">
         <v>100.0</v>
       </c>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="35"/>
-      <c r="O117" s="35"/>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="35"/>
-      <c r="T117" s="35"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="36"/>
+      <c r="R117" s="36"/>
+      <c r="S117" s="36"/>
+      <c r="T117" s="36"/>
       <c r="U117" s="22"/>
       <c r="V117" s="19"/>
       <c r="W117" s="19"/>
       <c r="X117" s="20"/>
       <c r="Y117" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z117" s="32"/>
-      <c r="AA117" s="35"/>
-      <c r="AB117" s="35"/>
-      <c r="AC117" s="35"/>
-      <c r="AD117" s="35"/>
-      <c r="AE117" s="35"/>
-      <c r="AF117" s="35"/>
-      <c r="AG117" s="35"/>
-      <c r="AH117" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="Z117" s="33"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="36"/>
+      <c r="AE117" s="36"/>
+      <c r="AF117" s="36"/>
+      <c r="AG117" s="36"/>
+      <c r="AH117" s="36"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B118" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
       <c r="J118" s="18">
         <v>155.0</v>
       </c>
       <c r="K118" s="18">
         <v>146.0</v>
       </c>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="35"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35"/>
-      <c r="S118" s="35"/>
-      <c r="T118" s="35"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="36"/>
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
       <c r="U118" s="22"/>
       <c r="V118" s="19"/>
       <c r="W118" s="19"/>
       <c r="X118" s="20"/>
       <c r="Y118" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z118" s="33"/>
-      <c r="AA118" s="35"/>
-      <c r="AB118" s="35"/>
-      <c r="AC118" s="35"/>
-      <c r="AD118" s="35"/>
-      <c r="AE118" s="35"/>
-      <c r="AF118" s="35"/>
-      <c r="AG118" s="35"/>
-      <c r="AH118" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="Z118" s="34"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="36" t="s">
-        <v>212</v>
+      <c r="D119" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -7676,9 +7704,9 @@
       <c r="W119" s="19"/>
       <c r="X119" s="20"/>
       <c r="Y119" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z119" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z119" s="34"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
@@ -7690,14 +7718,14 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="36" t="s">
-        <v>212</v>
+      <c r="D120" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -7724,9 +7752,9 @@
       <c r="W120" s="19"/>
       <c r="X120" s="20"/>
       <c r="Y120" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z120" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z120" s="34"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
@@ -7738,14 +7766,14 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="36" t="s">
-        <v>212</v>
+      <c r="D121" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -7772,9 +7800,9 @@
       <c r="W121" s="19"/>
       <c r="X121" s="20"/>
       <c r="Y121" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z121" s="32"/>
+        <v>215</v>
+      </c>
+      <c r="Z121" s="33"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
@@ -7786,14 +7814,14 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="36" t="s">
-        <v>212</v>
+      <c r="D122" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -7820,9 +7848,9 @@
       <c r="W122" s="19"/>
       <c r="X122" s="20"/>
       <c r="Y122" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z122" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z122" s="34"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
@@ -7834,14 +7862,14 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="36" t="s">
-        <v>212</v>
+      <c r="D123" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -7868,9 +7896,9 @@
       <c r="W123" s="19"/>
       <c r="X123" s="20"/>
       <c r="Y123" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z123" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z123" s="34"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
@@ -7882,14 +7910,14 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="36" t="s">
-        <v>212</v>
+      <c r="D124" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -7916,9 +7944,9 @@
       <c r="W124" s="19"/>
       <c r="X124" s="20"/>
       <c r="Y124" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z124" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z124" s="34"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
@@ -7930,14 +7958,14 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="36" t="s">
-        <v>212</v>
+      <c r="D125" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -7964,9 +7992,9 @@
       <c r="W125" s="19"/>
       <c r="X125" s="20"/>
       <c r="Y125" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z125" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z125" s="34"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
@@ -7978,14 +8006,14 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C126" s="5"/>
-      <c r="D126" s="36" t="s">
-        <v>212</v>
+      <c r="D126" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -8012,9 +8040,9 @@
       <c r="W126" s="19"/>
       <c r="X126" s="20"/>
       <c r="Y126" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z126" s="33"/>
+        <v>215</v>
+      </c>
+      <c r="Z126" s="34"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
@@ -8194,23 +8222,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="41"/>
     </row>
@@ -8237,17 +8265,17 @@
     </row>
     <row r="8">
       <c r="A8" s="39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B860A-A454-423E-A1F7-AAD97B71494E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0D771-3759-4876-93E9-8E7C4AA984B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="4755" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="4335" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0D771-3759-4876-93E9-8E7C4AA984B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A25402-B928-4621-B94B-E6BE6E5A0D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="4335" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7590" yWindow="4725" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="274">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH62_11</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -636,6 +639,9 @@
     <t>12LR</t>
   </si>
   <si>
+    <t>TH62_12</t>
+  </si>
+  <si>
     <t>-1,0,1</t>
   </si>
   <si>
@@ -654,7 +660,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>12R</t>
+    <t>高見沢上り場内12R</t>
   </si>
   <si>
     <t>0,1</t>
@@ -669,7 +675,7 @@
     <t>12L_G</t>
   </si>
   <si>
-    <t>12L</t>
+    <t>高見沢下り出発12L</t>
   </si>
   <si>
     <t>12LR_Label</t>
@@ -678,16 +684,19 @@
     <t>13LR</t>
   </si>
   <si>
+    <t>TH62_13</t>
+  </si>
+  <si>
     <t>13R_G</t>
   </si>
   <si>
-    <t>13R</t>
+    <t>高見沢上り場内13R</t>
   </si>
   <si>
     <t>13L_G</t>
   </si>
   <si>
-    <t>13L</t>
+    <t>高見沢下り出発13L</t>
   </si>
   <si>
     <t>13LR_Label</t>
@@ -696,16 +705,19 @@
     <t>14LR</t>
   </si>
   <si>
+    <t>TH62_14</t>
+  </si>
+  <si>
     <t>14R_G</t>
   </si>
   <si>
-    <t>14R</t>
+    <t>高見沢上り出発14R</t>
   </si>
   <si>
     <t>14L_G</t>
   </si>
   <si>
-    <t>14L</t>
+    <t>高見沢下り場内14L</t>
   </si>
   <si>
     <t>14LR_Label</t>
@@ -714,16 +726,19 @@
     <t>15LR</t>
   </si>
   <si>
+    <t>TH62_15</t>
+  </si>
+  <si>
     <t>15R_G</t>
   </si>
   <si>
-    <t>15R</t>
+    <t>高見沢上り出発15R</t>
   </si>
   <si>
     <t>15L_G</t>
   </si>
   <si>
-    <t>15L</t>
+    <t>高見沢下り場内15L</t>
   </si>
   <si>
     <t>15LR_Label</t>
@@ -732,6 +747,9 @@
     <t>16L</t>
   </si>
   <si>
+    <t>TH62_16</t>
+  </si>
+  <si>
     <t>16Lは方向てこ　白LR</t>
   </si>
   <si>
@@ -753,6 +771,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>TH62_21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -765,34 +789,52 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
+    <t>W21_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH62_W21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>TH62_22</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_PG</t>
-  </si>
-  <si>
-    <t>P22_PY</t>
-  </si>
-  <si>
-    <t>P22_Label</t>
+    <t>W22_PG</t>
+  </si>
+  <si>
+    <t>TH62_W22</t>
+  </si>
+  <si>
+    <t>W22_PY</t>
+  </si>
+  <si>
+    <t>W22_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -849,12 +891,18 @@
     <t>解放99_PY</t>
   </si>
   <si>
-    <t>TH63_21イT_P21イN_1</t>
+    <t>TH63_21イT_W21イN_1</t>
   </si>
   <si>
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>TH63_21イT</t>
+  </si>
+  <si>
+    <t>TH63_W21</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -864,7 +912,7 @@
     <t>0度※以下0度省略</t>
   </si>
   <si>
-    <t>TH63_21イT_P21イN_2</t>
+    <t>TH63_21イT_W21イN_2</t>
   </si>
   <si>
     <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
@@ -873,43 +921,58 @@
     <t>68度</t>
   </si>
   <si>
-    <t>TH63_21イT_P21イN_3</t>
-  </si>
-  <si>
-    <t>TH63_21イT_P21イR_1</t>
-  </si>
-  <si>
-    <t>TH63_21イT_P21イR_2</t>
-  </si>
-  <si>
-    <t>TH63_21ロT_P21ロN_1</t>
-  </si>
-  <si>
-    <t>TH63_21ロT_P21ロR_1</t>
-  </si>
-  <si>
-    <t>TH63_21ロT_P21ロR_2</t>
+    <t>TH63_21イT_W21イN_3</t>
+  </si>
+  <si>
+    <t>TH63_21イT_W21イR_1</t>
+  </si>
+  <si>
+    <t>TH63_21イT_W21イR_2</t>
+  </si>
+  <si>
+    <t>TH63_21ロT_W21ロN_1</t>
+  </si>
+  <si>
+    <t>TH63_21ロT</t>
+  </si>
+  <si>
+    <t>TH63_21ロT_W21ロR_1</t>
+  </si>
+  <si>
+    <t>TH63_21ロT_W21ロR_2</t>
   </si>
   <si>
     <t>TH63_12RT_1</t>
   </si>
   <si>
+    <t>TH62_12RT</t>
+  </si>
+  <si>
     <t>TH63_12RT_2</t>
   </si>
   <si>
     <t>TH63_15LT_1</t>
   </si>
   <si>
+    <t>TH63_15LT</t>
+  </si>
+  <si>
     <t>TH63_15LT_2</t>
   </si>
   <si>
-    <t>TH63_22イT_P22イN_1</t>
-  </si>
-  <si>
-    <t>TH63_22イT_P22イR_1</t>
-  </si>
-  <si>
-    <t>TH63_22イT_P22イR_2</t>
+    <t>TH63_22イT_W22イN_1</t>
+  </si>
+  <si>
+    <t>TH63_22イT</t>
+  </si>
+  <si>
+    <t>TH63_W22</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イR_1</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イR_2</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -918,27 +981,36 @@
     <t>112度</t>
   </si>
   <si>
-    <t>TH63_22ロT_P22ロN_1</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロN_2</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロR_1</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_P22ロR_2</t>
+    <t>TH63_22ロT_W22ロN_1</t>
+  </si>
+  <si>
+    <t>TH63_22ロT</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロN_2</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロR_1</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロR_2</t>
   </si>
   <si>
     <t>MT1T_1</t>
   </si>
   <si>
+    <t>MT1T</t>
+  </si>
+  <si>
     <t>MT1T_2</t>
   </si>
   <si>
     <t>MT2T_1</t>
   </si>
   <si>
+    <t>MT2T</t>
+  </si>
+  <si>
     <t>MT2T_2</t>
   </si>
   <si>
@@ -963,16 +1035,19 @@
     <t>Ar</t>
   </si>
   <si>
-    <t>TH62_21T_P21N_1</t>
-  </si>
-  <si>
-    <t>TH62_21T_P21N_2</t>
-  </si>
-  <si>
-    <t>TH62_21T_P21R_1</t>
-  </si>
-  <si>
-    <t>TH62_21T_P21R_2</t>
+    <t>TH62_21T_W21N_1</t>
+  </si>
+  <si>
+    <t>TH62_21T</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21R_2</t>
   </si>
   <si>
     <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
@@ -984,12 +1059,18 @@
     <t>TH62_12LT_1</t>
   </si>
   <si>
+    <t>TH62_12LT</t>
+  </si>
+  <si>
     <t>TH62_12LT_2</t>
   </si>
   <si>
     <t>TH62_13LT_1</t>
   </si>
   <si>
+    <t>TH62_13LT</t>
+  </si>
+  <si>
     <t>TH62_13LT_2</t>
   </si>
   <si>
@@ -1002,28 +1083,40 @@
     <t>TH62_15LT_1</t>
   </si>
   <si>
+    <t>TH62_15LT</t>
+  </si>
+  <si>
     <t>TH62_15LT_2</t>
   </si>
   <si>
     <t>TH62_14RT_1</t>
   </si>
   <si>
+    <t>TH62_14RT</t>
+  </si>
+  <si>
     <t>TH62_14RT_2</t>
   </si>
   <si>
     <t>TH62_15RT_1</t>
   </si>
   <si>
+    <t>TH62_15RT</t>
+  </si>
+  <si>
     <t>TH62_15RT_2</t>
   </si>
   <si>
-    <t>TH62_22T_P22N_1</t>
-  </si>
-  <si>
-    <t>TH62_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH62_22T_P22R_1</t>
+    <t>TH62_22T_W22N_1</t>
+  </si>
+  <si>
+    <t>TH62_22T</t>
+  </si>
+  <si>
+    <t>TH62_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH62_22T_W22R_1</t>
   </si>
   <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
@@ -1032,12 +1125,15 @@
     <t>45度</t>
   </si>
   <si>
-    <t>TH62_22T_P22R_2</t>
+    <t>TH62_22T_W22R_2</t>
   </si>
   <si>
     <t>TH1T_1</t>
   </si>
   <si>
+    <t>TH1T</t>
+  </si>
+  <si>
     <t>TH1T_2</t>
   </si>
   <si>
@@ -1050,63 +1146,90 @@
     <t>TH2T_1</t>
   </si>
   <si>
+    <t>TH2T</t>
+  </si>
+  <si>
     <t>TH2T_2</t>
   </si>
   <si>
-    <t>TH61_1RT_1</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イN_1</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イN_2</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イR_1</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イR_2</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロN_1</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロN_2</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロR_1</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロR_2</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロR_3</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22N_1</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_1</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_2</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_3</t>
+    <t>TH61_2RT_1</t>
+  </si>
+  <si>
+    <t>TH61_2RT</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イN_1</t>
+  </si>
+  <si>
+    <t>TH61_21イT</t>
+  </si>
+  <si>
+    <t>TH61_W21</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イN_2</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イR_1</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イR_2</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロN_1</t>
+  </si>
+  <si>
+    <t>TH61_21ロT</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロN_2</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロR_1</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロR_2</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロR_3</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22N_1</t>
+  </si>
+  <si>
+    <t>TH61_22T</t>
+  </si>
+  <si>
+    <t>TH61_W22</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_1</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_2</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_3</t>
   </si>
   <si>
     <t>TH61_2RAT_1</t>
   </si>
   <si>
+    <t>TH61_2RAT</t>
+  </si>
+  <si>
     <t>TH61_2RAT_2</t>
   </si>
   <si>
     <t>TH61_6LT_1</t>
   </si>
   <si>
+    <t>TH61_6LT</t>
+  </si>
+  <si>
     <t>TH61_6LT_2</t>
   </si>
   <si>
@@ -1170,16 +1293,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>C</t>
@@ -1569,7 +1686,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1887,7 +2006,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="12"/>
@@ -1913,19 +2034,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="12">
         <v>-1</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -1938,10 +2059,10 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>41</v>
@@ -1976,10 +2097,10 @@
         <v>10</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>41</v>
@@ -2003,13 +2124,15 @@
         <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2032,22 +2155,22 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="12">
         <v>0</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -2063,14 +2186,14 @@
         <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2095,17 +2218,17 @@
       <c r="V9" s="4"/>
       <c r="W9" s="15"/>
       <c r="X9" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="12">
         <v>0</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -2121,14 +2244,14 @@
         <v>31</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2153,14 +2276,14 @@
       <c r="V10" s="4"/>
       <c r="W10" s="15"/>
       <c r="X10" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="12">
         <v>0</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="7"/>
@@ -2174,13 +2297,13 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2212,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
@@ -2239,13 +2362,15 @@
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2268,19 +2393,19 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="12">
         <v>0</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="7"/>
@@ -2297,14 +2422,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2329,14 +2454,14 @@
       <c r="V13" s="4"/>
       <c r="W13" s="15"/>
       <c r="X13" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="12">
         <v>0</v>
       </c>
       <c r="Z13" s="13"/>
       <c r="AA13" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="7"/>
@@ -2353,14 +2478,14 @@
         <v>31</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2385,14 +2510,14 @@
       <c r="V14" s="4"/>
       <c r="W14" s="15"/>
       <c r="X14" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y14" s="12">
         <v>0</v>
       </c>
       <c r="Z14" s="13"/>
       <c r="AA14" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="7"/>
@@ -2406,13 +2531,13 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2444,13 +2569,13 @@
         <v>10</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
@@ -2471,13 +2596,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2500,19 +2627,19 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="12">
         <v>0</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="7"/>
@@ -2529,14 +2656,14 @@
         <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2561,14 +2688,14 @@
       <c r="V17" s="4"/>
       <c r="W17" s="11"/>
       <c r="X17" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="12">
         <v>0</v>
       </c>
       <c r="Z17" s="13"/>
       <c r="AA17" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="7"/>
@@ -2585,14 +2712,14 @@
         <v>31</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2617,14 +2744,14 @@
       <c r="V18" s="4"/>
       <c r="W18" s="11"/>
       <c r="X18" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y18" s="12">
         <v>0</v>
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="7"/>
@@ -2638,13 +2765,13 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2676,13 +2803,13 @@
         <v>10</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -2703,13 +2830,15 @@
         <v>40</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2732,19 +2861,19 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y20" s="12">
         <v>0</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="7"/>
@@ -2761,14 +2890,14 @@
         <v>31</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2793,14 +2922,14 @@
       <c r="V21" s="4"/>
       <c r="W21" s="15"/>
       <c r="X21" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="12">
         <v>0</v>
       </c>
       <c r="Z21" s="13"/>
       <c r="AA21" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="7"/>
@@ -2817,14 +2946,14 @@
         <v>31</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2849,14 +2978,14 @@
       <c r="V22" s="4"/>
       <c r="W22" s="15"/>
       <c r="X22" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="12">
         <v>0</v>
       </c>
       <c r="Z22" s="13"/>
       <c r="AA22" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="7"/>
@@ -2870,13 +2999,13 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2908,13 +3037,13 @@
         <v>10</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -2935,13 +3064,15 @@
         <v>40</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="12"/>
@@ -2964,22 +3095,22 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y24" s="12">
         <v>-1</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA24" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
@@ -2992,13 +3123,13 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3030,13 +3161,13 @@
         <v>10</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -3054,10 +3185,10 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3084,19 +3215,19 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y26" s="12">
         <v>0</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AA26" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="7"/>
@@ -3110,10 +3241,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3140,19 +3271,19 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y27" s="12">
         <v>0</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AA27" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="7"/>
@@ -3169,13 +3300,15 @@
         <v>40</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3198,22 +3331,22 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y28" s="12">
         <v>0</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA28" s="14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
@@ -3229,15 +3362,19 @@
         <v>31</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="11"/>
@@ -3259,14 +3396,14 @@
       <c r="V29" s="4"/>
       <c r="W29" s="11"/>
       <c r="X29" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y29" s="12">
         <v>0</v>
       </c>
       <c r="Z29" s="13"/>
       <c r="AA29" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="7"/>
@@ -3283,15 +3420,19 @@
         <v>31</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="11"/>
@@ -3313,14 +3454,14 @@
       <c r="V30" s="4"/>
       <c r="W30" s="11"/>
       <c r="X30" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y30" s="12">
         <v>0</v>
       </c>
       <c r="Z30" s="13"/>
       <c r="AA30" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="7"/>
@@ -3334,13 +3475,13 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3372,13 +3513,13 @@
         <v>10</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -3399,13 +3540,15 @@
         <v>40</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3428,19 +3571,19 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="X32" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA32" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="7"/>
@@ -3457,15 +3600,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -3487,14 +3634,14 @@
       <c r="V33" s="4"/>
       <c r="W33" s="15"/>
       <c r="X33" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y33" s="12">
         <v>0</v>
       </c>
       <c r="Z33" s="13"/>
       <c r="AA33" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="7"/>
@@ -3511,15 +3658,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="11"/>
@@ -3541,14 +3692,14 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="12">
         <v>0</v>
       </c>
       <c r="Z34" s="13"/>
       <c r="AA34" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="7"/>
@@ -3562,13 +3713,13 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3600,13 +3751,13 @@
         <v>10</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W35" s="12" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -3624,14 +3775,14 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="16" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3656,22 +3807,22 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="11" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="Y36" s="12">
         <v>0</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
@@ -3687,11 +3838,11 @@
         <v>31</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3717,14 +3868,14 @@
       <c r="V37" s="4"/>
       <c r="W37" s="15"/>
       <c r="X37" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="12">
         <v>0</v>
       </c>
       <c r="Z37" s="13"/>
       <c r="AA37" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="7"/>
@@ -3738,14 +3889,14 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="16" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3770,22 +3921,22 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="11" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="X38" s="12" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="Y38" s="12">
         <v>1</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA38" s="14" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
@@ -3801,11 +3952,11 @@
         <v>31</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="16" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3831,14 +3982,14 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y39" s="12">
         <v>0</v>
       </c>
       <c r="Z39" s="13"/>
       <c r="AA39" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="7"/>
@@ -3855,11 +4006,11 @@
         <v>31</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="16" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3885,14 +4036,14 @@
       <c r="V40" s="4"/>
       <c r="W40" s="15"/>
       <c r="X40" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y40" s="12">
         <v>0</v>
       </c>
       <c r="Z40" s="13"/>
       <c r="AA40" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="7"/>
@@ -3906,14 +4057,14 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="16" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3938,22 +4089,22 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="AA41" s="14" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
@@ -3969,11 +4120,11 @@
         <v>31</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3999,14 +4150,14 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y42" s="12">
         <v>0</v>
       </c>
       <c r="Z42" s="13"/>
       <c r="AA42" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="7"/>
@@ -4023,15 +4174,21 @@
         <v>31</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="11"/>
@@ -4053,17 +4210,17 @@
       <c r="V43" s="4"/>
       <c r="W43" s="15"/>
       <c r="X43" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y43" s="18">
         <v>0</v>
       </c>
       <c r="Z43" s="19"/>
       <c r="AA43" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
@@ -4079,15 +4236,21 @@
         <v>31</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="11"/>
@@ -4109,17 +4272,17 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y44" s="18">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
@@ -4135,15 +4298,21 @@
         <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="11"/>
@@ -4165,14 +4334,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y45" s="18">
         <v>0</v>
       </c>
       <c r="Z45" s="19"/>
       <c r="AA45" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="7"/>
@@ -4189,15 +4358,21 @@
         <v>31</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="11"/>
@@ -4219,14 +4394,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y46" s="18">
         <v>0</v>
       </c>
       <c r="Z46" s="19"/>
       <c r="AA46" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="7"/>
@@ -4243,15 +4418,21 @@
         <v>31</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="11"/>
@@ -4273,14 +4454,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="15"/>
       <c r="X47" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y47" s="18">
         <v>0</v>
       </c>
       <c r="Z47" s="19"/>
       <c r="AA47" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="7"/>
@@ -4297,15 +4478,21 @@
         <v>31</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="11"/>
@@ -4327,14 +4514,14 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y48" s="18">
         <v>0</v>
       </c>
       <c r="Z48" s="19"/>
       <c r="AA48" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="7"/>
@@ -4351,15 +4538,21 @@
         <v>31</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="11"/>
@@ -4381,14 +4574,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y49" s="18">
         <v>0</v>
       </c>
       <c r="Z49" s="19"/>
       <c r="AA49" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="7"/>
@@ -4405,15 +4598,21 @@
         <v>31</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="11"/>
@@ -4435,14 +4634,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="15"/>
       <c r="X50" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y50" s="18">
         <v>0</v>
       </c>
       <c r="Z50" s="19"/>
       <c r="AA50" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="7"/>
@@ -4459,13 +4658,15 @@
         <v>31</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -4489,14 +4690,14 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y51" s="18">
         <v>0</v>
       </c>
       <c r="Z51" s="19"/>
       <c r="AA51" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB51" s="6"/>
       <c r="AC51" s="7"/>
@@ -4513,13 +4714,15 @@
         <v>31</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4543,14 +4746,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y52" s="18">
         <v>0</v>
       </c>
       <c r="Z52" s="19"/>
       <c r="AA52" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB52" s="6"/>
       <c r="AC52" s="7"/>
@@ -4567,13 +4770,15 @@
         <v>31</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4597,14 +4802,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="15"/>
       <c r="X53" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y53" s="18">
         <v>0</v>
       </c>
       <c r="Z53" s="19"/>
       <c r="AA53" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB53" s="6"/>
       <c r="AC53" s="7"/>
@@ -4621,13 +4826,15 @@
         <v>31</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4651,14 +4858,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y54" s="18">
         <v>0</v>
       </c>
       <c r="Z54" s="19"/>
       <c r="AA54" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="7"/>
@@ -4675,15 +4882,21 @@
         <v>31</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="11"/>
@@ -4705,14 +4918,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="15"/>
       <c r="X55" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y55" s="18">
         <v>0</v>
       </c>
       <c r="Z55" s="19"/>
       <c r="AA55" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB55" s="6"/>
       <c r="AC55" s="7"/>
@@ -4729,15 +4942,21 @@
         <v>31</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="11"/>
@@ -4759,14 +4978,14 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y56" s="18">
         <v>0</v>
       </c>
       <c r="Z56" s="19"/>
       <c r="AA56" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB56" s="6"/>
       <c r="AC56" s="7"/>
@@ -4783,15 +5002,21 @@
         <v>31</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="11"/>
@@ -4813,17 +5038,17 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y57" s="18">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="21" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
@@ -4839,15 +5064,21 @@
         <v>31</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="11"/>
@@ -4869,14 +5100,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y58" s="18">
         <v>0</v>
       </c>
       <c r="Z58" s="19"/>
       <c r="AA58" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB58" s="6"/>
       <c r="AC58" s="7"/>
@@ -4893,15 +5124,21 @@
         <v>31</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="11"/>
@@ -4923,14 +5160,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y59" s="18">
         <v>0</v>
       </c>
       <c r="Z59" s="19"/>
       <c r="AA59" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB59" s="6"/>
       <c r="AC59" s="7"/>
@@ -4947,15 +5184,21 @@
         <v>31</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="11"/>
@@ -4977,17 +5220,17 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y60" s="18">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="21" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
@@ -5003,15 +5246,21 @@
         <v>31</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="11"/>
@@ -5033,14 +5282,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y61" s="18">
         <v>0</v>
       </c>
       <c r="Z61" s="19"/>
       <c r="AA61" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB61" s="6"/>
       <c r="AC61" s="7"/>
@@ -5057,13 +5306,15 @@
         <v>31</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -5087,14 +5338,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y62" s="18">
         <v>0</v>
       </c>
       <c r="Z62" s="19"/>
       <c r="AA62" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB62" s="6"/>
       <c r="AC62" s="7"/>
@@ -5111,13 +5362,15 @@
         <v>31</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5141,14 +5394,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y63" s="18">
         <v>0</v>
       </c>
       <c r="Z63" s="19"/>
       <c r="AA63" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB63" s="6"/>
       <c r="AC63" s="7"/>
@@ -5165,13 +5418,15 @@
         <v>31</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -5195,14 +5450,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y64" s="18">
         <v>0</v>
       </c>
       <c r="Z64" s="19"/>
       <c r="AA64" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB64" s="6"/>
       <c r="AC64" s="7"/>
@@ -5219,13 +5474,15 @@
         <v>31</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5249,14 +5506,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y65" s="18">
         <v>0</v>
       </c>
       <c r="Z65" s="19"/>
       <c r="AA65" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB65" s="6"/>
       <c r="AC65" s="7"/>
@@ -5273,13 +5530,15 @@
         <v>31</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5303,17 +5562,17 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y66" s="18">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="21" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB66" s="14" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
@@ -5329,13 +5588,15 @@
         <v>31</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5359,17 +5620,17 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y67" s="18">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="21" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="AB67" s="14" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
@@ -5385,15 +5646,21 @@
         <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="11"/>
@@ -5415,14 +5682,14 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y68" s="18">
         <v>0</v>
       </c>
       <c r="Z68" s="19"/>
       <c r="AA68" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB68" s="22"/>
       <c r="AC68" s="7"/>
@@ -5439,15 +5706,21 @@
         <v>31</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="11"/>
@@ -5469,14 +5742,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y69" s="18">
         <v>0</v>
       </c>
       <c r="Z69" s="19"/>
       <c r="AA69" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB69" s="22"/>
       <c r="AC69" s="7"/>
@@ -5493,15 +5766,21 @@
         <v>31</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="11"/>
@@ -5523,14 +5802,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y70" s="18">
         <v>0</v>
       </c>
       <c r="Z70" s="19"/>
       <c r="AA70" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB70" s="22"/>
       <c r="AC70" s="7"/>
@@ -5547,15 +5826,21 @@
         <v>31</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="11"/>
@@ -5577,17 +5862,17 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y71" s="18">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="21" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB71" s="23" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -5603,13 +5888,15 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -5633,14 +5920,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y72" s="18">
         <v>0</v>
       </c>
       <c r="Z72" s="19"/>
       <c r="AA72" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB72" s="22"/>
       <c r="AC72" s="7"/>
@@ -5657,13 +5944,15 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -5687,14 +5976,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y73" s="18">
         <v>0</v>
       </c>
       <c r="Z73" s="19"/>
       <c r="AA73" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB73" s="22"/>
       <c r="AC73" s="7"/>
@@ -5711,13 +6000,15 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -5741,14 +6032,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y74" s="18">
         <v>0</v>
       </c>
       <c r="Z74" s="19"/>
       <c r="AA74" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="7"/>
@@ -5765,13 +6056,15 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -5795,14 +6088,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y75" s="18">
         <v>0</v>
       </c>
       <c r="Z75" s="19"/>
       <c r="AA75" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB75" s="22"/>
       <c r="AC75" s="7"/>
@@ -5819,13 +6112,15 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -5849,14 +6144,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y76" s="18">
         <v>0</v>
       </c>
       <c r="Z76" s="19"/>
       <c r="AA76" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB76" s="22"/>
       <c r="AC76" s="7"/>
@@ -5873,13 +6168,15 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -5903,14 +6200,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y77" s="18">
         <v>0</v>
       </c>
       <c r="Z77" s="19"/>
       <c r="AA77" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB77" s="22"/>
       <c r="AC77" s="7"/>
@@ -5927,13 +6224,15 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -5957,14 +6256,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y78" s="18">
         <v>0</v>
       </c>
       <c r="Z78" s="19"/>
       <c r="AA78" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB78" s="22"/>
       <c r="AC78" s="7"/>
@@ -5981,13 +6280,15 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6011,14 +6312,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y79" s="18">
         <v>0</v>
       </c>
       <c r="Z79" s="19"/>
       <c r="AA79" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB79" s="22"/>
       <c r="AC79" s="7"/>
@@ -6035,13 +6336,15 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -6065,14 +6368,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y80" s="18">
         <v>0</v>
       </c>
       <c r="Z80" s="19"/>
       <c r="AA80" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB80" s="22"/>
       <c r="AC80" s="7"/>
@@ -6089,13 +6392,15 @@
         <v>31</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -6119,14 +6424,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y81" s="18">
         <v>0</v>
       </c>
       <c r="Z81" s="19"/>
       <c r="AA81" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB81" s="22"/>
       <c r="AC81" s="7"/>
@@ -6143,13 +6448,15 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -6173,14 +6480,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y82" s="18">
         <v>0</v>
       </c>
       <c r="Z82" s="19"/>
       <c r="AA82" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB82" s="22"/>
       <c r="AC82" s="7"/>
@@ -6197,13 +6504,15 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -6227,14 +6536,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y83" s="18">
         <v>0</v>
       </c>
       <c r="Z83" s="19"/>
       <c r="AA83" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB83" s="22"/>
       <c r="AC83" s="7"/>
@@ -6251,15 +6560,21 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="11"/>
@@ -6281,14 +6596,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y84" s="18">
         <v>0</v>
       </c>
       <c r="Z84" s="19"/>
       <c r="AA84" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB84" s="22"/>
       <c r="AC84" s="7"/>
@@ -6305,15 +6620,21 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="11"/>
@@ -6335,14 +6656,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y85" s="18">
         <v>0</v>
       </c>
       <c r="Z85" s="19"/>
       <c r="AA85" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB85" s="22"/>
       <c r="AC85" s="7"/>
@@ -6359,15 +6680,21 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="11"/>
@@ -6389,17 +6716,17 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y86" s="18">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="21" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AB86" s="23" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
@@ -6415,15 +6742,21 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="11"/>
@@ -6445,14 +6778,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y87" s="18">
         <v>0</v>
       </c>
       <c r="Z87" s="19"/>
       <c r="AA87" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB87" s="22"/>
       <c r="AC87" s="7"/>
@@ -6469,13 +6802,15 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -6499,14 +6834,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y88" s="18">
         <v>0</v>
       </c>
       <c r="Z88" s="19"/>
       <c r="AA88" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB88" s="22"/>
       <c r="AC88" s="7"/>
@@ -6523,13 +6858,15 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -6553,14 +6890,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y89" s="18">
         <v>0</v>
       </c>
       <c r="Z89" s="19"/>
       <c r="AA89" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB89" s="22"/>
       <c r="AC89" s="7"/>
@@ -6577,13 +6914,15 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -6607,17 +6946,17 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y90" s="18">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="21" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
@@ -6633,13 +6972,15 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6663,17 +7004,17 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y91" s="18">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="21" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
@@ -6689,13 +7030,15 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E92" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -6719,14 +7062,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y92" s="18">
         <v>0</v>
       </c>
       <c r="Z92" s="19"/>
       <c r="AA92" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB92" s="22"/>
       <c r="AC92" s="7"/>
@@ -6743,13 +7086,15 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -6773,14 +7118,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y93" s="18">
         <v>0</v>
       </c>
       <c r="Z93" s="19"/>
       <c r="AA93" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB93" s="22"/>
       <c r="AC93" s="7"/>
@@ -6797,13 +7142,15 @@
         <v>31</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -6827,14 +7174,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y94" s="18">
         <v>0</v>
       </c>
       <c r="Z94" s="19"/>
       <c r="AA94" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB94" s="22"/>
       <c r="AC94" s="7"/>
@@ -6851,15 +7198,21 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="11"/>
@@ -6881,14 +7234,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y95" s="18">
         <v>0</v>
       </c>
       <c r="Z95" s="19"/>
       <c r="AA95" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB95" s="22"/>
       <c r="AC95" s="7"/>
@@ -6905,15 +7258,21 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="11"/>
@@ -6935,14 +7294,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y96" s="18">
         <v>0</v>
       </c>
       <c r="Z96" s="19"/>
       <c r="AA96" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB96" s="22"/>
       <c r="AC96" s="7"/>
@@ -6959,15 +7318,21 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="11"/>
@@ -6989,14 +7354,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y97" s="18">
         <v>0</v>
       </c>
       <c r="Z97" s="19"/>
       <c r="AA97" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB97" s="22"/>
       <c r="AC97" s="7"/>
@@ -7013,15 +7378,21 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="11"/>
@@ -7043,17 +7414,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y98" s="18">
         <v>0</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="21" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="AB98" s="23" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
@@ -7069,15 +7440,21 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="11"/>
@@ -7099,14 +7476,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y99" s="18">
         <v>0</v>
       </c>
       <c r="Z99" s="19"/>
       <c r="AA99" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB99" s="22"/>
       <c r="AC99" s="7"/>
@@ -7123,15 +7500,21 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="11"/>
@@ -7153,14 +7536,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y100" s="18">
         <v>0</v>
       </c>
       <c r="Z100" s="19"/>
       <c r="AA100" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB100" s="22"/>
       <c r="AC100" s="7"/>
@@ -7177,15 +7560,21 @@
         <v>31</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="11"/>
@@ -7207,17 +7596,17 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y101" s="18">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="21" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="AB101" s="23" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
@@ -7233,15 +7622,21 @@
         <v>31</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="11"/>
@@ -7263,14 +7658,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y102" s="18">
         <v>0</v>
       </c>
       <c r="Z102" s="19"/>
       <c r="AA102" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB102" s="22"/>
       <c r="AC102" s="7"/>
@@ -7287,15 +7682,21 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="11"/>
@@ -7317,14 +7718,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y103" s="18">
         <v>0</v>
       </c>
       <c r="Z103" s="19"/>
       <c r="AA103" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB103" s="22"/>
       <c r="AC103" s="7"/>
@@ -7341,15 +7742,21 @@
         <v>31</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="11"/>
@@ -7371,14 +7778,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y104" s="18">
         <v>0</v>
       </c>
       <c r="Z104" s="19"/>
       <c r="AA104" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB104" s="22"/>
       <c r="AC104" s="7"/>
@@ -7395,15 +7802,21 @@
         <v>31</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="11"/>
@@ -7425,14 +7838,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y105" s="18">
         <v>0</v>
       </c>
       <c r="Z105" s="19"/>
       <c r="AA105" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB105" s="22"/>
       <c r="AC105" s="7"/>
@@ -7449,15 +7862,21 @@
         <v>31</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="11"/>
@@ -7479,14 +7898,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y106" s="18">
         <v>0</v>
       </c>
       <c r="Z106" s="19"/>
       <c r="AA106" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB106" s="22"/>
       <c r="AC106" s="7"/>
@@ -7503,15 +7922,21 @@
         <v>31</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="11"/>
@@ -7533,17 +7958,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y107" s="18">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AB107" s="23" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="AC107" s="7"/>
       <c r="AD107" s="7"/>
@@ -7559,15 +7984,21 @@
         <v>31</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="11"/>
@@ -7589,14 +8020,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y108" s="18">
         <v>0</v>
       </c>
       <c r="Z108" s="19"/>
       <c r="AA108" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB108" s="22"/>
       <c r="AC108" s="7"/>
@@ -7613,13 +8044,15 @@
         <v>31</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -7643,14 +8076,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y109" s="18">
         <v>0</v>
       </c>
       <c r="Z109" s="19"/>
       <c r="AA109" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB109" s="22"/>
       <c r="AC109" s="7"/>
@@ -7667,13 +8100,15 @@
         <v>31</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -7697,14 +8132,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y110" s="18">
         <v>0</v>
       </c>
       <c r="Z110" s="19"/>
       <c r="AA110" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB110" s="22"/>
       <c r="AC110" s="7"/>
@@ -7721,13 +8156,15 @@
         <v>31</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -7751,14 +8188,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y111" s="18">
         <v>0</v>
       </c>
       <c r="Z111" s="19"/>
       <c r="AA111" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB111" s="22"/>
       <c r="AC111" s="7"/>
@@ -7775,13 +8212,15 @@
         <v>31</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -7805,14 +8244,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="18" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Y112" s="18">
         <v>0</v>
       </c>
       <c r="Z112" s="19"/>
       <c r="AA112" s="20" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="AB112" s="22"/>
       <c r="AC112" s="7"/>
@@ -7829,11 +8268,11 @@
         <v>31</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7859,14 +8298,14 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y113" s="18">
         <v>0</v>
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="21" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AB113" s="22"/>
       <c r="AC113" s="7"/>
@@ -7883,11 +8322,11 @@
         <v>31</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7913,14 +8352,14 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y114" s="18">
         <v>0</v>
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="21" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AB114" s="22"/>
       <c r="AC114" s="7"/>
@@ -7937,11 +8376,11 @@
         <v>31</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7967,14 +8406,14 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y115" s="18">
         <v>0</v>
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="21" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AB115" s="22"/>
       <c r="AC115" s="7"/>
@@ -7991,11 +8430,11 @@
         <v>31</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -8021,14 +8460,14 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y116" s="18">
         <v>0</v>
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="21" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AB116" s="22"/>
       <c r="AC116" s="7"/>
@@ -8042,14 +8481,14 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -8078,7 +8517,7 @@
       <c r="Y117" s="12"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB117" s="22"/>
       <c r="AC117" s="4"/>
@@ -8092,14 +8531,14 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -8128,7 +8567,7 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB118" s="22"/>
       <c r="AC118" s="4"/>
@@ -8142,14 +8581,14 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -8178,7 +8617,7 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB119" s="22"/>
       <c r="AC119" s="7"/>
@@ -8192,14 +8631,14 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -8228,7 +8667,7 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB120" s="22"/>
       <c r="AC120" s="7"/>
@@ -8242,14 +8681,14 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -8278,7 +8717,7 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB121" s="22"/>
       <c r="AC121" s="7"/>
@@ -8292,14 +8731,14 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -8328,7 +8767,7 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB122" s="22"/>
       <c r="AC122" s="7"/>
@@ -8342,14 +8781,14 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -8378,7 +8817,7 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB123" s="22"/>
       <c r="AC123" s="7"/>
@@ -8392,14 +8831,14 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -8428,7 +8867,7 @@
       <c r="Y124" s="12"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB124" s="22"/>
       <c r="AC124" s="7"/>
@@ -8442,14 +8881,14 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -8478,7 +8917,7 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB125" s="22"/>
       <c r="AC125" s="7"/>
@@ -8492,14 +8931,14 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="16" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -8528,7 +8967,7 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="24" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="AB126" s="22"/>
       <c r="AC126" s="7"/>
@@ -8736,35 +9175,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8797,21 +9236,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="18" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A25402-B928-4621-B94B-E6BE6E5A0D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF1810-4133-4B73-9DD7-EA0622B75D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="4725" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="4320" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="291">
   <si>
     <t>Type</t>
   </si>
@@ -846,6 +846,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH62_98</t>
+  </si>
+  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -867,6 +870,9 @@
     <t>駅扱切換</t>
   </si>
   <si>
+    <t>TH62_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -888,6 +894,9 @@
     <t>解放99</t>
   </si>
   <si>
+    <t>TH62_99</t>
+  </si>
+  <si>
     <t>解放99_PY</t>
   </si>
   <si>
@@ -1239,18 +1248,30 @@
     <t>状態表示灯</t>
   </si>
   <si>
+    <t>TH62_PWR-FAILURE</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH62_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH62_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH62_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1260,34 +1281,64 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH63_TTC_Track1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番水越2番線</t>
   </si>
   <si>
+    <t>TH63_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番高見沢上り第2接近</t>
   </si>
   <si>
+    <t>TH62_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番高見沢上り第1接近</t>
   </si>
   <si>
+    <t>TH62_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番高見沢1番線</t>
   </si>
   <si>
+    <t>TH62_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番高見沢2番線</t>
   </si>
   <si>
+    <t>TH62_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番高見沢下り第1接近</t>
   </si>
   <si>
+    <t>TH62_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番高見沢下り第2接近</t>
   </si>
   <si>
+    <t>TH62_TTC_Down2</t>
+  </si>
+  <si>
     <t>列番日野森1番線</t>
   </si>
   <si>
+    <t>TH61_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番日野森3番線</t>
+  </si>
+  <si>
+    <t>TH61_TTC_Track3</t>
   </si>
   <si>
     <t>Button</t>
@@ -3784,7 +3835,9 @@
       <c r="D36" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="12"/>
@@ -3810,19 +3863,19 @@
         <v>120</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y36" s="12">
         <v>0</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
@@ -3838,13 +3891,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="17"/>
@@ -3892,13 +3947,15 @@
         <v>119</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="12"/>
@@ -3921,10 +3978,10 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X38" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y38" s="12">
         <v>1</v>
@@ -3933,10 +3990,10 @@
         <v>45</v>
       </c>
       <c r="AA38" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
@@ -3952,13 +4009,15 @@
         <v>31</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="17"/>
@@ -4006,13 +4065,15 @@
         <v>31</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="17"/>
@@ -4060,13 +4121,15 @@
         <v>119</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="12"/>
@@ -4089,22 +4152,22 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y41" s="12">
         <v>0</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA41" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
@@ -4120,13 +4183,15 @@
         <v>31</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -4174,17 +4239,17 @@
         <v>31</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>106</v>
@@ -4210,17 +4275,17 @@
       <c r="V43" s="4"/>
       <c r="W43" s="15"/>
       <c r="X43" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y43" s="18">
         <v>0</v>
       </c>
       <c r="Z43" s="19"/>
       <c r="AA43" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
@@ -4236,17 +4301,17 @@
         <v>31</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>106</v>
@@ -4272,17 +4337,17 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y44" s="18">
         <v>0</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
@@ -4298,17 +4363,17 @@
         <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>106</v>
@@ -4334,14 +4399,14 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y45" s="18">
         <v>0</v>
       </c>
       <c r="Z45" s="19"/>
       <c r="AA45" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="7"/>
@@ -4358,17 +4423,17 @@
         <v>31</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>109</v>
@@ -4394,14 +4459,14 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y46" s="18">
         <v>0</v>
       </c>
       <c r="Z46" s="19"/>
       <c r="AA46" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="7"/>
@@ -4418,17 +4483,17 @@
         <v>31</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>109</v>
@@ -4454,14 +4519,14 @@
       <c r="V47" s="4"/>
       <c r="W47" s="15"/>
       <c r="X47" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y47" s="18">
         <v>0</v>
       </c>
       <c r="Z47" s="19"/>
       <c r="AA47" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="7"/>
@@ -4478,17 +4543,17 @@
         <v>31</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>106</v>
@@ -4514,14 +4579,14 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y48" s="18">
         <v>0</v>
       </c>
       <c r="Z48" s="19"/>
       <c r="AA48" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="7"/>
@@ -4538,17 +4603,17 @@
         <v>31</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>109</v>
@@ -4574,14 +4639,14 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y49" s="18">
         <v>0</v>
       </c>
       <c r="Z49" s="19"/>
       <c r="AA49" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="7"/>
@@ -4598,17 +4663,17 @@
         <v>31</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>109</v>
@@ -4634,14 +4699,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="15"/>
       <c r="X50" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y50" s="18">
         <v>0</v>
       </c>
       <c r="Z50" s="19"/>
       <c r="AA50" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="7"/>
@@ -4658,14 +4723,14 @@
         <v>31</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -4690,14 +4755,14 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y51" s="18">
         <v>0</v>
       </c>
       <c r="Z51" s="19"/>
       <c r="AA51" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB51" s="6"/>
       <c r="AC51" s="7"/>
@@ -4714,14 +4779,14 @@
         <v>31</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -4746,14 +4811,14 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y52" s="18">
         <v>0</v>
       </c>
       <c r="Z52" s="19"/>
       <c r="AA52" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB52" s="6"/>
       <c r="AC52" s="7"/>
@@ -4770,14 +4835,14 @@
         <v>31</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4802,14 +4867,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="15"/>
       <c r="X53" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y53" s="18">
         <v>0</v>
       </c>
       <c r="Z53" s="19"/>
       <c r="AA53" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB53" s="6"/>
       <c r="AC53" s="7"/>
@@ -4826,14 +4891,14 @@
         <v>31</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -4858,14 +4923,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y54" s="18">
         <v>0</v>
       </c>
       <c r="Z54" s="19"/>
       <c r="AA54" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="7"/>
@@ -4882,17 +4947,17 @@
         <v>31</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>106</v>
@@ -4918,14 +4983,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="15"/>
       <c r="X55" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y55" s="18">
         <v>0</v>
       </c>
       <c r="Z55" s="19"/>
       <c r="AA55" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB55" s="6"/>
       <c r="AC55" s="7"/>
@@ -4942,17 +5007,17 @@
         <v>31</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>109</v>
@@ -4978,14 +5043,14 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y56" s="18">
         <v>0</v>
       </c>
       <c r="Z56" s="19"/>
       <c r="AA56" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB56" s="6"/>
       <c r="AC56" s="7"/>
@@ -5002,17 +5067,17 @@
         <v>31</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>109</v>
@@ -5038,17 +5103,17 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y57" s="18">
         <v>0</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
@@ -5064,17 +5129,17 @@
         <v>31</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>106</v>
@@ -5100,14 +5165,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y58" s="18">
         <v>0</v>
       </c>
       <c r="Z58" s="19"/>
       <c r="AA58" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB58" s="6"/>
       <c r="AC58" s="7"/>
@@ -5124,17 +5189,17 @@
         <v>31</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>106</v>
@@ -5160,14 +5225,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y59" s="18">
         <v>0</v>
       </c>
       <c r="Z59" s="19"/>
       <c r="AA59" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB59" s="6"/>
       <c r="AC59" s="7"/>
@@ -5184,17 +5249,17 @@
         <v>31</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>109</v>
@@ -5220,17 +5285,17 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y60" s="18">
         <v>0</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
@@ -5246,17 +5311,17 @@
         <v>31</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>109</v>
@@ -5282,14 +5347,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y61" s="18">
         <v>0</v>
       </c>
       <c r="Z61" s="19"/>
       <c r="AA61" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB61" s="6"/>
       <c r="AC61" s="7"/>
@@ -5306,14 +5371,14 @@
         <v>31</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5338,14 +5403,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y62" s="18">
         <v>0</v>
       </c>
       <c r="Z62" s="19"/>
       <c r="AA62" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB62" s="6"/>
       <c r="AC62" s="7"/>
@@ -5362,14 +5427,14 @@
         <v>31</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5394,14 +5459,14 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y63" s="18">
         <v>0</v>
       </c>
       <c r="Z63" s="19"/>
       <c r="AA63" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB63" s="6"/>
       <c r="AC63" s="7"/>
@@ -5418,14 +5483,14 @@
         <v>31</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5450,14 +5515,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y64" s="18">
         <v>0</v>
       </c>
       <c r="Z64" s="19"/>
       <c r="AA64" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB64" s="6"/>
       <c r="AC64" s="7"/>
@@ -5474,14 +5539,14 @@
         <v>31</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5506,14 +5571,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y65" s="18">
         <v>0</v>
       </c>
       <c r="Z65" s="19"/>
       <c r="AA65" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB65" s="6"/>
       <c r="AC65" s="7"/>
@@ -5530,14 +5595,14 @@
         <v>31</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5562,17 +5627,17 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y66" s="18">
         <v>0</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AB66" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
@@ -5588,14 +5653,14 @@
         <v>31</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5620,17 +5685,17 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y67" s="18">
         <v>0</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AB67" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
@@ -5646,14 +5711,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>105</v>
@@ -5682,14 +5747,14 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y68" s="18">
         <v>0</v>
       </c>
       <c r="Z68" s="19"/>
       <c r="AA68" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB68" s="22"/>
       <c r="AC68" s="7"/>
@@ -5706,14 +5771,14 @@
         <v>31</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>105</v>
@@ -5742,14 +5807,14 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y69" s="18">
         <v>0</v>
       </c>
       <c r="Z69" s="19"/>
       <c r="AA69" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB69" s="22"/>
       <c r="AC69" s="7"/>
@@ -5766,14 +5831,14 @@
         <v>31</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>105</v>
@@ -5802,14 +5867,14 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y70" s="18">
         <v>0</v>
       </c>
       <c r="Z70" s="19"/>
       <c r="AA70" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB70" s="22"/>
       <c r="AC70" s="7"/>
@@ -5826,14 +5891,14 @@
         <v>31</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>105</v>
@@ -5862,17 +5927,17 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y71" s="18">
         <v>0</v>
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AB71" s="23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -5888,14 +5953,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5920,14 +5985,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y72" s="18">
         <v>0</v>
       </c>
       <c r="Z72" s="19"/>
       <c r="AA72" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB72" s="22"/>
       <c r="AC72" s="7"/>
@@ -5944,14 +6009,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5976,14 +6041,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y73" s="18">
         <v>0</v>
       </c>
       <c r="Z73" s="19"/>
       <c r="AA73" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB73" s="22"/>
       <c r="AC73" s="7"/>
@@ -6000,14 +6065,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6032,14 +6097,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y74" s="18">
         <v>0</v>
       </c>
       <c r="Z74" s="19"/>
       <c r="AA74" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="7"/>
@@ -6056,14 +6121,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6088,14 +6153,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y75" s="18">
         <v>0</v>
       </c>
       <c r="Z75" s="19"/>
       <c r="AA75" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB75" s="22"/>
       <c r="AC75" s="7"/>
@@ -6112,14 +6177,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6144,14 +6209,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y76" s="18">
         <v>0</v>
       </c>
       <c r="Z76" s="19"/>
       <c r="AA76" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB76" s="22"/>
       <c r="AC76" s="7"/>
@@ -6168,14 +6233,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6200,14 +6265,14 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y77" s="18">
         <v>0</v>
       </c>
       <c r="Z77" s="19"/>
       <c r="AA77" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB77" s="22"/>
       <c r="AC77" s="7"/>
@@ -6224,14 +6289,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6256,14 +6321,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y78" s="18">
         <v>0</v>
       </c>
       <c r="Z78" s="19"/>
       <c r="AA78" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB78" s="22"/>
       <c r="AC78" s="7"/>
@@ -6280,14 +6345,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6312,14 +6377,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y79" s="18">
         <v>0</v>
       </c>
       <c r="Z79" s="19"/>
       <c r="AA79" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB79" s="22"/>
       <c r="AC79" s="7"/>
@@ -6336,14 +6401,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6368,14 +6433,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y80" s="18">
         <v>0</v>
       </c>
       <c r="Z80" s="19"/>
       <c r="AA80" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB80" s="22"/>
       <c r="AC80" s="7"/>
@@ -6392,14 +6457,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6424,14 +6489,14 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y81" s="18">
         <v>0</v>
       </c>
       <c r="Z81" s="19"/>
       <c r="AA81" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB81" s="22"/>
       <c r="AC81" s="7"/>
@@ -6448,14 +6513,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6480,14 +6545,14 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y82" s="18">
         <v>0</v>
       </c>
       <c r="Z82" s="19"/>
       <c r="AA82" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB82" s="22"/>
       <c r="AC82" s="7"/>
@@ -6504,14 +6569,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6536,14 +6601,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y83" s="18">
         <v>0</v>
       </c>
       <c r="Z83" s="19"/>
       <c r="AA83" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB83" s="22"/>
       <c r="AC83" s="7"/>
@@ -6560,14 +6625,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>116</v>
@@ -6596,14 +6661,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y84" s="18">
         <v>0</v>
       </c>
       <c r="Z84" s="19"/>
       <c r="AA84" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB84" s="22"/>
       <c r="AC84" s="7"/>
@@ -6620,14 +6685,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>116</v>
@@ -6656,14 +6721,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y85" s="18">
         <v>0</v>
       </c>
       <c r="Z85" s="19"/>
       <c r="AA85" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB85" s="22"/>
       <c r="AC85" s="7"/>
@@ -6680,14 +6745,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>116</v>
@@ -6716,17 +6781,17 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y86" s="18">
         <v>0</v>
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AB86" s="23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
@@ -6742,14 +6807,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>116</v>
@@ -6778,14 +6843,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y87" s="18">
         <v>0</v>
       </c>
       <c r="Z87" s="19"/>
       <c r="AA87" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB87" s="22"/>
       <c r="AC87" s="7"/>
@@ -6802,14 +6867,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6834,14 +6899,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y88" s="18">
         <v>0</v>
       </c>
       <c r="Z88" s="19"/>
       <c r="AA88" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB88" s="22"/>
       <c r="AC88" s="7"/>
@@ -6858,14 +6923,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6890,14 +6955,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y89" s="18">
         <v>0</v>
       </c>
       <c r="Z89" s="19"/>
       <c r="AA89" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB89" s="22"/>
       <c r="AC89" s="7"/>
@@ -6914,14 +6979,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6946,17 +7011,17 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y90" s="18">
         <v>0</v>
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
@@ -6972,14 +7037,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -7004,17 +7069,17 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y91" s="18">
         <v>0</v>
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
@@ -7030,14 +7095,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7062,14 +7127,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y92" s="18">
         <v>0</v>
       </c>
       <c r="Z92" s="19"/>
       <c r="AA92" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB92" s="22"/>
       <c r="AC92" s="7"/>
@@ -7086,14 +7151,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7118,14 +7183,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y93" s="18">
         <v>0</v>
       </c>
       <c r="Z93" s="19"/>
       <c r="AA93" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB93" s="22"/>
       <c r="AC93" s="7"/>
@@ -7142,14 +7207,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7174,14 +7239,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y94" s="18">
         <v>0</v>
       </c>
       <c r="Z94" s="19"/>
       <c r="AA94" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB94" s="22"/>
       <c r="AC94" s="7"/>
@@ -7198,17 +7263,17 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>106</v>
@@ -7234,14 +7299,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y95" s="18">
         <v>0</v>
       </c>
       <c r="Z95" s="19"/>
       <c r="AA95" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB95" s="22"/>
       <c r="AC95" s="7"/>
@@ -7258,17 +7323,17 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>106</v>
@@ -7294,14 +7359,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y96" s="18">
         <v>0</v>
       </c>
       <c r="Z96" s="19"/>
       <c r="AA96" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB96" s="22"/>
       <c r="AC96" s="7"/>
@@ -7318,17 +7383,17 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>109</v>
@@ -7354,14 +7419,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y97" s="18">
         <v>0</v>
       </c>
       <c r="Z97" s="19"/>
       <c r="AA97" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB97" s="22"/>
       <c r="AC97" s="7"/>
@@ -7378,17 +7443,17 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>109</v>
@@ -7414,17 +7479,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y98" s="18">
         <v>0</v>
       </c>
       <c r="Z98" s="3"/>
       <c r="AA98" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AB98" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
@@ -7440,17 +7505,17 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>106</v>
@@ -7476,14 +7541,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y99" s="18">
         <v>0</v>
       </c>
       <c r="Z99" s="19"/>
       <c r="AA99" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB99" s="22"/>
       <c r="AC99" s="7"/>
@@ -7500,17 +7565,17 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
@@ -7536,14 +7601,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y100" s="18">
         <v>0</v>
       </c>
       <c r="Z100" s="19"/>
       <c r="AA100" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB100" s="22"/>
       <c r="AC100" s="7"/>
@@ -7560,17 +7625,17 @@
         <v>31</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>109</v>
@@ -7596,17 +7661,17 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y101" s="18">
         <v>0</v>
       </c>
       <c r="Z101" s="3"/>
       <c r="AA101" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AB101" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
@@ -7622,17 +7687,17 @@
         <v>31</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>109</v>
@@ -7658,14 +7723,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y102" s="18">
         <v>0</v>
       </c>
       <c r="Z102" s="19"/>
       <c r="AA102" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB102" s="22"/>
       <c r="AC102" s="7"/>
@@ -7682,17 +7747,17 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>109</v>
@@ -7718,14 +7783,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y103" s="18">
         <v>0</v>
       </c>
       <c r="Z103" s="19"/>
       <c r="AA103" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB103" s="22"/>
       <c r="AC103" s="7"/>
@@ -7742,17 +7807,17 @@
         <v>31</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>106</v>
@@ -7778,14 +7843,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y104" s="18">
         <v>0</v>
       </c>
       <c r="Z104" s="19"/>
       <c r="AA104" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB104" s="22"/>
       <c r="AC104" s="7"/>
@@ -7802,17 +7867,17 @@
         <v>31</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>106</v>
@@ -7838,14 +7903,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y105" s="18">
         <v>0</v>
       </c>
       <c r="Z105" s="19"/>
       <c r="AA105" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB105" s="22"/>
       <c r="AC105" s="7"/>
@@ -7862,17 +7927,17 @@
         <v>31</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>109</v>
@@ -7898,14 +7963,14 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y106" s="18">
         <v>0</v>
       </c>
       <c r="Z106" s="19"/>
       <c r="AA106" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB106" s="22"/>
       <c r="AC106" s="7"/>
@@ -7922,17 +7987,17 @@
         <v>31</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>109</v>
@@ -7958,17 +8023,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y107" s="18">
         <v>0</v>
       </c>
       <c r="Z107" s="3"/>
       <c r="AA107" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AB107" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AC107" s="7"/>
       <c r="AD107" s="7"/>
@@ -7984,17 +8049,17 @@
         <v>31</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>109</v>
@@ -8020,14 +8085,14 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y108" s="18">
         <v>0</v>
       </c>
       <c r="Z108" s="19"/>
       <c r="AA108" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB108" s="22"/>
       <c r="AC108" s="7"/>
@@ -8044,14 +8109,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8076,14 +8141,14 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y109" s="18">
         <v>0</v>
       </c>
       <c r="Z109" s="19"/>
       <c r="AA109" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB109" s="22"/>
       <c r="AC109" s="7"/>
@@ -8100,14 +8165,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8132,14 +8197,14 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y110" s="18">
         <v>0</v>
       </c>
       <c r="Z110" s="19"/>
       <c r="AA110" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB110" s="22"/>
       <c r="AC110" s="7"/>
@@ -8156,14 +8221,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8188,14 +8253,14 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y111" s="18">
         <v>0</v>
       </c>
       <c r="Z111" s="19"/>
       <c r="AA111" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB111" s="22"/>
       <c r="AC111" s="7"/>
@@ -8212,14 +8277,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8244,14 +8309,14 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y112" s="18">
         <v>0</v>
       </c>
       <c r="Z112" s="19"/>
       <c r="AA112" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AB112" s="22"/>
       <c r="AC112" s="7"/>
@@ -8268,13 +8333,15 @@
         <v>31</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E113" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>256</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -8305,7 +8372,7 @@
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AB113" s="22"/>
       <c r="AC113" s="7"/>
@@ -8322,13 +8389,15 @@
         <v>31</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E114" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -8359,7 +8428,7 @@
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AB114" s="22"/>
       <c r="AC114" s="7"/>
@@ -8376,13 +8445,15 @@
         <v>31</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E115" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -8413,7 +8484,7 @@
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AB115" s="22"/>
       <c r="AC115" s="7"/>
@@ -8430,13 +8501,15 @@
         <v>31</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E116" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>263</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -8467,7 +8540,7 @@
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AB116" s="22"/>
       <c r="AC116" s="7"/>
@@ -8481,16 +8554,18 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E117" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -8517,7 +8592,7 @@
       <c r="Y117" s="12"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB117" s="22"/>
       <c r="AC117" s="4"/>
@@ -8531,16 +8606,18 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E118" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>270</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -8567,7 +8644,7 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB118" s="22"/>
       <c r="AC118" s="4"/>
@@ -8581,16 +8658,18 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E119" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -8617,7 +8696,7 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB119" s="22"/>
       <c r="AC119" s="7"/>
@@ -8631,16 +8710,18 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E120" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -8667,7 +8748,7 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB120" s="22"/>
       <c r="AC120" s="7"/>
@@ -8681,16 +8762,18 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E121" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -8717,7 +8800,7 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB121" s="22"/>
       <c r="AC121" s="7"/>
@@ -8731,16 +8814,18 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E122" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -8767,7 +8852,7 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB122" s="22"/>
       <c r="AC122" s="7"/>
@@ -8781,16 +8866,18 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E123" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -8817,7 +8904,7 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB123" s="22"/>
       <c r="AC123" s="7"/>
@@ -8831,16 +8918,18 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>282</v>
+      </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -8867,7 +8956,7 @@
       <c r="Y124" s="12"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB124" s="22"/>
       <c r="AC124" s="7"/>
@@ -8881,16 +8970,18 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E125" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>284</v>
+      </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -8917,7 +9008,7 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB125" s="22"/>
       <c r="AC125" s="7"/>
@@ -8931,16 +9022,18 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E126" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>286</v>
+      </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -8967,7 +9060,7 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="24" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB126" s="22"/>
       <c r="AC126" s="7"/>
@@ -9175,18 +9268,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>109</v>
@@ -9200,7 +9293,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>109</v>
@@ -9250,7 +9343,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF1810-4133-4B73-9DD7-EA0622B75D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94121F0B-BDC8-4D12-ABC1-2304298CEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="4320" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="3780" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="293">
   <si>
     <t>Type</t>
   </si>
@@ -1029,6 +1029,12 @@
     <t>方向てこ表示灯</t>
   </si>
   <si>
+    <t>TH62_11F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Image/Light/AlN.png,Image/Light/AlY.png,Image/Light/AlR.png</t>
   </si>
   <si>
@@ -1149,6 +1155,9 @@
     <t>TH1T_16L_1</t>
   </si>
   <si>
+    <t>TH62_16F</t>
+  </si>
+  <si>
     <t>TH1T_16R_1</t>
   </si>
   <si>
@@ -1342,9 +1351,6 @@
   </si>
   <si>
     <t>Button</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Label</t>
@@ -5608,8 +5614,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
+      <c r="J66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="L66" s="11">
         <v>456</v>
       </c>
@@ -5634,10 +5644,10 @@
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AB66" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
@@ -5653,7 +5663,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -5666,8 +5676,12 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+      <c r="J67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="L67" s="11">
         <v>456</v>
       </c>
@@ -5692,10 +5706,10 @@
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB67" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
@@ -5711,14 +5725,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>105</v>
@@ -5771,14 +5785,14 @@
         <v>31</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>105</v>
@@ -5831,14 +5845,14 @@
         <v>31</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>105</v>
@@ -5891,14 +5905,14 @@
         <v>31</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>105</v>
@@ -5934,10 +5948,10 @@
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AB71" s="23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -5953,14 +5967,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6009,14 +6023,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6065,14 +6079,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6121,14 +6135,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6177,7 +6191,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
@@ -6233,7 +6247,7 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -6289,14 +6303,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6345,14 +6359,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6401,14 +6415,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6457,14 +6471,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6513,14 +6527,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6569,14 +6583,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6625,14 +6639,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>116</v>
@@ -6685,14 +6699,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>116</v>
@@ -6745,14 +6759,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>116</v>
@@ -6788,10 +6802,10 @@
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AB86" s="23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
@@ -6807,14 +6821,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>116</v>
@@ -6867,14 +6881,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6923,14 +6937,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6979,21 +6993,25 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
+      <c r="J90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="L90" s="11">
         <v>1452</v>
       </c>
@@ -7018,10 +7036,10 @@
       </c>
       <c r="Z90" s="3"/>
       <c r="AA90" s="21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
@@ -7037,21 +7055,25 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
+      <c r="J91" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="L91" s="11">
         <v>1452</v>
       </c>
@@ -7076,10 +7098,10 @@
       </c>
       <c r="Z91" s="3"/>
       <c r="AA91" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
@@ -7095,14 +7117,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7151,14 +7173,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7207,14 +7229,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7263,17 +7285,17 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>106</v>
@@ -7323,17 +7345,17 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>106</v>
@@ -7383,17 +7405,17 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>109</v>
@@ -7443,17 +7465,17 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>109</v>
@@ -7505,17 +7527,17 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>106</v>
@@ -7565,17 +7587,17 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
@@ -7625,17 +7647,17 @@
         <v>31</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>109</v>
@@ -7687,17 +7709,17 @@
         <v>31</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>109</v>
@@ -7747,17 +7769,17 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>109</v>
@@ -7807,17 +7829,17 @@
         <v>31</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>106</v>
@@ -7867,17 +7889,17 @@
         <v>31</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>106</v>
@@ -7927,17 +7949,17 @@
         <v>31</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>109</v>
@@ -7987,17 +8009,17 @@
         <v>31</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>109</v>
@@ -8049,17 +8071,17 @@
         <v>31</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>109</v>
@@ -8109,14 +8131,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8165,14 +8187,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8221,14 +8243,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8277,14 +8299,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8333,14 +8355,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -8372,7 +8394,7 @@
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AB113" s="22"/>
       <c r="AC113" s="7"/>
@@ -8389,14 +8411,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -8428,7 +8450,7 @@
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AB114" s="22"/>
       <c r="AC114" s="7"/>
@@ -8445,14 +8467,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -8484,7 +8506,7 @@
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AB115" s="22"/>
       <c r="AC115" s="7"/>
@@ -8501,14 +8523,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -8540,7 +8562,7 @@
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AB116" s="22"/>
       <c r="AC116" s="7"/>
@@ -8554,17 +8576,17 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -8592,7 +8614,7 @@
       <c r="Y117" s="12"/>
       <c r="Z117" s="13"/>
       <c r="AA117" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB117" s="22"/>
       <c r="AC117" s="4"/>
@@ -8606,17 +8628,17 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -8644,7 +8666,7 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB118" s="22"/>
       <c r="AC118" s="4"/>
@@ -8658,17 +8680,17 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -8696,7 +8718,7 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB119" s="22"/>
       <c r="AC119" s="7"/>
@@ -8710,17 +8732,17 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -8748,7 +8770,7 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB120" s="22"/>
       <c r="AC120" s="7"/>
@@ -8762,17 +8784,17 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -8800,7 +8822,7 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB121" s="22"/>
       <c r="AC121" s="7"/>
@@ -8814,17 +8836,17 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -8852,7 +8874,7 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB122" s="22"/>
       <c r="AC122" s="7"/>
@@ -8866,17 +8888,17 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -8904,7 +8926,7 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB123" s="22"/>
       <c r="AC123" s="7"/>
@@ -8918,17 +8940,17 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -8956,7 +8978,7 @@
       <c r="Y124" s="12"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB124" s="22"/>
       <c r="AC124" s="7"/>
@@ -8970,17 +8992,17 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -9008,7 +9030,7 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB125" s="22"/>
       <c r="AC125" s="7"/>
@@ -9022,17 +9044,17 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -9060,7 +9082,7 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB126" s="22"/>
       <c r="AC126" s="7"/>
@@ -9268,18 +9290,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>109</v>
@@ -9293,7 +9315,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>109</v>
@@ -9343,7 +9365,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94121F0B-BDC8-4D12-ABC1-2304298CEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317FBD6D-67B7-4F51-B121-1C8EA0E3516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3780" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="4635" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="295">
   <si>
     <t>Type</t>
   </si>
@@ -1251,16 +1251,22 @@
     <t>TH61_6LT_2</t>
   </si>
   <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>状態表示灯</t>
+  </si>
+  <si>
+    <t>TH62_W-FAILURE</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
-    <t>状態表示灯</t>
-  </si>
-  <si>
     <t>TH62_PWR-FAILURE</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
     <t>CTC故障_R</t>
@@ -1730,7 +1736,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ130"/>
+  <dimension ref="A1:AJ131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -8371,7 +8377,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
       <c r="L113" s="11">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M113" s="11">
         <v>45</v>
@@ -8427,7 +8433,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="11">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M114" s="11">
         <v>45</v>
@@ -8483,10 +8489,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
       <c r="L115" s="11">
-        <v>936</v>
+        <v>278</v>
       </c>
       <c r="M115" s="11">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -8539,7 +8545,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
       <c r="L116" s="11">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="M116" s="11">
         <v>567</v>
@@ -8576,17 +8582,17 @@
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>270</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -8595,10 +8601,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
       <c r="L117" s="11">
-        <v>155</v>
+        <v>974</v>
       </c>
       <c r="M117" s="11">
-        <v>100</v>
+        <v>567</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -8609,36 +8615,40 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-      <c r="Z117" s="13"/>
-      <c r="AA117" s="24" t="s">
-        <v>271</v>
+      <c r="W117" s="4"/>
+      <c r="X117" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y117" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="AB117" s="22"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-      <c r="AG117" s="4"/>
-      <c r="AH117" s="4"/>
-      <c r="AI117" s="4"/>
-      <c r="AJ117" s="4"/>
+      <c r="AC117" s="7"/>
+      <c r="AD117" s="7"/>
+      <c r="AE117" s="7"/>
+      <c r="AF117" s="7"/>
+      <c r="AG117" s="7"/>
+      <c r="AH117" s="7"/>
+      <c r="AI117" s="7"/>
+      <c r="AJ117" s="7"/>
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -8650,7 +8660,7 @@
         <v>155</v>
       </c>
       <c r="M118" s="11">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -8666,7 +8676,7 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB118" s="22"/>
       <c r="AC118" s="4"/>
@@ -8680,14 +8690,14 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E119" s="18" t="s">
         <v>275</v>
@@ -8699,7 +8709,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
       <c r="L119" s="11">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="M119" s="11">
         <v>146</v>
@@ -8718,28 +8728,28 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB119" s="22"/>
-      <c r="AC119" s="7"/>
-      <c r="AD119" s="7"/>
-      <c r="AE119" s="7"/>
-      <c r="AF119" s="7"/>
-      <c r="AG119" s="7"/>
-      <c r="AH119" s="7"/>
-      <c r="AI119" s="7"/>
-      <c r="AJ119" s="7"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4"/>
+      <c r="AF119" s="4"/>
+      <c r="AG119" s="4"/>
+      <c r="AH119" s="4"/>
+      <c r="AI119" s="4"/>
+      <c r="AJ119" s="4"/>
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>276</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>277</v>
@@ -8751,7 +8761,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
       <c r="L120" s="11">
-        <v>455</v>
+        <v>305</v>
       </c>
       <c r="M120" s="11">
         <v>146</v>
@@ -8770,7 +8780,7 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB120" s="22"/>
       <c r="AC120" s="7"/>
@@ -8784,14 +8794,14 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>279</v>
@@ -8803,10 +8813,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
       <c r="L121" s="11">
-        <v>898</v>
+        <v>455</v>
       </c>
       <c r="M121" s="11">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -8822,7 +8832,7 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB121" s="22"/>
       <c r="AC121" s="7"/>
@@ -8836,14 +8846,14 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>281</v>
@@ -8858,7 +8868,7 @@
         <v>898</v>
       </c>
       <c r="M122" s="11">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -8874,7 +8884,7 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB122" s="22"/>
       <c r="AC122" s="7"/>
@@ -8888,14 +8898,14 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>282</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E123" s="18" t="s">
         <v>283</v>
@@ -8907,10 +8917,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
       <c r="L123" s="11">
-        <v>1429</v>
+        <v>898</v>
       </c>
       <c r="M123" s="11">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -8926,7 +8936,7 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB123" s="22"/>
       <c r="AC123" s="7"/>
@@ -8940,14 +8950,14 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>284</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E124" s="18" t="s">
         <v>285</v>
@@ -8959,7 +8969,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
       <c r="L124" s="11">
-        <v>1579</v>
+        <v>1429</v>
       </c>
       <c r="M124" s="11">
         <v>486</v>
@@ -8978,7 +8988,7 @@
       <c r="Y124" s="12"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB124" s="22"/>
       <c r="AC124" s="7"/>
@@ -8992,14 +9002,14 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E125" s="18" t="s">
         <v>287</v>
@@ -9011,10 +9021,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
       <c r="L125" s="11">
-        <v>1729</v>
+        <v>1579</v>
       </c>
       <c r="M125" s="11">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -9030,7 +9040,7 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB125" s="22"/>
       <c r="AC125" s="7"/>
@@ -9044,14 +9054,14 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>288</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E126" s="18" t="s">
         <v>289</v>
@@ -9066,7 +9076,7 @@
         <v>1729</v>
       </c>
       <c r="M126" s="11">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -9082,7 +9092,7 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB126" s="22"/>
       <c r="AC126" s="7"/>
@@ -9095,19 +9105,31 @@
       <c r="AJ126" s="7"/>
     </row>
     <row r="127" spans="1:36">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="A127" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>290</v>
+      </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="D127" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11">
+        <v>1729</v>
+      </c>
+      <c r="M127" s="11">
+        <v>486</v>
+      </c>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
@@ -9117,12 +9139,14 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
+      <c r="W127" s="12"/>
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
       <c r="Z127" s="13"/>
-      <c r="AA127" s="14"/>
-      <c r="AB127" s="6"/>
+      <c r="AA127" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB127" s="22"/>
       <c r="AC127" s="7"/>
       <c r="AD127" s="7"/>
       <c r="AE127" s="7"/>
@@ -9172,7 +9196,7 @@
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="4"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -9194,10 +9218,10 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="5"/>
-      <c r="AA129" s="25"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="13"/>
+      <c r="AA129" s="14"/>
       <c r="AB129" s="6"/>
       <c r="AC129" s="7"/>
       <c r="AD129" s="7"/>
@@ -9246,6 +9270,44 @@
       <c r="AI130" s="7"/>
       <c r="AJ130" s="7"/>
     </row>
+    <row r="131" spans="1:36">
+      <c r="A131" s="4"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="25"/>
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="7"/>
+      <c r="AD131" s="7"/>
+      <c r="AE131" s="7"/>
+      <c r="AF131" s="7"/>
+      <c r="AG131" s="7"/>
+      <c r="AH131" s="7"/>
+      <c r="AI131" s="7"/>
+      <c r="AJ131" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9257,19 +9319,19 @@
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G130 I2:I130</xm:sqref>
+          <xm:sqref>G2:G131 I2:I131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K130</xm:sqref>
+          <xm:sqref>K2:K131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A130</xm:sqref>
+          <xm:sqref>A2:A131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9290,7 +9352,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>106</v>
@@ -9301,7 +9363,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>109</v>
@@ -9315,7 +9377,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>109</v>
@@ -9365,7 +9427,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
+++ b/exe/TSV/Excel/TH62_Takamizawa_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317FBD6D-67B7-4F51-B121-1C8EA0E3516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3CBFD7-A33C-42E8-A8E8-85B2E1AD90C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="4635" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="23940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH62_高見沢駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="296">
   <si>
     <t>Type</t>
   </si>
@@ -954,142 +954,145 @@
     <t>TH63_12RT_1</t>
   </si>
   <si>
+    <t>TH63_12RT</t>
+  </si>
+  <si>
+    <t>TH63_12RT_2</t>
+  </si>
+  <si>
+    <t>TH63_15LT_1</t>
+  </si>
+  <si>
+    <t>TH63_15LT</t>
+  </si>
+  <si>
+    <t>TH63_15LT_2</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イN_1</t>
+  </si>
+  <si>
+    <t>TH63_22イT</t>
+  </si>
+  <si>
+    <t>TH63_W22</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イR_1</t>
+  </si>
+  <si>
+    <t>TH63_22イT_W22イR_2</t>
+  </si>
+  <si>
+    <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
+  </si>
+  <si>
+    <t>112度</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロN_1</t>
+  </si>
+  <si>
+    <t>TH63_22ロT</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロN_2</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロR_1</t>
+  </si>
+  <si>
+    <t>TH63_22ロT_W22ロR_2</t>
+  </si>
+  <si>
+    <t>MT1T_1</t>
+  </si>
+  <si>
+    <t>MT1T</t>
+  </si>
+  <si>
+    <t>MT1T_2</t>
+  </si>
+  <si>
+    <t>MT2T_1</t>
+  </si>
+  <si>
+    <t>MT2T</t>
+  </si>
+  <si>
+    <t>MT2T_2</t>
+  </si>
+  <si>
+    <t>MT2T_11L_1</t>
+  </si>
+  <si>
+    <t>方向てこ表示灯</t>
+  </si>
+  <si>
+    <t>TH62_11F</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Image/Light/AlN.png,Image/Light/AlY.png,Image/Light/AlR.png</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>MT2T_11R_1</t>
+  </si>
+  <si>
+    <t>Image/Light/ArN.png,Image/Light/ArY.png,Image/Light/ArR.png</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21N_1</t>
+  </si>
+  <si>
+    <t>TH62_21T</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21R_2</t>
+  </si>
+  <si>
+    <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
+  </si>
+  <si>
+    <t>135度</t>
+  </si>
+  <si>
+    <t>TH62_12LT_1</t>
+  </si>
+  <si>
+    <t>TH62_12LT</t>
+  </si>
+  <si>
+    <t>TH62_12LT_2</t>
+  </si>
+  <si>
+    <t>TH62_13LT_1</t>
+  </si>
+  <si>
+    <t>TH62_13LT</t>
+  </si>
+  <si>
+    <t>TH62_13LT_2</t>
+  </si>
+  <si>
+    <t>TH62_12RT_1</t>
+  </si>
+  <si>
     <t>TH62_12RT</t>
-  </si>
-  <si>
-    <t>TH63_12RT_2</t>
-  </si>
-  <si>
-    <t>TH63_15LT_1</t>
-  </si>
-  <si>
-    <t>TH63_15LT</t>
-  </si>
-  <si>
-    <t>TH63_15LT_2</t>
-  </si>
-  <si>
-    <t>TH63_22イT_W22イN_1</t>
-  </si>
-  <si>
-    <t>TH63_22イT</t>
-  </si>
-  <si>
-    <t>TH63_W22</t>
-  </si>
-  <si>
-    <t>TH63_22イT_W22イR_1</t>
-  </si>
-  <si>
-    <t>TH63_22イT_W22イR_2</t>
-  </si>
-  <si>
-    <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
-  </si>
-  <si>
-    <t>112度</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_W22ロN_1</t>
-  </si>
-  <si>
-    <t>TH63_22ロT</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_W22ロN_2</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_W22ロR_1</t>
-  </si>
-  <si>
-    <t>TH63_22ロT_W22ロR_2</t>
-  </si>
-  <si>
-    <t>MT1T_1</t>
-  </si>
-  <si>
-    <t>MT1T</t>
-  </si>
-  <si>
-    <t>MT1T_2</t>
-  </si>
-  <si>
-    <t>MT2T_1</t>
-  </si>
-  <si>
-    <t>MT2T</t>
-  </si>
-  <si>
-    <t>MT2T_2</t>
-  </si>
-  <si>
-    <t>MT2T_11L_1</t>
-  </si>
-  <si>
-    <t>方向てこ表示灯</t>
-  </si>
-  <si>
-    <t>TH62_11F</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Image/Light/AlN.png,Image/Light/AlY.png,Image/Light/AlR.png</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>MT2T_11R_1</t>
-  </si>
-  <si>
-    <t>Image/Light/ArN.png,Image/Light/ArY.png,Image/Light/ArR.png</t>
-  </si>
-  <si>
-    <t>Ar</t>
-  </si>
-  <si>
-    <t>TH62_21T_W21N_1</t>
-  </si>
-  <si>
-    <t>TH62_21T</t>
-  </si>
-  <si>
-    <t>TH62_21T_W21N_2</t>
-  </si>
-  <si>
-    <t>TH62_21T_W21R_1</t>
-  </si>
-  <si>
-    <t>TH62_21T_W21R_2</t>
-  </si>
-  <si>
-    <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
-  </si>
-  <si>
-    <t>135度</t>
-  </si>
-  <si>
-    <t>TH62_12LT_1</t>
-  </si>
-  <si>
-    <t>TH62_12LT</t>
-  </si>
-  <si>
-    <t>TH62_12LT_2</t>
-  </si>
-  <si>
-    <t>TH62_13LT_1</t>
-  </si>
-  <si>
-    <t>TH62_13LT</t>
-  </si>
-  <si>
-    <t>TH62_13LT_2</t>
-  </si>
-  <si>
-    <t>TH62_12RT_1</t>
   </si>
   <si>
     <t>TH62_12RT_2</t>
@@ -6204,7 +6207,7 @@
         <v>141</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6253,14 +6256,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6309,14 +6312,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6365,14 +6368,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6421,14 +6424,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6477,14 +6480,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6533,14 +6536,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6589,14 +6592,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6645,14 +6648,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>116</v>
@@ -6705,14 +6708,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>116</v>
@@ -6765,14 +6768,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>116</v>
@@ -6808,10 +6811,10 @@
       </c>
       <c r="Z86" s="3"/>
       <c r="AA86" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB86" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
@@ -6827,14 +6830,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>116</v>
@@ -6887,14 +6890,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6943,14 +6946,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6999,21 +7002,21 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K90" s="11" t="s">
         <v>184</v>
@@ -7061,21 +7064,21 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>109</v>
@@ -7123,14 +7126,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7179,14 +7182,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7235,14 +7238,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7291,17 +7294,17 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>106</v>
@@ -7351,17 +7354,17 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>106</v>
@@ -7411,17 +7414,17 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>109</v>
@@ -7471,17 +7474,17 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>109</v>
@@ -7533,17 +7536,17 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>106</v>
@@ -7593,17 +7596,17 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
@@ -7653,17 +7656,17 @@
         <v>31</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>109</v>
@@ -7715,17 +7718,17 @@
         <v>31</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>109</v>
@@ -7775,17 +7778,17 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>109</v>
@@ -7835,17 +7838,17 @@
         <v>31</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>106</v>
@@ -7895,17 +7898,17 @@
         <v>31</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>106</v>
@@ -7955,17 +7958,17 @@
         <v>31</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>109</v>
@@ -8015,17 +8018,17 @@
         <v>31</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>109</v>
@@ -8077,17 +8080,17 @@
         <v>31</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>109</v>
@@ -8137,14 +8140,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8193,14 +8196,14 @@
         <v>31</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8249,14 +8252,14 @@
         <v>31</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8305,14 +8308,14 @@
         <v>31</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8361,14 +8364,14 @@
         <v>31</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -8400,7 +8403,7 @@
       </c>
       <c r="Z113" s="3"/>
       <c r="AA113" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB113" s="22"/>
       <c r="AC113" s="7"/>
@@ -8417,14 +8420,14 @@
         <v>31</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -8456,7 +8459,7 @@
       </c>
       <c r="Z114" s="3"/>
       <c r="AA114" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB114" s="22"/>
       <c r="AC114" s="7"/>
@@ -8473,14 +8476,14 @@
         <v>31</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -8512,7 +8515,7 @@
       </c>
       <c r="Z115" s="3"/>
       <c r="AA115" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB115" s="22"/>
       <c r="AC115" s="7"/>
@@ -8529,14 +8532,14 @@
         <v>31</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -8568,7 +8571,7 @@
       </c>
       <c r="Z116" s="3"/>
       <c r="AA116" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB116" s="22"/>
       <c r="AC116" s="7"/>
@@ -8585,14 +8588,14 @@
         <v>31</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -8624,7 +8627,7 @@
       </c>
       <c r="Z117" s="3"/>
       <c r="AA117" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB117" s="22"/>
       <c r="AC117" s="7"/>
@@ -8638,17 +8641,17 @@
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -8676,7 +8679,7 @@
       <c r="Y118" s="12"/>
       <c r="Z118" s="13"/>
       <c r="AA118" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB118" s="22"/>
       <c r="AC118" s="4"/>
@@ -8690,17 +8693,17 @@
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -8728,7 +8731,7 @@
       <c r="Y119" s="12"/>
       <c r="Z119" s="13"/>
       <c r="AA119" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB119" s="22"/>
       <c r="AC119" s="4"/>
@@ -8742,17 +8745,17 @@
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -8780,7 +8783,7 @@
       <c r="Y120" s="12"/>
       <c r="Z120" s="13"/>
       <c r="AA120" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB120" s="22"/>
       <c r="AC120" s="7"/>
@@ -8794,17 +8797,17 @@
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -8832,7 +8835,7 @@
       <c r="Y121" s="12"/>
       <c r="Z121" s="13"/>
       <c r="AA121" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB121" s="22"/>
       <c r="AC121" s="7"/>
@@ -8846,17 +8849,17 @@
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -8884,7 +8887,7 @@
       <c r="Y122" s="12"/>
       <c r="Z122" s="13"/>
       <c r="AA122" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB122" s="22"/>
       <c r="AC122" s="7"/>
@@ -8898,17 +8901,17 @@
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -8936,7 +8939,7 @@
       <c r="Y123" s="12"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB123" s="22"/>
       <c r="AC123" s="7"/>
@@ -8950,17 +8953,17 @@
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -8988,7 +8991,7 @@
       <c r="Y124" s="12"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB124" s="22"/>
       <c r="AC124" s="7"/>
@@ -9002,17 +9005,17 @@
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -9040,7 +9043,7 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="13"/>
       <c r="AA125" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB125" s="22"/>
       <c r="AC125" s="7"/>
@@ -9054,17 +9057,17 @@
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -9092,7 +9095,7 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="13"/>
       <c r="AA126" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB126" s="22"/>
       <c r="AC126" s="7"/>
@@ -9106,17 +9109,17 @@
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -9144,7 +9147,7 @@
       <c r="Y127" s="12"/>
       <c r="Z127" s="13"/>
       <c r="AA127" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB127" s="22"/>
       <c r="AC127" s="7"/>
@@ -9352,7 +9355,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>106</v>
@@ -9363,7 +9366,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>109</v>
@@ -9377,7 +9380,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>109</v>
@@ -9427,7 +9430,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
